--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="178">
   <si>
     <t>Staff Name</t>
   </si>
@@ -556,12 +556,6 @@
   </si>
   <si>
     <t>1004</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>Log off and make sure neck mic goes back to drawer.</t>
   </si>
 </sst>
 </file>
@@ -610,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,12 +625,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,21 +724,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,10 +1032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,7 +3711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>27</v>
       </c>
@@ -3755,7 +3728,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>27</v>
       </c>
@@ -3772,7 +3745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>27</v>
       </c>
@@ -3787,87 +3760,6 @@
       </c>
       <c r="E179" s="11" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C183" s="23"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="25"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B184" s="10">
-        <v>42584</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F184" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B185" s="10">
-        <v>42584</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B186" s="10">
-        <v>42584</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B187" s="10">
-        <v>42584</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="180">
   <si>
     <t>Staff Name</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>1004</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>Log off and make sure neck mic goes back to drawer.</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +694,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,6 +736,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1059,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,7 +3738,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>27</v>
       </c>
@@ -3728,7 +3755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>27</v>
       </c>
@@ -3745,7 +3772,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>27</v>
       </c>
@@ -3760,6 +3787,87 @@
       </c>
       <c r="E179" s="11" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="21"/>
+      <c r="B183" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C183" s="23"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="25"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="10">
+        <v>42584</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F184" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="10">
+        <v>42584</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="10">
+        <v>42584</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="10">
+        <v>42584</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="181">
   <si>
     <t>Staff Name</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Log off and make sure neck mic goes back to drawer.</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,6 +3871,67 @@
       </c>
       <c r="E187" s="11" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="21"/>
+      <c r="B190" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C190" s="23"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="25"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="10">
+        <v>42585</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" s="10">
+        <v>42585</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="10">
+        <v>42585</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="189">
   <si>
     <t>Staff Name</t>
   </si>
@@ -565,6 +565,30 @@
   </si>
   <si>
     <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>Return camera and tripod to ACE 015 storeroom.</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic and stand and cable from Osgoode Moot Court Room. Put in closet just to right of PC cabinet behind podium.</t>
+  </si>
+  <si>
+    <t>Return neck mic to cabinet drawer and shut drawer.</t>
+  </si>
+  <si>
+    <t>Log off crestron in Osgoode Moot Court.</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1086,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,7 +3941,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>27</v>
       </c>
@@ -3932,6 +3956,208 @@
       </c>
       <c r="E193" s="11" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="21"/>
+      <c r="B196" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C196" s="23"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="25"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" s="10">
+        <v>42586</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B198" s="10">
+        <v>42586</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="10">
+        <v>42586</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" s="10">
+        <v>42586</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="21"/>
+      <c r="B203" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C203" s="23"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="25"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B204" s="10">
+        <v>42587</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F204" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B205" s="10">
+        <v>42587</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" s="10">
+        <v>42587</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B207" s="10">
+        <v>42587</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F207" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="10">
+        <v>42587</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F208" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" s="10">
+        <v>42587</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F209" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="192">
   <si>
     <t>Staff Name</t>
   </si>
@@ -589,6 +589,15 @@
   </si>
   <si>
     <t>Log off crestron in Osgoode Moot Court.</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>1014 ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log off PC  - pick up wireless keyboard and return to Osgoode 1014L storeroom. Log off touch screen on wall near door to storeroom. Leave mic stand and mic in room. Key for Osgoode ADR 1014 is in HNES 003 storeroom (labelled Osgoode ADR). </t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4158,6 +4167,87 @@
       </c>
       <c r="F209" s="19" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="21"/>
+      <c r="B212" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" s="23"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="24"/>
+      <c r="F212" s="25"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B213" s="10">
+        <v>42590</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" s="10">
+        <v>42590</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215" s="10">
+        <v>42590</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B216" s="10">
+        <v>42590</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F216" s="19" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="216" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B216" s="10">
         <v>42590</v>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="194">
   <si>
     <t>Staff Name</t>
   </si>
@@ -598,6 +598,12 @@
   </si>
   <si>
     <t xml:space="preserve">Log off PC  - pick up wireless keyboard and return to Osgoode 1014L storeroom. Log off touch screen on wall near door to storeroom. Leave mic stand and mic in room. Key for Osgoode ADR 1014 is in HNES 003 storeroom (labelled Osgoode ADR). </t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>Pick up Skype camera and tripod and return to KT 516 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1101,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+      <selection activeCell="F225" sqref="F225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,6 +4254,36 @@
       </c>
       <c r="F216" s="19" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="21"/>
+      <c r="B220" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C220" s="23"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="24"/>
+      <c r="F220" s="25"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B221" s="10">
+        <v>42592</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F221" s="19" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="197">
   <si>
     <t>Staff Name</t>
   </si>
@@ -604,6 +604,15 @@
   </si>
   <si>
     <t>Pick up Skype camera and tripod and return to KT 516 storeroom.</t>
+  </si>
+  <si>
+    <t>3069</t>
+  </si>
+  <si>
+    <t>3072</t>
+  </si>
+  <si>
+    <t>2116</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1110,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F225" sqref="F225"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,6 +4293,91 @@
       </c>
       <c r="F221" s="19" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225" s="10">
+        <v>42597</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B226" s="10">
+        <v>42597</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B227" s="10">
+        <v>42597</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" s="10">
+        <v>42598</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B232" s="10">
+        <v>42598</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="197">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1110,10 +1110,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,6 +4377,40 @@
         <v>25</v>
       </c>
       <c r="E232" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B236" s="10">
+        <v>42599</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B237" s="10">
+        <v>42599</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" s="11" t="s">
         <v>195</v>
       </c>
     </row>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="198">
   <si>
     <t>Staff Name</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>2116</t>
+  </si>
+  <si>
+    <t>DB</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1113,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,6 +4414,74 @@
         <v>25</v>
       </c>
       <c r="E237" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B241" s="10">
+        <v>42600</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B242" s="10">
+        <v>42600</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="10">
+        <v>42601</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B247" s="10">
+        <v>42601</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4440,8 +4511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,7 +4684,7 @@
         <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4624,7 +4695,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4635,7 +4706,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4646,7 +4717,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4657,7 +4728,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4668,7 +4739,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4679,7 +4750,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4690,7 +4761,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4701,7 +4772,7 @@
         <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4712,7 +4783,7 @@
         <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4723,7 +4794,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4731,7 +4802,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4739,7 +4810,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4747,7 +4818,7 @@
         <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4763,7 +4834,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,7 +4842,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4779,7 +4850,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,7 +4858,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4795,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4803,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4811,7 +4882,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4819,7 +4890,7 @@
         <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,23 +4898,26 @@
         <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -4885,8 +4959,8 @@
       <c r="A58" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A38">
-    <sortCondition ref="A2:A38"/>
+  <sortState ref="C2:C41">
+    <sortCondition ref="C41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="202">
   <si>
     <t>Staff Name</t>
   </si>
@@ -616,6 +616,18 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>Return podium mic, cable and stand to booth behind stage</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>Return IR mic to KT 516 / place battery into charger</t>
+  </si>
+  <si>
+    <t>Return podium mic, cable and stand to OSG 1014 L</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1125,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,7 +4429,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>27</v>
       </c>
@@ -4434,7 +4446,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>27</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>27</v>
       </c>
@@ -4468,7 +4480,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>27</v>
       </c>
@@ -4483,6 +4495,117 @@
       </c>
       <c r="E247" s="11" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" s="10">
+        <v>42604</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B252" s="10">
+        <v>42604</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B253" s="10">
+        <v>42604</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F253" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254" s="10">
+        <v>42604</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B255" s="10">
+        <v>42604</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F255" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B256" s="10">
+        <v>42604</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F256" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="204">
   <si>
     <t>Staff Name</t>
   </si>
@@ -628,6 +628,12 @@
   </si>
   <si>
     <t>Return podium mic, cable and stand to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>we do not have a key for the room / be on time</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1131,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F256"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,6 +4612,60 @@
       </c>
       <c r="F256" s="19" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B260" s="10">
+        <v>42605</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B261" s="10">
+        <v>42605</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F261" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" s="10">
+        <v>42605</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
+    <workbookView xWindow="96" yWindow="156" windowWidth="14868" windowHeight="10788" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="209">
   <si>
     <t>Staff Name</t>
   </si>
@@ -634,6 +634,21 @@
   </si>
   <si>
     <t>we do not have a key for the room / be on time</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>ATRIUM</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>Wireless hand held mic available in IKB 1014L (tested) ; PA system built in - event starts at 6:00</t>
+  </si>
+  <si>
+    <t>Return Wireless hand held mic to IKB 1014L</t>
   </si>
 </sst>
 </file>
@@ -1131,21 +1146,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="3"/>
+    <col min="5" max="5" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="22.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1168,7 +1183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1185,7 +1200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1219,7 +1234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1486,7 +1501,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1537,7 +1552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +1620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1639,7 +1654,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1739,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
@@ -1775,7 +1790,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1841,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -1843,7 +1858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1860,7 +1875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +1892,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>27</v>
       </c>
@@ -1894,7 +1909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +1926,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -1928,7 +1943,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1977,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -1979,7 +1994,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>27</v>
       </c>
@@ -2013,7 +2028,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -2047,7 +2062,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
@@ -2064,7 +2079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -2081,7 +2096,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +2113,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>27</v>
       </c>
@@ -2115,7 +2130,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>27</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -2166,7 +2181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
@@ -2200,7 +2215,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>27</v>
       </c>
@@ -2217,7 +2232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>27</v>
       </c>
@@ -2234,7 +2249,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -2274,7 +2289,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -2314,7 +2329,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>27</v>
       </c>
@@ -2331,7 +2346,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>27</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>27</v>
       </c>
@@ -2365,7 +2380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>27</v>
       </c>
@@ -2382,7 +2397,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>27</v>
       </c>
@@ -2399,7 +2414,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>12</v>
       </c>
@@ -2416,7 +2431,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>27</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>27</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>27</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>27</v>
       </c>
@@ -2484,7 +2499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>27</v>
       </c>
@@ -2501,7 +2516,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>27</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>27</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +2567,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>27</v>
       </c>
@@ -2569,7 +2584,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>27</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>27</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>27</v>
       </c>
@@ -2620,7 +2635,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>27</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>27</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>27</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>12</v>
       </c>
@@ -2688,7 +2703,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2720,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>27</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>27</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>27</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>27</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>27</v>
       </c>
@@ -2790,7 +2805,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>27</v>
       </c>
@@ -2807,7 +2822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>27</v>
       </c>
@@ -2824,7 +2839,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>27</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>27</v>
       </c>
@@ -2858,7 +2873,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>27</v>
       </c>
@@ -2875,7 +2890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>27</v>
       </c>
@@ -2892,7 +2907,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +2924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>27</v>
       </c>
@@ -2926,7 +2941,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>27</v>
       </c>
@@ -2943,7 +2958,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>27</v>
       </c>
@@ -2960,7 +2975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>27</v>
       </c>
@@ -2977,7 +2992,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +3009,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>27</v>
       </c>
@@ -3011,7 +3026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>27</v>
       </c>
@@ -3028,7 +3043,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>27</v>
       </c>
@@ -3045,7 +3060,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>27</v>
       </c>
@@ -3062,7 +3077,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>27</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>27</v>
       </c>
@@ -3096,7 +3111,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>27</v>
       </c>
@@ -3113,7 +3128,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>27</v>
       </c>
@@ -3130,7 +3145,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>27</v>
       </c>
@@ -3147,7 +3162,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>27</v>
       </c>
@@ -3181,7 +3196,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>27</v>
       </c>
@@ -3198,7 +3213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>27</v>
       </c>
@@ -3215,7 +3230,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>27</v>
       </c>
@@ -3232,7 +3247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>27</v>
       </c>
@@ -3249,7 +3264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>27</v>
       </c>
@@ -3266,7 +3281,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3298,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>27</v>
       </c>
@@ -3300,7 +3315,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>27</v>
       </c>
@@ -3317,7 +3332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>27</v>
       </c>
@@ -3334,7 +3349,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>27</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>27</v>
       </c>
@@ -3368,7 +3383,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>27</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>27</v>
       </c>
@@ -3402,7 +3417,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>27</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>27</v>
       </c>
@@ -3436,7 +3451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3485,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>27</v>
       </c>
@@ -3487,7 +3502,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>27</v>
       </c>
@@ -3504,7 +3519,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>27</v>
       </c>
@@ -3521,7 +3536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>27</v>
       </c>
@@ -3538,7 +3553,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>27</v>
       </c>
@@ -3555,7 +3570,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>27</v>
       </c>
@@ -3572,7 +3587,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>27</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>27</v>
       </c>
@@ -3606,7 +3621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>27</v>
       </c>
@@ -3623,7 +3638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>27</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>27</v>
       </c>
@@ -3657,7 +3672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>27</v>
       </c>
@@ -3674,7 +3689,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>27</v>
       </c>
@@ -3691,7 +3706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>27</v>
       </c>
@@ -3708,7 +3723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>27</v>
       </c>
@@ -3725,7 +3740,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>27</v>
       </c>
@@ -3742,7 +3757,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>27</v>
       </c>
@@ -3759,7 +3774,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>27</v>
       </c>
@@ -3776,7 +3791,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>27</v>
       </c>
@@ -3793,7 +3808,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>27</v>
       </c>
@@ -3810,7 +3825,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>27</v>
       </c>
@@ -3827,7 +3842,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>27</v>
       </c>
@@ -3844,7 +3859,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>27</v>
       </c>
@@ -3861,7 +3876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="22" t="s">
         <v>178</v>
@@ -3871,7 +3886,7 @@
       <c r="E183" s="24"/>
       <c r="F183" s="25"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>27</v>
       </c>
@@ -3891,7 +3906,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>27</v>
       </c>
@@ -3908,7 +3923,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>27</v>
       </c>
@@ -3925,7 +3940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>27</v>
       </c>
@@ -3942,7 +3957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="22" t="s">
         <v>180</v>
@@ -3952,7 +3967,7 @@
       <c r="E190" s="24"/>
       <c r="F190" s="25"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>27</v>
       </c>
@@ -3969,7 +3984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>27</v>
       </c>
@@ -3986,7 +4001,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>27</v>
       </c>
@@ -4003,7 +4018,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="22" t="s">
         <v>181</v>
@@ -4013,7 +4028,7 @@
       <c r="E196" s="24"/>
       <c r="F196" s="25"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>27</v>
       </c>
@@ -4030,7 +4045,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>27</v>
       </c>
@@ -4047,7 +4062,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>27</v>
       </c>
@@ -4064,7 +4079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>27</v>
       </c>
@@ -4081,7 +4096,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="22" t="s">
         <v>182</v>
@@ -4091,7 +4106,7 @@
       <c r="E203" s="24"/>
       <c r="F203" s="25"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>96</v>
       </c>
@@ -4111,7 +4126,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>27</v>
       </c>
@@ -4128,7 +4143,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>27</v>
       </c>
@@ -4165,7 +4180,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4200,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>27</v>
       </c>
@@ -4205,7 +4220,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="22" t="s">
         <v>189</v>
@@ -4215,7 +4230,7 @@
       <c r="E212" s="24"/>
       <c r="F212" s="25"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>27</v>
       </c>
@@ -4232,7 +4247,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>27</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>27</v>
       </c>
@@ -4286,7 +4301,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="22" t="s">
         <v>180</v>
@@ -4296,7 +4311,7 @@
       <c r="E220" s="24"/>
       <c r="F220" s="25"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>96</v>
       </c>
@@ -4316,7 +4331,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>27</v>
       </c>
@@ -4333,7 +4348,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>27</v>
       </c>
@@ -4350,7 +4365,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>27</v>
       </c>
@@ -4367,7 +4382,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>27</v>
       </c>
@@ -4384,7 +4399,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>27</v>
       </c>
@@ -4401,7 +4416,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>27</v>
       </c>
@@ -4418,7 +4433,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>27</v>
       </c>
@@ -4435,7 +4450,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>27</v>
       </c>
@@ -4452,7 +4467,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>27</v>
       </c>
@@ -4469,7 +4484,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>27</v>
       </c>
@@ -4486,7 +4501,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>27</v>
       </c>
@@ -4503,7 +4518,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>27</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>27</v>
       </c>
@@ -4537,7 +4552,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>94</v>
       </c>
@@ -4557,7 +4572,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>27</v>
       </c>
@@ -4574,7 +4589,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>94</v>
       </c>
@@ -4594,7 +4609,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>94</v>
       </c>
@@ -4614,7 +4629,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>27</v>
       </c>
@@ -4631,7 +4646,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -4651,7 +4666,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>27</v>
       </c>
@@ -4666,6 +4681,80 @@
       </c>
       <c r="E262" s="11" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B266" s="10">
+        <v>42606</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B267" s="10">
+        <v>42606</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B268" s="10">
+        <v>42606</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F268" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B269" s="10">
+        <v>42606</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F269" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4695,17 +4784,17 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C2:C41"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +4805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -4727,7 +4816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4738,249 +4827,246 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -4988,7 +5074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -4996,7 +5082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -5004,7 +5090,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5012,7 +5098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5020,7 +5106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -5028,7 +5114,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -5036,7 +5122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -5044,7 +5130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -5052,7 +5138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -5060,7 +5146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -5068,7 +5154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -5076,7 +5162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -5084,66 +5170,66 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C41">
-    <sortCondition ref="C41"/>
+  <sortState ref="A2:A41">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="156" windowWidth="14868" windowHeight="10788" tabRatio="440"/>
+    <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="219">
   <si>
     <t>Staff Name</t>
   </si>
@@ -649,6 +649,36 @@
   </si>
   <si>
     <t>Return Wireless hand held mic to IKB 1014L</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics and podium mic with stands and cable to front booth behind stage</t>
+  </si>
+  <si>
+    <t>Pick up mixer and mics ONLY - return to TEL 0003/ leave cables and stands in room</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>Demo PC podium  mic  and 2 neck mics (both in drawer)</t>
+  </si>
+  <si>
+    <t>Operate event between 16:30-1800</t>
   </si>
 </sst>
 </file>
@@ -1146,21 +1176,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="22.109375" style="3"/>
+    <col min="5" max="5" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1183,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1247,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1264,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +1341,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1331,7 +1361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1348,7 +1378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1412,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1446,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1463,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1480,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1484,7 +1514,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1548,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1565,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1552,7 +1582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1569,7 +1599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1586,7 +1616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +1633,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1620,7 +1650,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1637,7 +1667,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1654,7 +1684,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1688,7 +1718,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1705,7 +1735,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -1756,7 +1786,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1773,7 +1803,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
@@ -1790,7 +1820,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
@@ -1807,7 +1837,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1854,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
@@ -1841,7 +1871,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -1858,7 +1888,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +1922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>27</v>
       </c>
@@ -1909,7 +1939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -1926,7 +1956,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -1943,7 +1973,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -1960,7 +1990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +2007,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2024,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2041,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>27</v>
       </c>
@@ -2028,7 +2058,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
@@ -2045,7 +2075,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -2062,7 +2092,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
@@ -2079,7 +2109,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2126,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>27</v>
       </c>
@@ -2113,7 +2143,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>27</v>
       </c>
@@ -2130,7 +2160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>27</v>
       </c>
@@ -2147,7 +2177,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
@@ -2164,7 +2194,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -2181,7 +2211,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
@@ -2198,7 +2228,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
@@ -2215,7 +2245,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>27</v>
       </c>
@@ -2232,7 +2262,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>27</v>
       </c>
@@ -2249,7 +2279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -2289,7 +2319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -2329,7 +2359,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>27</v>
       </c>
@@ -2363,7 +2393,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2410,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>27</v>
       </c>
@@ -2397,7 +2427,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>27</v>
       </c>
@@ -2414,7 +2444,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>12</v>
       </c>
@@ -2431,7 +2461,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>27</v>
       </c>
@@ -2448,7 +2478,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>27</v>
       </c>
@@ -2465,7 +2495,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +2512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>27</v>
       </c>
@@ -2499,7 +2529,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>27</v>
       </c>
@@ -2516,7 +2546,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>27</v>
       </c>
@@ -2533,7 +2563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>27</v>
       </c>
@@ -2550,7 +2580,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>27</v>
       </c>
@@ -2567,7 +2597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>27</v>
       </c>
@@ -2584,7 +2614,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>27</v>
       </c>
@@ -2601,7 +2631,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +2648,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>27</v>
       </c>
@@ -2635,7 +2665,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>27</v>
       </c>
@@ -2652,7 +2682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>27</v>
       </c>
@@ -2669,7 +2699,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +2716,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>12</v>
       </c>
@@ -2703,7 +2733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
@@ -2720,7 +2750,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>27</v>
       </c>
@@ -2737,7 +2767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>27</v>
       </c>
@@ -2754,7 +2784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>27</v>
       </c>
@@ -2771,7 +2801,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>27</v>
       </c>
@@ -2788,7 +2818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +2835,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>27</v>
       </c>
@@ -2822,7 +2852,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>27</v>
       </c>
@@ -2839,7 +2869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>27</v>
       </c>
@@ -2856,7 +2886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>27</v>
       </c>
@@ -2873,7 +2903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>27</v>
       </c>
@@ -2890,7 +2920,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>27</v>
       </c>
@@ -2907,7 +2937,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>27</v>
       </c>
@@ -2924,7 +2954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>27</v>
       </c>
@@ -2941,7 +2971,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>27</v>
       </c>
@@ -2958,7 +2988,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>27</v>
       </c>
@@ -2975,7 +3005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>27</v>
       </c>
@@ -2992,7 +3022,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>27</v>
       </c>
@@ -3009,7 +3039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>27</v>
       </c>
@@ -3026,7 +3056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>27</v>
       </c>
@@ -3043,7 +3073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>27</v>
       </c>
@@ -3060,7 +3090,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>27</v>
       </c>
@@ -3077,7 +3107,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>27</v>
       </c>
@@ -3094,7 +3124,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>27</v>
       </c>
@@ -3111,7 +3141,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>27</v>
       </c>
@@ -3128,7 +3158,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>27</v>
       </c>
@@ -3145,7 +3175,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>27</v>
       </c>
@@ -3162,7 +3192,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
@@ -3179,7 +3209,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>27</v>
       </c>
@@ -3196,7 +3226,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>27</v>
       </c>
@@ -3213,7 +3243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>27</v>
       </c>
@@ -3230,7 +3260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>27</v>
       </c>
@@ -3247,7 +3277,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3294,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>27</v>
       </c>
@@ -3281,7 +3311,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>12</v>
       </c>
@@ -3298,7 +3328,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>27</v>
       </c>
@@ -3315,7 +3345,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>27</v>
       </c>
@@ -3332,7 +3362,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>27</v>
       </c>
@@ -3349,7 +3379,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>27</v>
       </c>
@@ -3366,7 +3396,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>27</v>
       </c>
@@ -3383,7 +3413,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>27</v>
       </c>
@@ -3400,7 +3430,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>27</v>
       </c>
@@ -3417,7 +3447,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>27</v>
       </c>
@@ -3434,7 +3464,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3481,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>27</v>
       </c>
@@ -3468,7 +3498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>27</v>
       </c>
@@ -3485,7 +3515,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>27</v>
       </c>
@@ -3502,7 +3532,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>27</v>
       </c>
@@ -3519,7 +3549,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +3566,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>27</v>
       </c>
@@ -3553,7 +3583,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>27</v>
       </c>
@@ -3570,7 +3600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>27</v>
       </c>
@@ -3587,7 +3617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>27</v>
       </c>
@@ -3604,7 +3634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>27</v>
       </c>
@@ -3621,7 +3651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>27</v>
       </c>
@@ -3638,7 +3668,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>27</v>
       </c>
@@ -3655,7 +3685,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>27</v>
       </c>
@@ -3672,7 +3702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>27</v>
       </c>
@@ -3689,7 +3719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>27</v>
       </c>
@@ -3706,7 +3736,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>27</v>
       </c>
@@ -3723,7 +3753,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>27</v>
       </c>
@@ -3740,7 +3770,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>27</v>
       </c>
@@ -3757,7 +3787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>27</v>
       </c>
@@ -3774,7 +3804,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>27</v>
       </c>
@@ -3791,7 +3821,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>27</v>
       </c>
@@ -3825,7 +3855,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>27</v>
       </c>
@@ -3842,7 +3872,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>27</v>
       </c>
@@ -3859,7 +3889,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>27</v>
       </c>
@@ -3876,7 +3906,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="22" t="s">
         <v>178</v>
@@ -3886,7 +3916,7 @@
       <c r="E183" s="24"/>
       <c r="F183" s="25"/>
     </row>
-    <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>27</v>
       </c>
@@ -3906,7 +3936,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>27</v>
       </c>
@@ -3923,7 +3953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>27</v>
       </c>
@@ -3940,7 +3970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>27</v>
       </c>
@@ -3957,7 +3987,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="22" t="s">
         <v>180</v>
@@ -3967,7 +3997,7 @@
       <c r="E190" s="24"/>
       <c r="F190" s="25"/>
     </row>
-    <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>27</v>
       </c>
@@ -3984,7 +4014,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4031,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>27</v>
       </c>
@@ -4018,7 +4048,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="22" t="s">
         <v>181</v>
@@ -4028,7 +4058,7 @@
       <c r="E196" s="24"/>
       <c r="F196" s="25"/>
     </row>
-    <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>27</v>
       </c>
@@ -4045,7 +4075,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>27</v>
       </c>
@@ -4062,7 +4092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>27</v>
       </c>
@@ -4079,7 +4109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>27</v>
       </c>
@@ -4096,7 +4126,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="22" t="s">
         <v>182</v>
@@ -4106,7 +4136,7 @@
       <c r="E203" s="24"/>
       <c r="F203" s="25"/>
     </row>
-    <row r="204" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>96</v>
       </c>
@@ -4126,7 +4156,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>27</v>
       </c>
@@ -4143,7 +4173,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>27</v>
       </c>
@@ -4180,7 +4210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>19</v>
       </c>
@@ -4200,7 +4230,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>27</v>
       </c>
@@ -4220,7 +4250,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="22" t="s">
         <v>189</v>
@@ -4230,7 +4260,7 @@
       <c r="E212" s="24"/>
       <c r="F212" s="25"/>
     </row>
-    <row r="213" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>27</v>
       </c>
@@ -4247,7 +4277,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>27</v>
       </c>
@@ -4264,7 +4294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>27</v>
       </c>
@@ -4301,7 +4331,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="22" t="s">
         <v>180</v>
@@ -4311,7 +4341,7 @@
       <c r="E220" s="24"/>
       <c r="F220" s="25"/>
     </row>
-    <row r="221" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>96</v>
       </c>
@@ -4331,7 +4361,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>27</v>
       </c>
@@ -4348,7 +4378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>27</v>
       </c>
@@ -4365,7 +4395,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>27</v>
       </c>
@@ -4382,7 +4412,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>27</v>
       </c>
@@ -4399,7 +4429,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>27</v>
       </c>
@@ -4416,7 +4446,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>27</v>
       </c>
@@ -4433,7 +4463,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>27</v>
       </c>
@@ -4450,7 +4480,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>27</v>
       </c>
@@ -4467,7 +4497,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>27</v>
       </c>
@@ -4484,7 +4514,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>27</v>
       </c>
@@ -4501,7 +4531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>27</v>
       </c>
@@ -4518,7 +4548,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>27</v>
       </c>
@@ -4535,7 +4565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>27</v>
       </c>
@@ -4552,7 +4582,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>94</v>
       </c>
@@ -4572,7 +4602,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>27</v>
       </c>
@@ -4589,7 +4619,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>94</v>
       </c>
@@ -4609,7 +4639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>94</v>
       </c>
@@ -4629,7 +4659,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>27</v>
       </c>
@@ -4646,7 +4676,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -4666,7 +4696,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>27</v>
       </c>
@@ -4683,7 +4713,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>27</v>
       </c>
@@ -4700,7 +4730,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>27</v>
       </c>
@@ -4737,7 +4767,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>94</v>
       </c>
@@ -4755,6 +4785,290 @@
       </c>
       <c r="F269" s="19" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B273" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B274" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F274" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B275" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B276" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B277" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B278" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F278" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B279" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B280" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B281" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B282" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B283" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B284" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B285" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B286" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F287" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="10">
+        <v>42607</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F288" s="19" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4787,14 +5101,14 @@
       <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +5119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -4816,7 +5130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4827,7 +5141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4838,7 +5152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -4849,7 +5163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -4860,7 +5174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -4871,7 +5185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -4882,7 +5196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4893,7 +5207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -4904,7 +5218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -4915,7 +5229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4926,7 +5240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4937,7 +5251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -4948,7 +5262,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4959,7 +5273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4970,7 +5284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -4981,7 +5295,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -4992,7 +5306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -5003,7 +5317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -5014,7 +5328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -5025,7 +5339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -5036,7 +5350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -5047,7 +5361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -5058,7 +5372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -5066,7 +5380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -5074,7 +5388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -5082,7 +5396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -5090,7 +5404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5098,7 +5412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5106,7 +5420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -5114,7 +5428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -5122,7 +5436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -5130,7 +5444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -5138,7 +5452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -5146,7 +5460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -5154,7 +5468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -5162,7 +5476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -5170,61 +5484,61 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="219">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1176,10 +1176,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,6 +5069,40 @@
       </c>
       <c r="F288" s="19" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B292" s="10">
+        <v>42608</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B293" s="10">
+        <v>42608</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logs!#REF!</definedName>
-    <definedName name="Building">database!$C$2:$C$40</definedName>
+    <definedName name="Building">database!$C$2:$C$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Logs!$1:$1</definedName>
     <definedName name="Staff_Name">database!$A$2:$A$38</definedName>
     <definedName name="Task_type">database!$B$2:$B$25</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="226">
   <si>
     <t>Staff Name</t>
   </si>
@@ -99,9 +99,6 @@
     <t>CLH</t>
   </si>
   <si>
-    <t>TEL</t>
-  </si>
-  <si>
     <t>LSB</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
     <t>Return 2 desk mics and podium mic with stands and cable to front booth behind stage</t>
   </si>
   <si>
-    <t>Pick up mixer and mics ONLY - return to TEL 0003/ leave cables and stands in room</t>
-  </si>
-  <si>
     <t>0005</t>
   </si>
   <si>
@@ -679,6 +673,33 @@
   </si>
   <si>
     <t>Operate event between 16:30-1800</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>280N</t>
+  </si>
+  <si>
+    <t>Return mic (IR) to KT 516 and place battery in charger</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>Pick up mixer and mics ONLY - return to DB 0003/ leave cables and stands in room</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2130</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1197,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>20</v>
@@ -1210,75 +1231,75 @@
         <v>18</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10">
         <v>42570</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10">
         <v>42570</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10">
         <v>42570</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10">
         <v>42570</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1289,1159 +1310,1159 @@
         <v>42570</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="10">
         <v>42570</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="10">
         <v>42570</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="10">
         <v>42570</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="10">
         <v>42570</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10">
         <v>42570</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10">
         <v>42570</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="10">
         <v>42570</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="10">
         <v>42570</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="10">
         <v>42570</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="10">
         <v>42570</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10">
         <v>42570</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="10">
         <v>42570</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="10">
         <v>42570</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="10">
         <v>42570</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="10">
         <v>42570</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="10">
         <v>42570</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="10">
         <v>42570</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="10">
         <v>42570</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="10">
         <v>42570</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10">
         <v>42570</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10">
         <v>42570</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="10">
         <v>42570</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="10">
         <v>42570</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="10">
         <v>42570</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="10">
         <v>42570</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="10">
         <v>42570</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="10">
         <v>42570</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="10">
         <v>42570</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="10">
         <v>42570</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="10">
         <v>42571</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="10">
         <v>42571</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="10">
         <v>42571</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="10">
         <v>42571</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="10">
         <v>42571</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="10">
         <v>42571</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="10">
         <v>42571</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="10">
         <v>42571</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="10">
         <v>42571</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="10">
         <v>42571</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="10">
         <v>42571</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="10">
         <v>42571</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" s="10">
         <v>42571</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" s="10">
         <v>42571</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" s="10">
         <v>42571</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="10">
         <v>42571</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" s="10">
         <v>42571</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" s="10">
         <v>42571</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" s="10">
         <v>42571</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" s="10">
         <v>42571</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" s="10">
         <v>42571</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="10">
         <v>42571</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" s="10">
         <v>42571</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="10">
         <v>42571</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="10">
         <v>42571</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" s="10">
         <v>42571</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" s="10">
         <v>42571</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="10">
         <v>42571</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="10">
         <v>42573</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="10">
         <v>42573</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" s="10">
         <v>42573</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" s="10">
         <v>42573</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E74" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B80" s="10">
         <v>42576</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81" s="10">
         <v>42576</v>
       </c>
       <c r="C81" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B82" s="10">
         <v>42576</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83" s="10">
         <v>42576</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="10">
         <v>42576</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,268 +2473,268 @@
         <v>42576</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="10">
         <v>42576</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="10">
         <v>42576</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="10">
         <v>42576</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89" s="10">
         <v>42576</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B90" s="10">
         <v>42576</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91" s="10">
         <v>42576</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92" s="10">
         <v>42576</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" s="10">
         <v>42576</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94" s="10">
         <v>42576</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95" s="10">
         <v>42576</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B96" s="10">
         <v>42576</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97" s="10">
         <v>42576</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B98" s="10">
         <v>42576</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99" s="10">
         <v>42576</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B100" s="10">
         <v>42576</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,13 +2745,13 @@
         <v>42577</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,574 +2762,574 @@
         <v>42577</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B106" s="10">
         <v>42577</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107" s="10">
         <v>42577</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B108" s="10">
         <v>42577</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B109" s="10">
         <v>42577</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B110" s="10">
         <v>42577</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111" s="10">
         <v>42577</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B112" s="10">
         <v>42577</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113" s="10">
         <v>42577</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B114" s="10">
         <v>42577</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115" s="10">
         <v>42577</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B116" s="10">
         <v>42577</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B117" s="10">
         <v>42577</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B118" s="10">
         <v>42577</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B119" s="10">
         <v>42577</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B120" s="10">
         <v>42577</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B121" s="10">
         <v>42577</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B122" s="10">
         <v>42577</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B123" s="10">
         <v>42577</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B124" s="10">
         <v>42577</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B125" s="10">
         <v>42577</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B126" s="10">
         <v>42577</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B127" s="10">
         <v>42577</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B128" s="10">
         <v>42577</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B129" s="10">
         <v>42577</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B130" s="10">
         <v>42577</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B131" s="10">
         <v>42577</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" s="10">
         <v>42577</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B133" s="10">
         <v>42577</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B134" s="10">
         <v>42577</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B138" s="10">
         <v>42579</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B139" s="10">
         <v>42579</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B140" s="10">
         <v>42579</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B141" s="10">
         <v>42579</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3319,597 +3340,597 @@
         <v>42579</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B143" s="10">
         <v>42579</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B144" s="10">
         <v>42579</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B145" s="10">
         <v>42579</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B146" s="10">
         <v>42579</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B147" s="10">
         <v>42579</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B148" s="10">
         <v>42579</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B149" s="10">
         <v>42579</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B150" s="10">
         <v>42579</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B151" s="10">
         <v>42579</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B152" s="10">
         <v>42579</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="10">
         <v>42579</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B154" s="10">
         <v>42579</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B155" s="10">
         <v>42579</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B156" s="10">
         <v>42579</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B157" s="10">
         <v>42579</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B158" s="10">
         <v>42579</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B159" s="10">
         <v>42579</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B160" s="10">
         <v>42579</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B161" s="10">
         <v>42579</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B162" s="10">
         <v>42579</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B166" s="10">
         <v>42580</v>
       </c>
       <c r="C166" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B167" s="10">
         <v>42580</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B168" s="10">
         <v>42580</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B169" s="10">
         <v>42580</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B170" s="10">
         <v>42580</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B171" s="10">
         <v>42580</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B172" s="10">
         <v>42580</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B173" s="10">
         <v>42580</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B174" s="10">
         <v>42580</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B175" s="10">
         <v>42580</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B176" s="10">
         <v>42580</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B177" s="10">
         <v>42580</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B178" s="10">
         <v>42580</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B179" s="10">
         <v>42580</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="21"/>
@@ -3918,79 +3939,79 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B184" s="10">
         <v>42584</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B185" s="10">
         <v>42584</v>
       </c>
       <c r="C185" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E185" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B186" s="10">
         <v>42584</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B187" s="10">
         <v>42584</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="21"/>
@@ -3999,59 +4020,59 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B191" s="10">
         <v>42585</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B192" s="10">
         <v>42585</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B193" s="10">
         <v>42585</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="21"/>
@@ -4060,76 +4081,76 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B197" s="10">
         <v>42586</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B198" s="10">
         <v>42586</v>
       </c>
       <c r="C198" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E198" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B199" s="10">
         <v>42586</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200" s="10">
         <v>42586</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="21"/>
@@ -4138,76 +4159,76 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B204" s="10">
         <v>42587</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B205" s="10">
         <v>42587</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B206" s="10">
         <v>42587</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B207" s="10">
         <v>42587</v>
       </c>
       <c r="C207" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D207" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E207" s="11" t="s">
+      <c r="F207" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="F207" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4218,42 +4239,42 @@
         <v>42587</v>
       </c>
       <c r="C208" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E208" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="F208" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B209" s="10">
         <v>42587</v>
       </c>
       <c r="C209" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E209" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D209" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E209" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="F209" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="21"/>
@@ -4262,79 +4283,79 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B213" s="10">
         <v>42590</v>
       </c>
       <c r="C213" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E213" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B214" s="10">
         <v>42590</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B215" s="10">
         <v>42590</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B216" s="10">
         <v>42590</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E216" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F216" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="F216" s="19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="21"/>
@@ -4343,692 +4364,692 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B221" s="10">
         <v>42592</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E221" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F221" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="F221" s="19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B225" s="10">
         <v>42597</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B226" s="10">
         <v>42597</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B227" s="10">
         <v>42597</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B231" s="10">
         <v>42598</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B232" s="10">
         <v>42598</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B236" s="10">
         <v>42599</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B237" s="10">
         <v>42599</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B241" s="10">
         <v>42600</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B242" s="10">
         <v>42600</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B246" s="10">
         <v>42601</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B247" s="10">
         <v>42601</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B251" s="10">
         <v>42604</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B252" s="10">
         <v>42604</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B253" s="10">
         <v>42604</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B254" s="10">
         <v>42604</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B255" s="10">
         <v>42604</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E255" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F255" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="F255" s="19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B256" s="10">
         <v>42604</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B260" s="10">
         <v>42605</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B261" s="10">
         <v>42605</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E261" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F261" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="F261" s="19" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B262" s="10">
         <v>42605</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B266" s="10">
         <v>42606</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B267" s="10">
         <v>42606</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B268" s="10">
         <v>42606</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F268" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B269" s="10">
         <v>42606</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B273" s="10">
         <v>42607</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B274" s="10">
         <v>42607</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F274" s="19" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B275" s="10">
         <v>42607</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B276" s="10">
         <v>42607</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B277" s="10">
         <v>42607</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B278" s="10">
         <v>42607</v>
       </c>
       <c r="C278" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F278" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F278" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B279" s="10">
         <v>42607</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B280" s="10">
         <v>42607</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B281" s="10">
         <v>42607</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B282" s="10">
         <v>42607</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B283" s="10">
         <v>42607</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B284" s="10">
         <v>42607</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B285" s="10">
         <v>42607</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B286" s="10">
         <v>42607</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -5039,16 +5060,16 @@
         <v>42607</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F287" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -5059,50 +5080,529 @@
         <v>42607</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F288" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B292" s="10">
         <v>42608</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B293" s="10">
         <v>42608</v>
       </c>
       <c r="C293" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B297" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B298" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B299" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F299" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B300" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B301" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B302" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B303" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E303" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B304" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E306" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D293" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>109</v>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B309" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B310" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B311" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B312" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E313" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D314" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E314" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B319" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B320" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B321" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B322" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E322" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B323" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E323" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B324" s="10">
+        <v>42611</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5132,7 +5632,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,10 +5655,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -5169,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
@@ -5183,84 +5683,84 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5268,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5279,21 +5779,21 @@
         <v>7</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5301,10 +5801,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5315,40 +5815,40 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5356,99 +5856,99 @@
         <v>6</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>77</v>
@@ -5459,23 +5959,23 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,50 +5991,44 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="C41" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -5576,8 +6070,8 @@
       <c r="A58" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A41">
-    <sortCondition ref="A2"/>
+  <sortState ref="C2:C41">
+    <sortCondition ref="C2:C41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="228">
   <si>
     <t>Staff Name</t>
   </si>
@@ -700,6 +700,12 @@
   </si>
   <si>
     <t>2130</t>
+  </si>
+  <si>
+    <t>Return podium mic and 2 desk mics w cables and stands to booth behind stage</t>
+  </si>
+  <si>
+    <t>2200</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1203,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:F352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F318" sqref="F318"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5537,7 +5543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>82</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>82</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>82</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>82</v>
       </c>
@@ -5603,6 +5609,437 @@
       </c>
       <c r="E324" s="11" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B328" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B329" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F329" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B330" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E330" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B331" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E331" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B332" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B333" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B334" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B335" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B336" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E336" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F336" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E338" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B339" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B341" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B342" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B343" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B344" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E344" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E346" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B347" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E347" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B348" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E348" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B349" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E349" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B350" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E350" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B351" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E351" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B352" s="10">
+        <v>42612</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="230">
   <si>
     <t>Staff Name</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <t>2200</t>
+  </si>
+  <si>
+    <t>Return 2 audience mics, one desk mic and mixer to TEL0003</t>
+  </si>
+  <si>
+    <t>208</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1209,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F352"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E352" sqref="E352"/>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,6 +6046,270 @@
       </c>
       <c r="E352" s="11" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B356" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E356" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B357" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F357" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B358" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B359" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E359" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F359" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B360" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E360" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B361" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E361" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B362" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F362" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B363" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E363" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B364" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E364" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B365" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B366" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E367" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B368" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E368" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B369" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B370" s="10">
+        <v>42613</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E370" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="229">
   <si>
     <t>Staff Name</t>
   </si>
@@ -709,9 +709,6 @@
   </si>
   <si>
     <t>Return 2 audience mics, one desk mic and mixer to TEL0003</t>
-  </si>
-  <si>
-    <t>208</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1206,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F362" sqref="F362"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,24 +6047,24 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B356" s="10">
         <v>42613</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B357" s="10">
         <v>42613</v>
@@ -6076,55 +6073,49 @@
         <v>105</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F357" s="19" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B358" s="10">
         <v>42613</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B359" s="10">
         <v>42613</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F359" s="19" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B360" s="10">
         <v>42613</v>
@@ -6133,30 +6124,36 @@
         <v>105</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="F360" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B361" s="10">
         <v>42613</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F361" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>93</v>
       </c>
@@ -6176,89 +6173,41 @@
         <v>226</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B363" s="10">
-        <v>42613</v>
-      </c>
-      <c r="C363" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D363" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E363" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B364" s="10">
-        <v>42613</v>
-      </c>
-      <c r="C364" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D364" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E364" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B365" s="10">
-        <v>42613</v>
-      </c>
-      <c r="C365" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D365" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E365" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B366" s="10">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>132</v>
+        <v>218</v>
+      </c>
+      <c r="F366" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B367" s="10">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -6266,10 +6215,10 @@
         <v>12</v>
       </c>
       <c r="B368" s="10">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>72</v>
@@ -6280,43 +6229,76 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B369" s="10">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B370" s="10">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="10">
+        <v>42614</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D371" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" s="10">
+        <v>42614</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D372" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
-  <sortState ref="A427:G515">
-    <sortCondition ref="C427:C515"/>
-    <sortCondition ref="D427:D515"/>
+  <sortState ref="A356:F370">
+    <sortCondition ref="A356:A370"/>
   </sortState>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="251">
   <si>
     <t>Staff Name</t>
   </si>
@@ -709,6 +709,72 @@
   </si>
   <si>
     <t>Return 2 audience mics, one desk mic and mixer to TEL0003</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>1014H</t>
+  </si>
+  <si>
+    <t>Video recording via WinMovie  maker -  web cam abd tripod in OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return web cam and tripod to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Auditorium</t>
+  </si>
+  <si>
+    <t>Podium mic, 2 neck mis (both in drawer) and PC</t>
+  </si>
+  <si>
+    <t>Operate event 16:30-20:30</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>Return 4 desk mics, stands and cables, mixer and rubber carpet to HNES 003</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>Return desk mic, podium mic , cables and mixer to DB 0003</t>
+  </si>
+  <si>
+    <t>Return Stand mic , cable and small PA on cart to DB 0003</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Return stand mic ,second neck mic (with headset), receiver, mixer and cables to DB 0003</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Return projector and Small PA to DB 0003</t>
+  </si>
+  <si>
+    <t>2 Audience hand held, 4 desk mics, 1 podium mic, 2 neck mics (one with the headset for the Dean) - there / Check/ TEST</t>
+  </si>
+  <si>
+    <t>Zoom - for overfow to SSB N105 and 106</t>
+  </si>
+  <si>
+    <t>zoom - overflow from Auditorium</t>
+  </si>
+  <si>
+    <t>Operatre mics and camera for event 18:30-20:00</t>
+  </si>
+  <si>
+    <t>Return 2 hand held audience mics, 4 desk mics and neck mic (with Dean's headset) and return to SSB N103. LEAVE podium mic in place</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1272,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367:XFD367"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6227,7 +6293,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>12</v>
       </c>
@@ -6244,7 +6310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>12</v>
       </c>
@@ -6261,7 +6327,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>12</v>
       </c>
@@ -6278,7 +6344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>12</v>
       </c>
@@ -6293,6 +6359,778 @@
       </c>
       <c r="E372" s="11" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B376" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F376" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B377" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F377" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F378" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F379" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F380" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F381" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D382" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E382" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F382" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B383" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E383" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F383" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B384" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E384" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F384" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B385" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E385" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F385" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B386" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D386" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E386" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F386" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B387" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D387" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E387" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F387" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E388" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F388" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F389" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B390" s="10">
+        <v>42619</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D390" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B394" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D394" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B395" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E395" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F395" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B396" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E396" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B397" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D397" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E397" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F397" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B398" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E398" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B399" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D399" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E399" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F399" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B400" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D400" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E400" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B401" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E401" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B402" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E402" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B403" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B404" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E404" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B405" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B406" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D406" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E406" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B407" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E407" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F407" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B408" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F408" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B409" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E409" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B410" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E410" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B411" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E411" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F411" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F412" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B413" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C413" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F413" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B414" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E414" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F414" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B415" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F415" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B416" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E416" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B417" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B418" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E418" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B419" s="10">
+        <v>42620</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F419" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="258">
   <si>
     <t>Staff Name</t>
   </si>
@@ -775,6 +775,27 @@
   </si>
   <si>
     <t>Return 2 hand held audience mics, 4 desk mics and neck mic (with Dean's headset) and return to SSB N103. LEAVE podium mic in place</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>Set up and test all classrooms / test throughout   Operate 19:30-22:30</t>
+  </si>
+  <si>
+    <t>E115</t>
+  </si>
+  <si>
+    <t>E118</t>
+  </si>
+  <si>
+    <t>Setup meck mic with small PA from DB 0003</t>
+  </si>
+  <si>
+    <t>Return neck mic and small PA to DB 0003</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1293,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F419"/>
+  <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G419" sqref="G419"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7131,6 +7152,365 @@
       </c>
       <c r="F419" s="19" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B424" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D424" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E424" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D426" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E426" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D427" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E427" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B428" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D428" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E428" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B429" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D429" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E430" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B431" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C431" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D431" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E431" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F431" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B432" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C432" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D432" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E432" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F432" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B433" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C433" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D433" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E433" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F433" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D434" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E434" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F434" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B435" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D435" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E435" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F435" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D436" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E436" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F436" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D437" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E437" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F437" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C438" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D438" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E438" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F438" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D439" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E439" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F439" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B440" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C440" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D440" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E440" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F440" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B441" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D441" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E441" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F441" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B442" s="10">
+        <v>42621</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E442" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F442" s="19" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="257">
   <si>
     <t>Staff Name</t>
   </si>
@@ -793,9 +793,6 @@
   </si>
   <si>
     <t>Return neck mic and small PA to DB 0003</t>
-  </si>
-  <si>
-    <t>2050</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1292,8 @@
   </sheetPr>
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F442" sqref="F442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7501,7 +7498,7 @@
         <v>42621</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>196</v>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="259">
   <si>
     <t>Staff Name</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Christina</t>
   </si>
   <si>
-    <t>Clairissa</t>
-  </si>
-  <si>
     <t>Hasebullah</t>
   </si>
   <si>
@@ -793,6 +790,15 @@
   </si>
   <si>
     <t>Return neck mic and small PA to DB 0003</t>
+  </si>
+  <si>
+    <t>Clair</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>Arrive 10 minutes early. Ensure that the instructor does not require further assistance before you leave.</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F442" sqref="F442"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>20</v>
@@ -1335,13 +1341,13 @@
         <v>42570</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,13 +1358,13 @@
         <v>42570</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,13 +1375,13 @@
         <v>42570</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,13 +1392,13 @@
         <v>42570</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1403,56 +1409,56 @@
         <v>42570</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="10">
         <v>42570</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="10">
         <v>42570</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,16 +1469,16 @@
         <v>42570</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,13 +1489,13 @@
         <v>42570</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,13 +1506,13 @@
         <v>42570</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,13 +1523,13 @@
         <v>42570</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,13 +1540,13 @@
         <v>42570</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,13 +1557,13 @@
         <v>42570</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,13 +1574,13 @@
         <v>42570</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,13 +1591,13 @@
         <v>42570</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,13 +1608,13 @@
         <v>42570</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,13 +1625,13 @@
         <v>42570</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,13 +1642,13 @@
         <v>42570</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,13 +1659,13 @@
         <v>42570</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,13 +1676,13 @@
         <v>42570</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,13 +1693,13 @@
         <v>42570</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,13 +1710,13 @@
         <v>42570</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,13 +1727,13 @@
         <v>42570</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,13 +1744,13 @@
         <v>42570</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,13 +1761,13 @@
         <v>42570</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,13 +1778,13 @@
         <v>42570</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,13 +1795,13 @@
         <v>42570</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,13 +1812,13 @@
         <v>42570</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,13 +1829,13 @@
         <v>42570</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,13 +1846,13 @@
         <v>42570</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,13 +1863,13 @@
         <v>42570</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,13 +1880,13 @@
         <v>42570</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,13 +1897,13 @@
         <v>42570</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,13 +1914,13 @@
         <v>42570</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,13 +1931,13 @@
         <v>42571</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,13 +1948,13 @@
         <v>42571</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,13 +1965,13 @@
         <v>42571</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,13 +1982,13 @@
         <v>42571</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,13 +1999,13 @@
         <v>42571</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,13 +2016,13 @@
         <v>42571</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,13 +2033,13 @@
         <v>42571</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,13 +2050,13 @@
         <v>42571</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2061,13 +2067,13 @@
         <v>42571</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,13 +2084,13 @@
         <v>42571</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,13 +2101,13 @@
         <v>42571</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2112,13 +2118,13 @@
         <v>42571</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,13 +2135,13 @@
         <v>42571</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,13 +2152,13 @@
         <v>42571</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,13 +2169,13 @@
         <v>42571</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,13 +2186,13 @@
         <v>42571</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,13 +2203,13 @@
         <v>42571</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,13 +2220,13 @@
         <v>42571</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,13 +2237,13 @@
         <v>42571</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,13 +2254,13 @@
         <v>42571</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,13 +2271,13 @@
         <v>42571</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,13 +2288,13 @@
         <v>42571</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,13 +2305,13 @@
         <v>42571</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,13 +2322,13 @@
         <v>42571</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,13 +2339,13 @@
         <v>42571</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2350,13 +2356,13 @@
         <v>42571</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,13 +2373,13 @@
         <v>42571</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,53 +2390,53 @@
         <v>42571</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="10">
         <v>42573</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="10">
         <v>42573</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E72" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,36 +2447,36 @@
         <v>42573</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="10">
         <v>42573</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,13 +2487,13 @@
         <v>42576</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,13 +2504,13 @@
         <v>42576</v>
       </c>
       <c r="C81" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2515,13 +2521,13 @@
         <v>42576</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2532,13 +2538,13 @@
         <v>42576</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2549,13 +2555,13 @@
         <v>42576</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,13 +2572,13 @@
         <v>42576</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2583,13 +2589,13 @@
         <v>42576</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,13 +2606,13 @@
         <v>42576</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,13 +2623,13 @@
         <v>42576</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2634,13 +2640,13 @@
         <v>42576</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,13 +2657,13 @@
         <v>42576</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,13 +2674,13 @@
         <v>42576</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,13 +2691,13 @@
         <v>42576</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,13 +2708,13 @@
         <v>42576</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,13 +2725,13 @@
         <v>42576</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,13 +2742,13 @@
         <v>42576</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,13 +2759,13 @@
         <v>42576</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,13 +2776,13 @@
         <v>42576</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2787,13 +2793,13 @@
         <v>42576</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2804,13 +2810,13 @@
         <v>42576</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,13 +2827,13 @@
         <v>42576</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,13 +2844,13 @@
         <v>42577</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2855,13 +2861,13 @@
         <v>42577</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2872,13 +2878,13 @@
         <v>42577</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2889,13 +2895,13 @@
         <v>42577</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,13 +2912,13 @@
         <v>42577</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,13 +2929,13 @@
         <v>42577</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,13 +2946,13 @@
         <v>42577</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2957,13 +2963,13 @@
         <v>42577</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,13 +2980,13 @@
         <v>42577</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,13 +2997,13 @@
         <v>42577</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,13 +3014,13 @@
         <v>42577</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3025,13 +3031,13 @@
         <v>42577</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,13 +3048,13 @@
         <v>42577</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3059,13 +3065,13 @@
         <v>42577</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3076,13 +3082,13 @@
         <v>42577</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3093,13 +3099,13 @@
         <v>42577</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,13 +3116,13 @@
         <v>42577</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3127,13 +3133,13 @@
         <v>42577</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3144,13 +3150,13 @@
         <v>42577</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3161,13 +3167,13 @@
         <v>42577</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3178,13 +3184,13 @@
         <v>42577</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3195,13 +3201,13 @@
         <v>42577</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,13 +3218,13 @@
         <v>42577</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,13 +3235,13 @@
         <v>42577</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,13 +3252,13 @@
         <v>42577</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3263,13 +3269,13 @@
         <v>42577</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,13 +3286,13 @@
         <v>42577</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,13 +3303,13 @@
         <v>42577</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,13 +3320,13 @@
         <v>42577</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,13 +3337,13 @@
         <v>42577</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3348,13 +3354,13 @@
         <v>42577</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3365,13 +3371,13 @@
         <v>42579</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3382,13 +3388,13 @@
         <v>42579</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3399,13 +3405,13 @@
         <v>42579</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3416,13 +3422,13 @@
         <v>42579</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3433,13 +3439,13 @@
         <v>42579</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,13 +3456,13 @@
         <v>42579</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,13 +3473,13 @@
         <v>42579</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3484,13 +3490,13 @@
         <v>42579</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3501,13 +3507,13 @@
         <v>42579</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,13 +3524,13 @@
         <v>42579</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,13 +3541,13 @@
         <v>42579</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,13 +3558,13 @@
         <v>42579</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3569,13 +3575,13 @@
         <v>42579</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,13 +3592,13 @@
         <v>42579</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3603,13 +3609,13 @@
         <v>42579</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3620,13 +3626,13 @@
         <v>42579</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,13 +3643,13 @@
         <v>42579</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3654,13 +3660,13 @@
         <v>42579</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,13 +3677,13 @@
         <v>42579</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,13 +3694,13 @@
         <v>42579</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,13 +3711,13 @@
         <v>42579</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,13 +3728,13 @@
         <v>42579</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,13 +3745,13 @@
         <v>42579</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,13 +3762,13 @@
         <v>42579</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,13 +3779,13 @@
         <v>42579</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,13 +3796,13 @@
         <v>42580</v>
       </c>
       <c r="C166" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,13 +3813,13 @@
         <v>42580</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,13 +3830,13 @@
         <v>42580</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3841,13 +3847,13 @@
         <v>42580</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3858,13 +3864,13 @@
         <v>42580</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,13 +3881,13 @@
         <v>42580</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3892,13 +3898,13 @@
         <v>42580</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3909,13 +3915,13 @@
         <v>42580</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3926,13 +3932,13 @@
         <v>42580</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3943,13 +3949,13 @@
         <v>42580</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3960,13 +3966,13 @@
         <v>42580</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,13 +3983,13 @@
         <v>42580</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,13 +4000,13 @@
         <v>42580</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4011,19 +4017,19 @@
         <v>42580</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="21"/>
@@ -4038,16 +4044,16 @@
         <v>42584</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4058,13 +4064,13 @@
         <v>42584</v>
       </c>
       <c r="C185" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E185" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,13 +4081,13 @@
         <v>42584</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,19 +4098,19 @@
         <v>42584</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="21"/>
@@ -4119,13 +4125,13 @@
         <v>42585</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4136,13 +4142,13 @@
         <v>42585</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4153,19 +4159,19 @@
         <v>42585</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="21"/>
@@ -4180,13 +4186,13 @@
         <v>42586</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,13 +4203,13 @@
         <v>42586</v>
       </c>
       <c r="C198" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E198" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4214,13 +4220,13 @@
         <v>42586</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4231,19 +4237,19 @@
         <v>42586</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="21"/>
@@ -4252,22 +4258,22 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B204" s="10">
         <v>42587</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,13 +4284,13 @@
         <v>42587</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,33 +4301,33 @@
         <v>42587</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B207" s="10">
         <v>42587</v>
       </c>
       <c r="C207" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D207" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E207" s="11" t="s">
+      <c r="F207" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="F207" s="19" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,16 +4338,16 @@
         <v>42587</v>
       </c>
       <c r="C208" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E208" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="F208" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,22 +4358,22 @@
         <v>42587</v>
       </c>
       <c r="C209" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E209" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D209" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E209" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="F209" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="21"/>
@@ -4382,13 +4388,13 @@
         <v>42590</v>
       </c>
       <c r="C213" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E213" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,13 +4405,13 @@
         <v>42590</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4416,39 +4422,39 @@
         <v>42590</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B216" s="10">
         <v>42590</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E216" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F216" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="F216" s="19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="21"/>
@@ -4457,22 +4463,22 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B221" s="10">
         <v>42592</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E221" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F221" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="F221" s="19" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4483,13 +4489,13 @@
         <v>42597</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4500,13 +4506,13 @@
         <v>42597</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4517,13 +4523,13 @@
         <v>42597</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4534,13 +4540,13 @@
         <v>42598</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4551,13 +4557,13 @@
         <v>42598</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4568,13 +4574,13 @@
         <v>42599</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4585,13 +4591,13 @@
         <v>42599</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,13 +4608,13 @@
         <v>42600</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,13 +4625,13 @@
         <v>42600</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,13 +4642,13 @@
         <v>42601</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,13 +4659,13 @@
         <v>42601</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,13 +4676,13 @@
         <v>42604</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,33 +4693,33 @@
         <v>42604</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B253" s="10">
         <v>42604</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,53 +4730,53 @@
         <v>42604</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B255" s="10">
         <v>42604</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E255" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F255" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="F255" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B256" s="10">
         <v>42604</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,13 +4787,13 @@
         <v>42605</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -4798,16 +4804,16 @@
         <v>42605</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E261" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F261" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="F261" s="19" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -4818,13 +4824,13 @@
         <v>42605</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,13 +4841,13 @@
         <v>42606</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,297 +4858,297 @@
         <v>42606</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B268" s="10">
         <v>42606</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F268" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B269" s="10">
         <v>42606</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B273" s="10">
         <v>42607</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B274" s="10">
         <v>42607</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F274" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B275" s="10">
         <v>42607</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B276" s="10">
         <v>42607</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B277" s="10">
         <v>42607</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B278" s="10">
         <v>42607</v>
       </c>
       <c r="C278" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F278" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F278" s="19" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B279" s="10">
         <v>42607</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B280" s="10">
         <v>42607</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B281" s="10">
         <v>42607</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B282" s="10">
         <v>42607</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B283" s="10">
         <v>42607</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B284" s="10">
         <v>42607</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B285" s="10">
         <v>42607</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B286" s="10">
         <v>42607</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -5153,16 +5159,16 @@
         <v>42607</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F287" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -5173,189 +5179,189 @@
         <v>42607</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F288" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B292" s="10">
         <v>42608</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B293" s="10">
         <v>42608</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B297" s="10">
         <v>42611</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B298" s="10">
         <v>42611</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B299" s="10">
         <v>42611</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E299" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F299" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="F299" s="19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B300" s="10">
         <v>42611</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B301" s="10">
         <v>42611</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B302" s="10">
         <v>42611</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B303" s="10">
         <v>42611</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B304" s="10">
         <v>42611</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -5366,13 +5372,13 @@
         <v>42611</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -5383,13 +5389,13 @@
         <v>42611</v>
       </c>
       <c r="C306" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E306" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D306" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E306" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,13 +5406,13 @@
         <v>42611</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,81 +5423,81 @@
         <v>42611</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B309" s="10">
         <v>42611</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B310" s="10">
         <v>42611</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B311" s="10">
         <v>42611</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B312" s="10">
         <v>42611</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -5502,13 +5508,13 @@
         <v>42611</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -5519,13 +5525,13 @@
         <v>42611</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -5536,13 +5542,13 @@
         <v>42611</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -5553,13 +5559,13 @@
         <v>42611</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -5570,13 +5576,13 @@
         <v>42611</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -5587,274 +5593,274 @@
         <v>42611</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B319" s="10">
         <v>42611</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B320" s="10">
         <v>42611</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B321" s="10">
         <v>42611</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B322" s="10">
         <v>42611</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B323" s="10">
         <v>42611</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B324" s="10">
         <v>42611</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B328" s="10">
         <v>42612</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B329" s="10">
         <v>42612</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E329" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F329" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="F329" s="19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B330" s="10">
         <v>42612</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B331" s="10">
         <v>42612</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B332" s="10">
         <v>42612</v>
       </c>
       <c r="C332" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E332" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D332" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E332" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B333" s="10">
         <v>42612</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B334" s="10">
         <v>42612</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B335" s="10">
         <v>42612</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B336" s="10">
         <v>42612</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F336" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -5865,13 +5871,13 @@
         <v>42612</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -5882,13 +5888,13 @@
         <v>42612</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,13 +5905,13 @@
         <v>42612</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -5916,81 +5922,81 @@
         <v>42612</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B341" s="10">
         <v>42612</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B342" s="10">
         <v>42612</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B343" s="10">
         <v>42612</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B344" s="10">
         <v>42612</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -6001,13 +6007,13 @@
         <v>42612</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6018,13 +6024,13 @@
         <v>42612</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -6035,13 +6041,13 @@
         <v>42612</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -6052,81 +6058,81 @@
         <v>42612</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B349" s="10">
         <v>42612</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B350" s="10">
         <v>42612</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B351" s="10">
         <v>42612</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B352" s="10">
         <v>42612</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -6137,13 +6143,13 @@
         <v>42613</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -6154,13 +6160,13 @@
         <v>42613</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -6171,13 +6177,13 @@
         <v>42613</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -6188,110 +6194,110 @@
         <v>42613</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B360" s="10">
         <v>42613</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E360" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F360" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="F360" s="19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B361" s="10">
         <v>42613</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F361" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B362" s="10">
         <v>42613</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F362" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B366" s="10">
         <v>42614</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E366" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F366" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="F366" s="19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B367" s="10">
         <v>42614</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,13 +6308,13 @@
         <v>42614</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,13 +6325,13 @@
         <v>42614</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -6336,13 +6342,13 @@
         <v>42614</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -6353,13 +6359,13 @@
         <v>42614</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -6370,53 +6376,53 @@
         <v>42614</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B376" s="10">
         <v>42619</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E376" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F376" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="F376" s="19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B377" s="10">
         <v>42619</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E377" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F377" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6427,16 +6433,16 @@
         <v>42619</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E378" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F378" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6447,16 +6453,16 @@
         <v>42619</v>
       </c>
       <c r="C379" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E379" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D379" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E379" s="11" t="s">
+      <c r="F379" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="F379" s="19" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6467,16 +6473,16 @@
         <v>42619</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E380" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F380" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6487,16 +6493,16 @@
         <v>42619</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E381" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F381" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6507,116 +6513,116 @@
         <v>42619</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E382" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F382" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B383" s="10">
         <v>42619</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E383" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F383" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B384" s="10">
         <v>42619</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E384" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F384" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B385" s="10">
         <v>42619</v>
       </c>
       <c r="C385" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E385" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F385" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B386" s="10">
         <v>42619</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E386" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F386" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B387" s="10">
         <v>42619</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E387" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F387" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -6627,16 +6633,16 @@
         <v>42619</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E388" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F388" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="F388" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -6647,303 +6653,303 @@
         <v>42619</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E389" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F389" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B390" s="10">
         <v>42619</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E390" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B394" s="10">
         <v>42620</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E394" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B395" s="10">
         <v>42620</v>
       </c>
       <c r="C395" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E395" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F395" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="F395" s="19" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B396" s="10">
         <v>42620</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E396" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B397" s="10">
         <v>42620</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E397" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F397" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B398" s="10">
         <v>42620</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E398" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B399" s="10">
         <v>42620</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E399" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F399" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B400" s="10">
         <v>42620</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E400" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B401" s="10">
         <v>42620</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E401" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B402" s="10">
         <v>42620</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E402" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B403" s="10">
         <v>42620</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E403" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B404" s="10">
         <v>42620</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E404" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B405" s="10">
         <v>42620</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E405" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B406" s="10">
         <v>42620</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E406" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B407" s="10">
         <v>42620</v>
       </c>
       <c r="C407" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E407" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F407" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F407" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B408" s="10">
         <v>42620</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E408" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F408" s="19" t="s">
         <v>244</v>
-      </c>
-      <c r="F408" s="19" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -6954,13 +6960,13 @@
         <v>42620</v>
       </c>
       <c r="C409" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E409" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -6971,33 +6977,33 @@
         <v>42620</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E410" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B411" s="10">
         <v>42620</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E411" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F411" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -7008,56 +7014,56 @@
         <v>42620</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E412" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F412" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B413" s="10">
         <v>42620</v>
       </c>
       <c r="C413" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E413" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F413" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B414" s="10">
         <v>42620</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E414" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F414" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -7068,90 +7074,90 @@
         <v>42620</v>
       </c>
       <c r="C415" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E415" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F415" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B416" s="10">
         <v>42620</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E416" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B417" s="10">
         <v>42620</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D417" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E417" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B418" s="10">
         <v>42620</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E418" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B419" s="10">
         <v>42620</v>
       </c>
       <c r="C419" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E419" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F419" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>12</v>
       </c>
@@ -7159,16 +7165,19 @@
         <v>42621</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E424" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F424" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>12</v>
       </c>
@@ -7176,16 +7185,19 @@
         <v>42621</v>
       </c>
       <c r="C425" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E425" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F425" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>12</v>
       </c>
@@ -7193,16 +7205,19 @@
         <v>42621</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D426" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E426" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="F426" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>12</v>
       </c>
@@ -7210,16 +7225,19 @@
         <v>42621</v>
       </c>
       <c r="C427" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E427" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F427" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>12</v>
       </c>
@@ -7227,16 +7245,19 @@
         <v>42621</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E428" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F428" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>12</v>
       </c>
@@ -7244,16 +7265,19 @@
         <v>42621</v>
       </c>
       <c r="C429" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E429" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F429" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>12</v>
       </c>
@@ -7261,13 +7285,16 @@
         <v>42621</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E430" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F430" s="19" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7278,16 +7305,16 @@
         <v>42621</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E431" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F431" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7298,16 +7325,16 @@
         <v>42621</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E432" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F432" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7318,16 +7345,16 @@
         <v>42621</v>
       </c>
       <c r="C433" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E433" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F433" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7338,16 +7365,16 @@
         <v>42621</v>
       </c>
       <c r="C434" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E434" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F434" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7358,16 +7385,16 @@
         <v>42621</v>
       </c>
       <c r="C435" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E435" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F435" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7378,16 +7405,16 @@
         <v>42621</v>
       </c>
       <c r="C436" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D436" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E436" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F436" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7398,16 +7425,16 @@
         <v>42621</v>
       </c>
       <c r="C437" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E437" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F437" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7418,16 +7445,16 @@
         <v>42621</v>
       </c>
       <c r="C438" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D438" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E438" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F438" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7438,16 +7465,16 @@
         <v>42621</v>
       </c>
       <c r="C439" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E439" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F439" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7458,56 +7485,56 @@
         <v>42621</v>
       </c>
       <c r="C440" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D440" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E440" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F440" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B441" s="10">
         <v>42621</v>
       </c>
       <c r="C441" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E441" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F441" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B442" s="10">
         <v>42621</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E442" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F442" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7536,7 +7563,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7559,10 +7586,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -7587,7 +7614,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7598,34 +7625,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>19</v>
@@ -7636,13 +7663,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7650,18 +7677,18 @@
         <v>32</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -7672,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -7683,7 +7710,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -7691,13 +7718,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7705,10 +7732,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7719,40 +7746,40 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7760,7 +7787,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
@@ -7771,29 +7798,29 @@
         <v>34</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>25</v>
@@ -7801,61 +7828,61 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7863,15 +7890,15 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7879,7 +7906,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7887,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7895,37 +7922,37 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="258">
   <si>
     <t>Staff Name</t>
   </si>
@@ -796,9 +796,6 @@
   </si>
   <si>
     <t>2050</t>
-  </si>
-  <si>
-    <t>Arrive 10 minutes early. Ensure that the instructor does not require further assistance before you leave.</t>
   </si>
 </sst>
 </file>
@@ -1298,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F445" sqref="F445"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F423" sqref="F423:F430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7157,12 +7154,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B424" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C424" s="12" t="s">
         <v>145</v>
@@ -7173,16 +7170,13 @@
       <c r="E424" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F424" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B425" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C425" s="12" t="s">
         <v>145</v>
@@ -7193,16 +7187,13 @@
       <c r="E425" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F425" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B426" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C426" s="12" t="s">
         <v>145</v>
@@ -7213,16 +7204,13 @@
       <c r="E426" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F426" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B427" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C427" s="12" t="s">
         <v>145</v>
@@ -7233,16 +7221,13 @@
       <c r="E427" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F427" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B428" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C428" s="12" t="s">
         <v>125</v>
@@ -7253,16 +7238,13 @@
       <c r="E428" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F428" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B429" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C429" s="12" t="s">
         <v>125</v>
@@ -7273,16 +7255,13 @@
       <c r="E429" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F429" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B430" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C430" s="12" t="s">
         <v>125</v>
@@ -7292,9 +7271,6 @@
       </c>
       <c r="E430" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="F430" s="19" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7302,7 +7278,7 @@
         <v>15</v>
       </c>
       <c r="B431" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C431" s="12" t="s">
         <v>204</v>
@@ -7322,7 +7298,7 @@
         <v>12</v>
       </c>
       <c r="B432" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C432" s="12" t="s">
         <v>204</v>
@@ -7342,7 +7318,7 @@
         <v>12</v>
       </c>
       <c r="B433" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C433" s="12" t="s">
         <v>204</v>
@@ -7362,7 +7338,7 @@
         <v>12</v>
       </c>
       <c r="B434" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C434" s="12" t="s">
         <v>204</v>
@@ -7382,7 +7358,7 @@
         <v>12</v>
       </c>
       <c r="B435" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C435" s="12" t="s">
         <v>204</v>
@@ -7402,7 +7378,7 @@
         <v>12</v>
       </c>
       <c r="B436" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C436" s="12" t="s">
         <v>204</v>
@@ -7422,7 +7398,7 @@
         <v>12</v>
       </c>
       <c r="B437" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C437" s="12" t="s">
         <v>204</v>
@@ -7442,7 +7418,7 @@
         <v>12</v>
       </c>
       <c r="B438" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C438" s="12" t="s">
         <v>204</v>
@@ -7462,7 +7438,7 @@
         <v>12</v>
       </c>
       <c r="B439" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C439" s="12" t="s">
         <v>204</v>
@@ -7482,7 +7458,7 @@
         <v>12</v>
       </c>
       <c r="B440" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C440" s="12" t="s">
         <v>204</v>
@@ -7502,7 +7478,7 @@
         <v>91</v>
       </c>
       <c r="B441" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C441" s="12" t="s">
         <v>168</v>
@@ -7522,7 +7498,7 @@
         <v>92</v>
       </c>
       <c r="B442" s="10">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C442" s="12" t="s">
         <v>257</v>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="265">
   <si>
     <t>Staff Name</t>
   </si>
@@ -796,6 +796,27 @@
   </si>
   <si>
     <t>2050</t>
+  </si>
+  <si>
+    <t>Arrive 10 minutes early. Ensure that the instructor does not require further assistance before you leave.</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Podium mic (there ) and 3 neck mics (2 built in - located in drawer;  third one to be plugged into mixer In rear booth- there) . Test all mics and demo to client</t>
+  </si>
+  <si>
+    <t>Operate event between 17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Return 2 neck mics to drawer and third to rear booth; leave podium mic in place</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1314,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F423" sqref="F423:F430"/>
+    <sheetView tabSelected="1" topLeftCell="A442" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7154,12 +7175,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B424" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C424" s="12" t="s">
         <v>145</v>
@@ -7170,13 +7191,16 @@
       <c r="E424" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F424" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B425" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C425" s="12" t="s">
         <v>145</v>
@@ -7187,13 +7211,16 @@
       <c r="E425" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F425" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B426" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C426" s="12" t="s">
         <v>145</v>
@@ -7204,13 +7231,16 @@
       <c r="E426" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F426" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B427" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C427" s="12" t="s">
         <v>145</v>
@@ -7221,13 +7251,16 @@
       <c r="E427" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F427" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B428" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C428" s="12" t="s">
         <v>125</v>
@@ -7238,13 +7271,16 @@
       <c r="E428" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F428" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B429" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C429" s="12" t="s">
         <v>125</v>
@@ -7255,13 +7291,16 @@
       <c r="E429" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F429" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B430" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C430" s="12" t="s">
         <v>125</v>
@@ -7271,6 +7310,9 @@
       </c>
       <c r="E430" s="11" t="s">
         <v>163</v>
+      </c>
+      <c r="F430" s="19" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7278,7 +7320,7 @@
         <v>15</v>
       </c>
       <c r="B431" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C431" s="12" t="s">
         <v>204</v>
@@ -7298,7 +7340,7 @@
         <v>12</v>
       </c>
       <c r="B432" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C432" s="12" t="s">
         <v>204</v>
@@ -7318,7 +7360,7 @@
         <v>12</v>
       </c>
       <c r="B433" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C433" s="12" t="s">
         <v>204</v>
@@ -7338,7 +7380,7 @@
         <v>12</v>
       </c>
       <c r="B434" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C434" s="12" t="s">
         <v>204</v>
@@ -7358,7 +7400,7 @@
         <v>12</v>
       </c>
       <c r="B435" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C435" s="12" t="s">
         <v>204</v>
@@ -7378,7 +7420,7 @@
         <v>12</v>
       </c>
       <c r="B436" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C436" s="12" t="s">
         <v>204</v>
@@ -7398,7 +7440,7 @@
         <v>12</v>
       </c>
       <c r="B437" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C437" s="12" t="s">
         <v>204</v>
@@ -7418,7 +7460,7 @@
         <v>12</v>
       </c>
       <c r="B438" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C438" s="12" t="s">
         <v>204</v>
@@ -7438,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="B439" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C439" s="12" t="s">
         <v>204</v>
@@ -7458,7 +7500,7 @@
         <v>12</v>
       </c>
       <c r="B440" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C440" s="12" t="s">
         <v>204</v>
@@ -7478,7 +7520,7 @@
         <v>91</v>
       </c>
       <c r="B441" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C441" s="12" t="s">
         <v>168</v>
@@ -7498,7 +7540,7 @@
         <v>92</v>
       </c>
       <c r="B442" s="10">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C442" s="12" t="s">
         <v>257</v>
@@ -7511,6 +7553,219 @@
       </c>
       <c r="F442" s="19" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B447" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D447" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E447" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B448" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D448" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E448" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B449" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E449" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B450" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D450" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E450" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E451" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E452" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B453" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D453" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E453" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B454" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D454" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E454" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B455" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C455" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D455" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E455" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D456" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E456" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F456" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B457" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C457" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D457" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E457" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F457" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B458" s="10">
+        <v>42625</v>
+      </c>
+      <c r="C458" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D458" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E458" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F458" s="19" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="270">
   <si>
     <t>Staff Name</t>
   </si>
@@ -817,6 +817,21 @@
   </si>
   <si>
     <t>Return 2 neck mics to drawer and third to rear booth; leave podium mic in place</t>
+  </si>
+  <si>
+    <t>Pick up 1 podium mic , 2 desk mics with stands and cables and return to booth behind stage</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>Using PC, nexk mic  and podium mic (there / test)</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>Operate event between 17:15-18:00</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1329,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F458"/>
+  <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F473" sqref="F473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7766,6 +7781,185 @@
       </c>
       <c r="F458" s="19" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B463" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C463" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D463" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E463" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F463" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C464" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E464" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C465" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E465" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B466" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C466" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D466" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E466" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C467" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D467" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E467" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C468" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D468" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E468" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C469" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D469" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E469" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B470" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C470" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D470" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F470" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B471" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C471" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E471" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F471" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B472" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D472" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E472" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="281">
   <si>
     <t>Staff Name</t>
   </si>
@@ -832,6 +832,39 @@
   </si>
   <si>
     <t>Operate event between 17:15-18:00</t>
+  </si>
+  <si>
+    <t>Skype Setup</t>
+  </si>
+  <si>
+    <t>Skype. skype ID of the other party mccarthy-tetrault  x55401 Manusha. Login with itcyorku2, password York5065</t>
+  </si>
+  <si>
+    <t>Skype Pickup</t>
+  </si>
+  <si>
+    <t>pick up skype kit, return to OSG 1014L</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>Pick up portable DVD with cables and return to TEL 0003</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2 neck mics and 2 hand held wireless mics for the pannel (there -check / test); podium mic (there); 2 wired audience mics (there /test). Please provide spare AA bateries for hand held</t>
+  </si>
+  <si>
+    <t>Operate event between 17:00-18:00</t>
+  </si>
+  <si>
+    <t>return 2 wired audience mics, 2 hand held mics to rear booth</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1362,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F472"/>
+  <dimension ref="A1:F488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F473" sqref="F473"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F488" sqref="F488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7960,6 +7993,245 @@
       </c>
       <c r="E472" s="11" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B473" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D473" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E473" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B474" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D474" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E474" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F474" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B475" s="10">
+        <v>42626</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D475" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E475" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F475" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B479" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D479" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E479" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F479" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B480" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C480" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D480" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B481" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C481" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D481" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E481" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B482" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D482" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E482" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B483" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C483" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D483" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C484" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B485" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C485" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D485" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E485" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F485" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B486" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C486" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E486" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F486" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B487" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C487" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D487" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E487" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B488" s="10">
+        <v>42627</v>
+      </c>
+      <c r="C488" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D488" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F488" s="19" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="284">
   <si>
     <t>Staff Name</t>
   </si>
@@ -865,6 +865,15 @@
   </si>
   <si>
     <t>return 2 wired audience mics, 2 hand held mics to rear booth</t>
+  </si>
+  <si>
+    <t>Client using PC, neck mic and podium mic</t>
+  </si>
+  <si>
+    <t>Neck mic and small PA from DB 0003</t>
+  </si>
+  <si>
+    <t>Test mic - replace batteries if required</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1371,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F488"/>
+  <dimension ref="A1:F502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F488" sqref="F488"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A503" sqref="A503:F503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8232,6 +8241,191 @@
       </c>
       <c r="F488" s="19" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B493" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C493" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E493" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B494" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C494" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D494" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E494" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F494" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B495" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C495" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D495" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E495" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F495" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B496" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C496" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D496" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E496" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B497" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C497" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D497" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E497" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F497" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B498" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C498" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D498" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E498" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F498" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B499" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C499" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D499" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E499" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B500" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C500" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D500" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E500" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B501" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C501" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D501" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E501" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B502" s="10">
+        <v>42628</v>
+      </c>
+      <c r="C502" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D502" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E502" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F502" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="285">
   <si>
     <t>Staff Name</t>
   </si>
@@ -874,6 +874,9 @@
   </si>
   <si>
     <t>Test mic - replace batteries if required</t>
+  </si>
+  <si>
+    <t>1850</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1374,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F502"/>
+  <dimension ref="A1:F504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A503" sqref="A503:F503"/>
+      <selection activeCell="F512" sqref="F512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8426,6 +8429,23 @@
       </c>
       <c r="F502" s="19" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B504" s="10">
+        <v>42629</v>
+      </c>
+      <c r="C504" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D504" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E504" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="293">
   <si>
     <t>Staff Name</t>
   </si>
@@ -877,6 +877,30 @@
   </si>
   <si>
     <t>1850</t>
+  </si>
+  <si>
+    <t>Operate event between  17:00-17:45</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Please give PT staff one HDMI - VGA adaptor for client's laptop</t>
+  </si>
+  <si>
+    <t>Pick up HDMI -VGA adaptor  and return to STEACIE</t>
+  </si>
+  <si>
+    <t>Door access code -         5065#              Return skype kit to OSG 1014L</t>
+  </si>
+  <si>
+    <t>1014G</t>
+  </si>
+  <si>
+    <t>1014J</t>
+  </si>
+  <si>
+    <t>1014K</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1398,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F504"/>
+  <dimension ref="A1:F529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F512" sqref="F512"/>
+    <sheetView tabSelected="1" topLeftCell="A512" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F531" sqref="F531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8446,6 +8470,337 @@
       </c>
       <c r="E504" s="11" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B509" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C509" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D509" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E509" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F509" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B510" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C510" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D510" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E510" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F510" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B511" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C511" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D511" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E511" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F511" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B512" s="10">
+        <v>42632</v>
+      </c>
+      <c r="C512" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D512" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E512" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B517" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C517" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D517" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E517" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F517" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B518" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D518" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E518" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B519" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C519" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D519" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E519" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B520" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C520" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D520" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E520" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F520" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B521" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C521" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D521" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E521" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F521" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B522" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C522" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D522" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E522" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F522" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B523" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C523" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D523" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E523" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F523" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B524" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C524" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D524" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E524" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F524" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B525" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C525" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D525" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E525" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F525" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B526" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C526" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D526" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E526" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F526" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B527" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C527" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D527" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E527" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F527" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B528" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C528" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D528" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E528" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F528" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B529" s="10">
+        <v>42633</v>
+      </c>
+      <c r="C529" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D529" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E529" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F529" s="19" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="300">
   <si>
     <t>Staff Name</t>
   </si>
@@ -901,6 +901,27 @@
   </si>
   <si>
     <t>1014K</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>Video recording via WinMovie  maker -  web cam and tripod in OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return mic  to KT 516</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>demo laptop use</t>
+  </si>
+  <si>
+    <t>Using PC, neck mic and posium mic</t>
+  </si>
+  <si>
+    <t>Operate event between 17:00-17:45</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1419,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F529"/>
+  <dimension ref="A1:F539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F531" sqref="F531"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E543" sqref="E543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8605,7 +8626,7 @@
     </row>
     <row r="520" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B520" s="10">
         <v>42633</v>
@@ -8620,12 +8641,12 @@
         <v>290</v>
       </c>
       <c r="F520" s="19" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B521" s="10">
         <v>42633</v>
@@ -8640,12 +8661,12 @@
         <v>291</v>
       </c>
       <c r="F521" s="19" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B522" s="10">
         <v>42633</v>
@@ -8660,12 +8681,12 @@
         <v>292</v>
       </c>
       <c r="F522" s="19" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B523" s="10">
         <v>42633</v>
@@ -8680,12 +8701,12 @@
         <v>106</v>
       </c>
       <c r="F523" s="19" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B524" s="10">
         <v>42633</v>
@@ -8700,7 +8721,7 @@
         <v>130</v>
       </c>
       <c r="F524" s="19" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -8711,7 +8732,7 @@
         <v>42633</v>
       </c>
       <c r="C525" s="12" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="D525" s="9" t="s">
         <v>71</v>
@@ -8731,7 +8752,7 @@
         <v>42633</v>
       </c>
       <c r="C526" s="12" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="D526" s="9" t="s">
         <v>71</v>
@@ -8751,7 +8772,7 @@
         <v>42633</v>
       </c>
       <c r="C527" s="12" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="D527" s="9" t="s">
         <v>71</v>
@@ -8771,7 +8792,7 @@
         <v>42633</v>
       </c>
       <c r="C528" s="12" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="D528" s="9" t="s">
         <v>71</v>
@@ -8791,7 +8812,7 @@
         <v>42633</v>
       </c>
       <c r="C529" s="12" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="D529" s="9" t="s">
         <v>71</v>
@@ -8801,6 +8822,120 @@
       </c>
       <c r="F529" s="19" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B534" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C534" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D534" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E534" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F534" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B535" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C535" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D535" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E535" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F535" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C536" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D536" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E536" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B537" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C537" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D537" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E537" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F537" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B538" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C538" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D538" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E538" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F538" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B539" s="10">
+        <v>42634</v>
+      </c>
+      <c r="C539" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D539" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E539" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="301">
   <si>
     <t>Staff Name</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>Operate event between 17:00-17:45</t>
+  </si>
+  <si>
+    <t>Client needs help with neck mic</t>
   </si>
 </sst>
 </file>
@@ -1419,10 +1422,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F539"/>
+  <dimension ref="A1:F549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E543" sqref="E543"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F549" sqref="F549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8936,6 +8939,117 @@
       </c>
       <c r="E539" s="11" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B544" s="10">
+        <v>42635</v>
+      </c>
+      <c r="C544" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D544" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E544" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B545" s="10">
+        <v>42635</v>
+      </c>
+      <c r="C545" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D545" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E545" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B546" s="10">
+        <v>42635</v>
+      </c>
+      <c r="C546" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D546" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E546" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B547" s="10">
+        <v>42635</v>
+      </c>
+      <c r="C547" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D547" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E547" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F547" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B548" s="10">
+        <v>42635</v>
+      </c>
+      <c r="C548" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D548" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E548" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F548" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B549" s="10">
+        <v>42635</v>
+      </c>
+      <c r="C549" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D549" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E549" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F549" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="306">
   <si>
     <t>Staff Name</t>
   </si>
@@ -925,6 +925,21 @@
   </si>
   <si>
     <t>Client needs help with neck mic</t>
+  </si>
+  <si>
+    <t>Return podium mic (wired) and 3 IR mics to KT 516  - PLACE BATTERIES IN THE CHARGER!</t>
+  </si>
+  <si>
+    <t>Return IR mic to KT 516  - PLACE BATTERIES IN THE CHARGER!</t>
+  </si>
+  <si>
+    <t>We do not have a key for the room - be on time</t>
+  </si>
+  <si>
+    <t>We do not have a key for the room - be on time  / return 4 IR mics, receivers and mixer  with long video cables to HNES 003</t>
+  </si>
+  <si>
+    <t>client using neck mic, podium mic and PC</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F549"/>
+  <dimension ref="A1:F565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F549" sqref="F549"/>
+    <sheetView tabSelected="1" topLeftCell="A545" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C566" sqref="C566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9050,6 +9065,180 @@
       </c>
       <c r="F549" s="19" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B554" s="10">
+        <v>42636</v>
+      </c>
+      <c r="C554" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D554" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E554" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F554" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B555" s="10">
+        <v>42636</v>
+      </c>
+      <c r="C555" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D555" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E555" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F555" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B559" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C559" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D559" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E559" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F559" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B560" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C560" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D560" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E560" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F560" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B561" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C561" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D561" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E561" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C562" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D562" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E562" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F562" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B563" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C563" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D563" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E563" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F563" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B564" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C564" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D564" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E564" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B565" s="10">
+        <v>42639</v>
+      </c>
+      <c r="C565" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D565" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E565" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F565" s="19" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="311">
   <si>
     <t>Staff Name</t>
   </si>
@@ -940,6 +940,21 @@
   </si>
   <si>
     <t>client using neck mic, podium mic and PC</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>VIP - please replace Alex at 3:30</t>
+  </si>
+  <si>
+    <t>Please remain on site and oversee rooms 1001, 1005, 1006, 2003, 2004 recordings</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
 </sst>
 </file>
@@ -1437,10 +1452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F565"/>
+  <dimension ref="A1:F584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C566" sqref="C566"/>
+    <sheetView tabSelected="1" topLeftCell="A566" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F587" sqref="F587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9239,6 +9254,297 @@
       </c>
       <c r="F565" s="19" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B570" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C570" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D570" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E570" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B571" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C571" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D571" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E571" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B572" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C572" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D572" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E572" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B573" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C573" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D573" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E573" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F573" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B574" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C574" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D574" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E574" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F574" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B575" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C575" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D575" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E575" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F575" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B576" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C576" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D576" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E576" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F576" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B577" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C577" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D577" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E577" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F577" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B578" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C578" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D578" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E578" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F578" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B579" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C579" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D579" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E579" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F579" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B580" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C580" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D580" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E580" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F580" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B581" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C581" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D581" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E581" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F581" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B582" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C582" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D582" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E582" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F582" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B583" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C583" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D583" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E583" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F583" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B584" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C584" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D584" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E584" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F584" s="19" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="317">
   <si>
     <t>Staff Name</t>
   </si>
@@ -955,6 +955,24 @@
   </si>
   <si>
     <t>1006</t>
+  </si>
+  <si>
+    <t>1815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure recording is going well. Demo AV equipment. </t>
+  </si>
+  <si>
+    <t>Return one desk mic, 2 audience mics, mixer , stands and cables to ACE 015</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Equipment from HNES 003</t>
+  </si>
+  <si>
+    <t>Return equipment to HNES 003</t>
   </si>
 </sst>
 </file>
@@ -1452,10 +1470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F584"/>
+  <dimension ref="A1:F595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F587" sqref="F587"/>
+    <sheetView tabSelected="1" topLeftCell="A581" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E602" sqref="E602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9355,7 +9373,7 @@
         <v>42640</v>
       </c>
       <c r="C575" s="12" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="D575" s="9" t="s">
         <v>71</v>
@@ -9375,7 +9393,7 @@
         <v>42640</v>
       </c>
       <c r="C576" s="12" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="D576" s="9" t="s">
         <v>71</v>
@@ -9395,7 +9413,7 @@
         <v>42640</v>
       </c>
       <c r="C577" s="12" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="D577" s="9" t="s">
         <v>71</v>
@@ -9415,7 +9433,7 @@
         <v>42640</v>
       </c>
       <c r="C578" s="12" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="D578" s="9" t="s">
         <v>71</v>
@@ -9435,7 +9453,7 @@
         <v>42640</v>
       </c>
       <c r="C579" s="12" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="D579" s="9" t="s">
         <v>71</v>
@@ -9449,13 +9467,13 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B580" s="10">
         <v>42640</v>
       </c>
       <c r="C580" s="12" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D580" s="9" t="s">
         <v>71</v>
@@ -9464,18 +9482,18 @@
         <v>128</v>
       </c>
       <c r="F580" s="19" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B581" s="10">
         <v>42640</v>
       </c>
       <c r="C581" s="12" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D581" s="9" t="s">
         <v>71</v>
@@ -9484,18 +9502,18 @@
         <v>183</v>
       </c>
       <c r="F581" s="19" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B582" s="10">
         <v>42640</v>
       </c>
       <c r="C582" s="12" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D582" s="9" t="s">
         <v>71</v>
@@ -9504,18 +9522,18 @@
         <v>310</v>
       </c>
       <c r="F582" s="19" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B583" s="10">
         <v>42640</v>
       </c>
       <c r="C583" s="12" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D583" s="9" t="s">
         <v>71</v>
@@ -9524,18 +9542,18 @@
         <v>107</v>
       </c>
       <c r="F583" s="19" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B584" s="10">
         <v>42640</v>
       </c>
       <c r="C584" s="12" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D584" s="9" t="s">
         <v>71</v>
@@ -9544,7 +9562,167 @@
         <v>219</v>
       </c>
       <c r="F584" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B585" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C585" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D585" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E585" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F585" s="19" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B586" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C586" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D586" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E586" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F586" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B587" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C587" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D587" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E587" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F587" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B588" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C588" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D588" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E588" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F588" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B589" s="10">
+        <v>42640</v>
+      </c>
+      <c r="C589" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D589" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E589" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F589" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B593" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C593" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D593" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E593" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F593" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B594" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C594" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D594" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E594" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F594" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B595" s="10">
+        <v>42641</v>
+      </c>
+      <c r="C595" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D595" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E595" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F595" s="19" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="323">
   <si>
     <t>Staff Name</t>
   </si>
@@ -973,6 +973,24 @@
   </si>
   <si>
     <t>Return equipment to HNES 003</t>
+  </si>
+  <si>
+    <t>Check with prof re :wireless mouse</t>
+  </si>
+  <si>
+    <t>Client using neck mic</t>
+  </si>
+  <si>
+    <t>PC, neck mic and podium mic</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>Return 4 IR mics, receivers, cables and stands to HNES 003</t>
   </si>
 </sst>
 </file>
@@ -1470,10 +1488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F595"/>
+  <dimension ref="A1:F613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E602" sqref="E602"/>
+    <sheetView tabSelected="1" topLeftCell="A587" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F619" sqref="F619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9723,6 +9741,231 @@
       </c>
       <c r="F595" s="19" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B599" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C599" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D599" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E599" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B600" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C600" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D600" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E600" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F600" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B601" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C601" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D601" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E601" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F601" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B602" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C602" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D602" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E602" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B603" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C603" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D603" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E603" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F603" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B604" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C604" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D604" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E604" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F604" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B605" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C605" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D605" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E605" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F605" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B606" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C606" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D606" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E606" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F606" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B607" s="10">
+        <v>42642</v>
+      </c>
+      <c r="C607" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D607" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B611" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C611" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D611" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E611" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B612" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C612" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D612" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E612" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B613" s="10">
+        <v>42646</v>
+      </c>
+      <c r="C613" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D613" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E613" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F613" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="337">
   <si>
     <t>Staff Name</t>
   </si>
@@ -991,6 +991,48 @@
   </si>
   <si>
     <t>Return 4 IR mics, receivers, cables and stands to HNES 003</t>
+  </si>
+  <si>
+    <t>Please remain on site and oversee rooms 1003, 1014H, 2008, 2009, 2010 recordings</t>
+  </si>
+  <si>
+    <t>Set up 3 Desk mics (from rear booth) and podium mic (there) and test</t>
+  </si>
+  <si>
+    <t>Demo PC, neck mic and wired mics</t>
+  </si>
+  <si>
+    <t>Return 3 desk mics and stands to  rear booth</t>
+  </si>
+  <si>
+    <t>Return mic, stand and cable to ACW 108</t>
+  </si>
+  <si>
+    <t>INC000000732418</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>INC000000733000</t>
+  </si>
+  <si>
+    <t>INC000000733582</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>INC000000733578</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics and one podium mic with stands and cables to booth behind stage</t>
+  </si>
+  <si>
+    <t>Operate event between 4:00-5:15</t>
+  </si>
+  <si>
+    <t>Return podium  and desk mic to KT 516</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F613"/>
+  <dimension ref="A1:F654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F619" sqref="F619"/>
+    <sheetView tabSelected="1" topLeftCell="A647" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A654" sqref="A654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9966,6 +10008,700 @@
       </c>
       <c r="F613" s="19" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B617" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C617" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D617" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E617" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F617" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B618" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C618" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D618" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E618" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F618" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B619" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C619" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D619" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E619" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F619" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B620" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C620" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D620" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E620" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F620" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B621" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C621" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D621" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E621" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F621" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B622" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C622" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D622" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E622" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F622" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C623" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D623" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E623" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F623" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B624" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C624" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D624" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E624" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F624" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B625" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C625" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D625" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E625" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F625" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B626" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C626" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D626" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E626" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F626" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B627" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C627" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D627" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E627" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F627" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B628" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C628" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D628" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E628" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F628" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B629" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C629" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D629" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E629" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F629" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B630" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C630" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D630" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E630" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F630" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B631" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C631" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D631" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E631" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F631" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B632" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C632" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D632" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E632" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F632" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B633" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C633" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D633" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E633" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F633" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B634" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C634" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D634" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E634" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F634" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B635" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C635" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D635" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E635" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F635" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B636" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C636" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D636" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E636" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F636" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B637" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C637" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D637" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E637" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F637" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B638" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C638" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D638" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E638" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F638" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B639" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C639" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D639" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E639" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F639" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B640" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C640" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D640" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E640" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F640" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B641" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C641" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D641" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E641" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F641" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B642" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C642" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D642" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E642" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F642" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B643" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C643" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D643" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E643" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F643" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B644" s="10">
+        <v>42647</v>
+      </c>
+      <c r="C644" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D644" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E644" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F644" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A648" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B648" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C648" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D648" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E648" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F648" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B649" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C649" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D649" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E649" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F649" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B650" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C650" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D650" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E650" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B651" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C651" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D651" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E651" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F651" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B652" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C652" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D652" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E652" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B653" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C653" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D653" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E653" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F653" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B654" s="10">
+        <v>42648</v>
+      </c>
+      <c r="C654" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D654" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E654" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F654" s="19" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Raul\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -1125,7 +1130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1318,6 +1323,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1365,7 +1373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1398,9 +1406,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1433,6 +1458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1614,19 +1656,19 @@
   </sheetPr>
   <dimension ref="A1:F681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F642" sqref="F642"/>
+    <sheetView tabSelected="1" topLeftCell="A656" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B659" sqref="B659:B681"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="2"/>
+    <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="22.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10671,7 +10713,7 @@
         <v>12</v>
       </c>
       <c r="B658" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C658" s="7" t="s">
         <v>145</v>
@@ -10688,7 +10730,7 @@
         <v>12</v>
       </c>
       <c r="B659" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C659" s="7" t="s">
         <v>108</v>
@@ -10705,7 +10747,7 @@
         <v>12</v>
       </c>
       <c r="B660" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C660" s="7" t="s">
         <v>125</v>
@@ -10722,7 +10764,7 @@
         <v>12</v>
       </c>
       <c r="B661" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C661" s="7" t="s">
         <v>125</v>
@@ -10742,7 +10784,7 @@
         <v>91</v>
       </c>
       <c r="B662" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>168</v>
@@ -10762,7 +10804,7 @@
         <v>92</v>
       </c>
       <c r="B663" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C663" s="7" t="s">
         <v>182</v>
@@ -10782,7 +10824,7 @@
         <v>12</v>
       </c>
       <c r="B664" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C664" s="7" t="s">
         <v>126</v>
@@ -10802,7 +10844,7 @@
         <v>12</v>
       </c>
       <c r="B665" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C665" s="7" t="s">
         <v>126</v>
@@ -10822,7 +10864,7 @@
         <v>12</v>
       </c>
       <c r="B666" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C666" s="7" t="s">
         <v>126</v>
@@ -10842,7 +10884,7 @@
         <v>12</v>
       </c>
       <c r="B667" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>126</v>
@@ -10862,7 +10904,7 @@
         <v>91</v>
       </c>
       <c r="B668" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>126</v>
@@ -10882,7 +10924,7 @@
         <v>12</v>
       </c>
       <c r="B669" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C669" s="7" t="s">
         <v>167</v>
@@ -10899,7 +10941,7 @@
         <v>91</v>
       </c>
       <c r="B670" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C670" s="7" t="s">
         <v>167</v>
@@ -10919,7 +10961,7 @@
         <v>92</v>
       </c>
       <c r="B671" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C671" s="7" t="s">
         <v>125</v>
@@ -10939,7 +10981,7 @@
         <v>92</v>
       </c>
       <c r="B672" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C672" s="7" t="s">
         <v>127</v>
@@ -10959,7 +11001,7 @@
         <v>48</v>
       </c>
       <c r="B673" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C673" s="7" t="s">
         <v>168</v>
@@ -10979,7 +11021,7 @@
         <v>90</v>
       </c>
       <c r="B674" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C674" s="7" t="s">
         <v>113</v>
@@ -10999,7 +11041,7 @@
         <v>48</v>
       </c>
       <c r="B675" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C675" s="7" t="s">
         <v>168</v>
@@ -11019,7 +11061,7 @@
         <v>90</v>
       </c>
       <c r="B676" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C676" s="7" t="s">
         <v>127</v>
@@ -11032,6 +11074,16 @@
       </c>
       <c r="F676" s="14" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B677" s="5">
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B678" s="5">
+        <v>42652</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -11039,7 +11091,7 @@
         <v>48</v>
       </c>
       <c r="B679" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C679" s="7" t="s">
         <v>168</v>
@@ -11059,7 +11111,7 @@
         <v>90</v>
       </c>
       <c r="B680" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C680" s="7" t="s">
         <v>257</v>
@@ -11079,7 +11131,7 @@
         <v>12</v>
       </c>
       <c r="B681" s="5">
-        <v>42649</v>
+        <v>42652</v>
       </c>
       <c r="C681" s="7" t="s">
         <v>104</v>
@@ -11125,9 +11177,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Raul\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="369">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1125,12 +1120,21 @@
   </si>
   <si>
     <t xml:space="preserve">Please make sure the instructor can play DVD from the PC in this room. There is no DVD player. </t>
+  </si>
+  <si>
+    <t>Return mic to KT 516</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please assist instructor with AV equipment. Ensure no further assistance is required before you leave. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1323,9 +1327,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1373,7 +1374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1406,26 +1407,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1458,23 +1442,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1654,21 +1621,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F681"/>
+  <dimension ref="A1:F695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A656" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B659" sqref="B659:B681"/>
+    <sheetView tabSelected="1" topLeftCell="A674" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A695" sqref="A695"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="22.125" style="2"/>
+    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10713,7 +10680,7 @@
         <v>12</v>
       </c>
       <c r="B658" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C658" s="7" t="s">
         <v>145</v>
@@ -10730,7 +10697,7 @@
         <v>12</v>
       </c>
       <c r="B659" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C659" s="7" t="s">
         <v>108</v>
@@ -10747,7 +10714,7 @@
         <v>12</v>
       </c>
       <c r="B660" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C660" s="7" t="s">
         <v>125</v>
@@ -10764,7 +10731,7 @@
         <v>12</v>
       </c>
       <c r="B661" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C661" s="7" t="s">
         <v>125</v>
@@ -10784,7 +10751,7 @@
         <v>91</v>
       </c>
       <c r="B662" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>168</v>
@@ -10804,7 +10771,7 @@
         <v>92</v>
       </c>
       <c r="B663" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C663" s="7" t="s">
         <v>182</v>
@@ -10824,7 +10791,7 @@
         <v>12</v>
       </c>
       <c r="B664" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C664" s="7" t="s">
         <v>126</v>
@@ -10844,7 +10811,7 @@
         <v>12</v>
       </c>
       <c r="B665" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C665" s="7" t="s">
         <v>126</v>
@@ -10864,7 +10831,7 @@
         <v>12</v>
       </c>
       <c r="B666" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C666" s="7" t="s">
         <v>126</v>
@@ -10884,7 +10851,7 @@
         <v>12</v>
       </c>
       <c r="B667" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>126</v>
@@ -10904,7 +10871,7 @@
         <v>91</v>
       </c>
       <c r="B668" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>126</v>
@@ -10924,7 +10891,7 @@
         <v>12</v>
       </c>
       <c r="B669" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C669" s="7" t="s">
         <v>167</v>
@@ -10941,7 +10908,7 @@
         <v>91</v>
       </c>
       <c r="B670" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C670" s="7" t="s">
         <v>167</v>
@@ -10961,7 +10928,7 @@
         <v>92</v>
       </c>
       <c r="B671" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C671" s="7" t="s">
         <v>125</v>
@@ -10981,7 +10948,7 @@
         <v>92</v>
       </c>
       <c r="B672" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C672" s="7" t="s">
         <v>127</v>
@@ -11001,7 +10968,7 @@
         <v>48</v>
       </c>
       <c r="B673" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C673" s="7" t="s">
         <v>168</v>
@@ -11021,7 +10988,7 @@
         <v>90</v>
       </c>
       <c r="B674" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C674" s="7" t="s">
         <v>113</v>
@@ -11041,7 +11008,7 @@
         <v>48</v>
       </c>
       <c r="B675" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C675" s="7" t="s">
         <v>168</v>
@@ -11061,7 +11028,7 @@
         <v>90</v>
       </c>
       <c r="B676" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C676" s="7" t="s">
         <v>127</v>
@@ -11074,16 +11041,6 @@
       </c>
       <c r="F676" s="14" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B677" s="5">
-        <v>42652</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B678" s="5">
-        <v>42652</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -11091,7 +11048,7 @@
         <v>48</v>
       </c>
       <c r="B679" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C679" s="7" t="s">
         <v>168</v>
@@ -11111,7 +11068,7 @@
         <v>90</v>
       </c>
       <c r="B680" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C680" s="7" t="s">
         <v>257</v>
@@ -11131,7 +11088,7 @@
         <v>12</v>
       </c>
       <c r="B681" s="5">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C681" s="7" t="s">
         <v>104</v>
@@ -11144,6 +11101,143 @@
       </c>
       <c r="F681" s="14" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B686" s="5">
+        <v>42654</v>
+      </c>
+      <c r="C686" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E686" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B687" s="5">
+        <v>42654</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E687" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F687" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B688" s="5">
+        <v>42654</v>
+      </c>
+      <c r="C688" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E688" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F688" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B689" s="5">
+        <v>42654</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E689" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F689" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B693" s="5">
+        <v>42655</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E693" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F693" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B694" s="5">
+        <v>42655</v>
+      </c>
+      <c r="C694" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D694" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E694" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F694" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A695" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B695" s="5">
+        <v>42655</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D695" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E695" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F695" s="14" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -11177,9 +11271,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="373">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1129,6 +1129,18 @@
   </si>
   <si>
     <t xml:space="preserve">Please assist instructor with AV equipment. Ensure no further assistance is required before you leave. </t>
+  </si>
+  <si>
+    <t>101A</t>
+  </si>
+  <si>
+    <t>Please pick up wireless keyboard and remote for the projector, return it to FC 164</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>INC000000733917</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1633,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F695"/>
+  <dimension ref="A1:F709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A674" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A695" sqref="A695"/>
+    <sheetView tabSelected="1" topLeftCell="A689" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D710" sqref="D710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11238,6 +11250,183 @@
       </c>
       <c r="F695" s="14" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B701" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C701" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E701" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F701" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B702" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C702" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D702" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E702" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F702" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B703" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C703" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D703" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E703" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B704" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C704" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D704" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E704" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F704" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B705" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C705" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D705" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E705" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F705" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B706" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C706" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D706" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E706" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F706" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B707" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C707" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D707" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E707" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F707" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B708" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C708" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D708" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E708" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F708" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B709" s="5">
+        <v>42656</v>
+      </c>
+      <c r="C709" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D709" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E709" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F709" s="14" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1636,7 +1636,7 @@
   <dimension ref="A1:F709"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A689" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D710" sqref="D710"/>
+      <selection activeCell="B702" sqref="B702:B709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11257,7 +11257,7 @@
         <v>91</v>
       </c>
       <c r="B701" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C701" s="7" t="s">
         <v>168</v>
@@ -11277,7 +11277,7 @@
         <v>92</v>
       </c>
       <c r="B702" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C702" s="7" t="s">
         <v>182</v>
@@ -11297,7 +11297,7 @@
         <v>12</v>
       </c>
       <c r="B703" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C703" s="7" t="s">
         <v>145</v>
@@ -11314,7 +11314,7 @@
         <v>12</v>
       </c>
       <c r="B704" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C704" s="7" t="s">
         <v>125</v>
@@ -11334,7 +11334,7 @@
         <v>19</v>
       </c>
       <c r="B705" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C705" s="7" t="s">
         <v>367</v>
@@ -11354,7 +11354,7 @@
         <v>48</v>
       </c>
       <c r="B706" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C706" s="7" t="s">
         <v>168</v>
@@ -11374,7 +11374,7 @@
         <v>90</v>
       </c>
       <c r="B707" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C707" s="7" t="s">
         <v>182</v>
@@ -11394,7 +11394,7 @@
         <v>48</v>
       </c>
       <c r="B708" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C708" s="7" t="s">
         <v>168</v>
@@ -11414,7 +11414,7 @@
         <v>90</v>
       </c>
       <c r="B709" s="5">
-        <v>42656</v>
+        <v>42659</v>
       </c>
       <c r="C709" s="7" t="s">
         <v>113</v>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="373">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1633,10 +1633,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F709"/>
+  <dimension ref="A1:F715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A689" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B702" sqref="B702:B709"/>
+    <sheetView tabSelected="1" topLeftCell="A698" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B716" sqref="B716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11257,7 +11257,7 @@
         <v>91</v>
       </c>
       <c r="B701" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C701" s="7" t="s">
         <v>168</v>
@@ -11277,7 +11277,7 @@
         <v>92</v>
       </c>
       <c r="B702" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C702" s="7" t="s">
         <v>182</v>
@@ -11297,7 +11297,7 @@
         <v>12</v>
       </c>
       <c r="B703" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C703" s="7" t="s">
         <v>145</v>
@@ -11314,7 +11314,7 @@
         <v>12</v>
       </c>
       <c r="B704" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C704" s="7" t="s">
         <v>125</v>
@@ -11334,7 +11334,7 @@
         <v>19</v>
       </c>
       <c r="B705" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C705" s="7" t="s">
         <v>367</v>
@@ -11354,7 +11354,7 @@
         <v>48</v>
       </c>
       <c r="B706" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C706" s="7" t="s">
         <v>168</v>
@@ -11374,7 +11374,7 @@
         <v>90</v>
       </c>
       <c r="B707" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C707" s="7" t="s">
         <v>182</v>
@@ -11394,7 +11394,7 @@
         <v>48</v>
       </c>
       <c r="B708" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C708" s="7" t="s">
         <v>168</v>
@@ -11414,7 +11414,7 @@
         <v>90</v>
       </c>
       <c r="B709" s="5">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C709" s="7" t="s">
         <v>113</v>
@@ -11427,6 +11427,40 @@
       </c>
       <c r="F709" s="14" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B714" s="5">
+        <v>42660</v>
+      </c>
+      <c r="C714" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D714" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E714" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B715" s="5">
+        <v>42660</v>
+      </c>
+      <c r="C715" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D715" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E715" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="378">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1141,6 +1141,21 @@
   </si>
   <si>
     <t>INC000000733917</t>
+  </si>
+  <si>
+    <t>INC000000733528</t>
+  </si>
+  <si>
+    <t>INC000000737081</t>
+  </si>
+  <si>
+    <t>Return to ACE 015</t>
+  </si>
+  <si>
+    <t>Return to DB 0003 !!!!!</t>
+  </si>
+  <si>
+    <t>Return to ATK 003C</t>
   </si>
 </sst>
 </file>
@@ -1633,10 +1648,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F715"/>
+  <dimension ref="A1:F748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A698" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B716" sqref="B716"/>
+    <sheetView tabSelected="1" topLeftCell="A736" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C752" sqref="C752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11461,6 +11476,540 @@
       </c>
       <c r="E715" s="6" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B719" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C719" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D719" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E719" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B720" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C720" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D720" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E720" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F720" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A721" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B721" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C721" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D721" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E721" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F721" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A722" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B722" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C722" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D722" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E722" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F722" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B723" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C723" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D723" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E723" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F723" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B724" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C724" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E724" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F724" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B725" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C725" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E725" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F725" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B726" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C726" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E726" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F726" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B727" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C727" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E727" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F727" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B728" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C728" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E728" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F728" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B729" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C729" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E729" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F729" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B730" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C730" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D730" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E730" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F730" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B731" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C731" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D731" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E731" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F731" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B732" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C732" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E732" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F732" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B733" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C733" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E733" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F733" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B734" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C734" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E734" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F734" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B735" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C735" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D735" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E735" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F735" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B736" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C736" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E736" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F736" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B737" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C737" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E737" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F737" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B738" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C738" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E738" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F738" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B739" s="5">
+        <v>42661</v>
+      </c>
+      <c r="C739" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E739" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F739" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B743" s="5">
+        <v>42662</v>
+      </c>
+      <c r="C743" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D743" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E743" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F743" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B744" s="5">
+        <v>42662</v>
+      </c>
+      <c r="C744" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E744" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F744" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B745" s="5">
+        <v>42662</v>
+      </c>
+      <c r="C745" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E745" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F745" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B746" s="5">
+        <v>42662</v>
+      </c>
+      <c r="C746" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D746" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E746" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B747" s="5">
+        <v>42662</v>
+      </c>
+      <c r="C747" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E747" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F747" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B748" s="5">
+        <v>42662</v>
+      </c>
+      <c r="C748" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E748" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F748" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="388">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1156,6 +1156,36 @@
   </si>
   <si>
     <t>Return to ATK 003C</t>
+  </si>
+  <si>
+    <t>Return 2 mics, stands and cables to booth behind stage</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>INC000000740329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo use of AV equipment. </t>
+  </si>
+  <si>
+    <t>INC000000737777</t>
+  </si>
+  <si>
+    <t>S174</t>
+  </si>
+  <si>
+    <t>INC000000737571</t>
+  </si>
+  <si>
+    <t>INC000000737344</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>INC000000736689</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1678,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F748"/>
+  <dimension ref="A1:F766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C752" sqref="C752"/>
+    <sheetView tabSelected="1" topLeftCell="A739" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F769" sqref="F769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12010,6 +12040,303 @@
       </c>
       <c r="F748" s="14" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B752" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C752" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D752" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E752" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F752" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B753" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C753" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E753" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B754" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C754" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D754" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E754" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F754" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B755" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C755" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D755" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E755" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F755" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B756" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C756" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E756" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F756" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B757" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C757" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E757" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F757" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B758" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C758" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D758" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E758" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F758" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B759" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C759" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D759" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E759" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F759" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B760" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C760" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D760" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E760" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F760" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B761" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C761" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E761" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F761" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B762" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C762" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D762" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E762" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F762" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B763" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C763" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D763" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E763" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F763" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B764" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C764" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E764" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F764" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B765" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C765" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E765" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F765" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B766" s="5">
+        <v>42663</v>
+      </c>
+      <c r="C766" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E766" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F766" s="14" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Raul\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="393">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1186,12 +1191,27 @@
   </si>
   <si>
     <t>INC000000736689</t>
+  </si>
+  <si>
+    <t>Return one podium,  2 desk and 2 audience mics with cables and stands to booth behind stage</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics, mixer, speaker , stands and cables to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics, mixer, stands and cables to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return 2 desk and one audience mic , stands , cables and mixer to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return with USB extenders to OSG 1014L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1384,6 +1404,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1431,7 +1454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,9 +1487,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1499,6 +1539,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1678,21 +1735,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F766"/>
+  <dimension ref="A1:F778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A739" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F769" sqref="F769"/>
+    <sheetView tabSelected="1" topLeftCell="A760" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A778" sqref="A778"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="2"/>
+    <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="22.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -12337,6 +12394,174 @@
       </c>
       <c r="F766" s="14" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B770" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C770" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E770" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F770" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B771" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C771" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E771" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B772" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C772" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D772" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E772" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B773" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C773" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E773" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B774" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C774" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E774" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F774" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B775" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C775" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D775" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E775" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F775" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B776" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C776" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D776" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E776" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F776" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B777" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C777" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D777" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E777" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F777" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B778" s="5">
+        <v>42666</v>
+      </c>
+      <c r="C778" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D778" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E778" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -12370,9 +12595,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Raul\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="404">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1206,12 +1201,45 @@
   </si>
   <si>
     <t>Return with USB extenders to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Client using PC</t>
+  </si>
+  <si>
+    <t>Return to DB 0003 and PLUG IN for updates</t>
+  </si>
+  <si>
+    <t>INC000000738641</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>INC000000739173</t>
+  </si>
+  <si>
+    <t>We do NOT have a key - return projector and speaker to DB 0003</t>
+  </si>
+  <si>
+    <t>Return 3 mics with stands cables and mixer to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return 3 desk mics and podium mic with cables and stands to booth behind stage</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>INC000000738947</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1404,9 +1432,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1454,7 +1479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1487,26 +1512,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,23 +1547,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1735,21 +1726,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F778"/>
+  <dimension ref="A1:F798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A760" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A778" sqref="A778"/>
+    <sheetView tabSelected="1" topLeftCell="A778" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F801" sqref="F801"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="22.125" style="2"/>
+    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -12401,7 +12392,7 @@
         <v>92</v>
       </c>
       <c r="B770" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C770" s="7" t="s">
         <v>104</v>
@@ -12421,7 +12412,7 @@
         <v>81</v>
       </c>
       <c r="B771" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C771" s="7" t="s">
         <v>104</v>
@@ -12438,7 +12429,7 @@
         <v>81</v>
       </c>
       <c r="B772" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C772" s="7" t="s">
         <v>108</v>
@@ -12455,7 +12446,7 @@
         <v>81</v>
       </c>
       <c r="B773" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C773" s="7" t="s">
         <v>182</v>
@@ -12472,7 +12463,7 @@
         <v>92</v>
       </c>
       <c r="B774" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>104</v>
@@ -12492,7 +12483,7 @@
         <v>92</v>
       </c>
       <c r="B775" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>104</v>
@@ -12512,7 +12503,7 @@
         <v>92</v>
       </c>
       <c r="B776" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C776" s="7" t="s">
         <v>104</v>
@@ -12532,7 +12523,7 @@
         <v>94</v>
       </c>
       <c r="B777" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C777" s="7" t="s">
         <v>104</v>
@@ -12552,7 +12543,7 @@
         <v>81</v>
       </c>
       <c r="B778" s="5">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C778" s="7" t="s">
         <v>104</v>
@@ -12562,6 +12553,283 @@
       </c>
       <c r="E778" s="6" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B782" s="5">
+        <v>42667</v>
+      </c>
+      <c r="C782" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D782" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E782" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F782" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B783" s="5">
+        <v>42667</v>
+      </c>
+      <c r="C783" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D783" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E783" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F783" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B784" s="5">
+        <v>42667</v>
+      </c>
+      <c r="C784" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D784" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E784" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F784" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B785" s="5">
+        <v>42667</v>
+      </c>
+      <c r="C785" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E785" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F785" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B786" s="5">
+        <v>42667</v>
+      </c>
+      <c r="C786" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E786" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F786" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B787" s="5">
+        <v>42667</v>
+      </c>
+      <c r="C787" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E787" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F787" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B791" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C791" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E791" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F791" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B792" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C792" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E792" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F792" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B793" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C793" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E793" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B794" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C794" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E794" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F794" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B795" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C795" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E795" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F795" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B796" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C796" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E796" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F796" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B797" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C797" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E797" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F797" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B798" s="5">
+        <v>42668</v>
+      </c>
+      <c r="C798" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E798" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F798" s="14" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -12595,9 +12863,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="410">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1234,6 +1234,24 @@
   </si>
   <si>
     <t>INC000000738947</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>Return mic, stand, cable , speaker and tripod to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return Skype kit to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Powered JBL speaker and tripod from HNES 003; mic , stand and cable from OSG 1014L.      ALSO PROVIDE HDMI CABLE FROM OSG 1014L</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>INC000000737819</t>
   </si>
 </sst>
 </file>
@@ -1726,10 +1744,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F798"/>
+  <dimension ref="A1:F818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A778" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F801" sqref="F801"/>
+    <sheetView tabSelected="1" topLeftCell="A802" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F822" sqref="F822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12830,6 +12848,237 @@
       </c>
       <c r="F798" s="14" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B803" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C803" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E803" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F803" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B804" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C804" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D804" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E804" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F804" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B805" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C805" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D805" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E805" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A806" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B806" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C806" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D806" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E806" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F806" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B807" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C807" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D807" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E807" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F807" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B808" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C808" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D808" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E808" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F808" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B809" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C809" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D809" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E809" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F809" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B810" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C810" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D810" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E810" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F810" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B811" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C811" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E811" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F811" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B812" s="5">
+        <v>42669</v>
+      </c>
+      <c r="C812" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D812" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E812" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F812" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B817" s="5">
+        <v>42670</v>
+      </c>
+      <c r="C817" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D817" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E817" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B818" s="5">
+        <v>42670</v>
+      </c>
+      <c r="C818" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D818" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E818" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="412">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1252,6 +1252,12 @@
   </si>
   <si>
     <t>INC000000737819</t>
+  </si>
+  <si>
+    <t>Return 3 desk mics and podium mic with stands and cables to booth behind stage</t>
+  </si>
+  <si>
+    <t>Return mic, stand, cable , speaker and tripod to OSG 1014 L. ALSO please pick up one HDMI cable from client</t>
   </si>
 </sst>
 </file>
@@ -1744,10 +1750,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F818"/>
+  <dimension ref="A1:F823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F822" sqref="F822"/>
+    <sheetView tabSelected="1" topLeftCell="A806" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F823" sqref="F823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13047,7 +13053,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>12</v>
       </c>
@@ -13064,7 +13070,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>12</v>
       </c>
@@ -13079,6 +13085,46 @@
       </c>
       <c r="E818" s="6" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B822" s="5">
+        <v>42671</v>
+      </c>
+      <c r="C822" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D822" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E822" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F822" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B823" s="5">
+        <v>42671</v>
+      </c>
+      <c r="C823" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D823" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E823" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F823" s="14" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="425">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1258,6 +1258,45 @@
   </si>
   <si>
     <t>Return mic, stand, cable , speaker and tripod to OSG 1014 L. ALSO please pick up one HDMI cable from client</t>
+  </si>
+  <si>
+    <t>Demo audio in room to professor</t>
+  </si>
+  <si>
+    <t>INC000000739758</t>
+  </si>
+  <si>
+    <t>Return one desk mic and one podium mic with stands and cables to booth behind stage</t>
+  </si>
+  <si>
+    <t>Skype kit in ACE 015</t>
+  </si>
+  <si>
+    <t>Return skype kit to ACE 015</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>Demo neck mic and doc cam</t>
+  </si>
+  <si>
+    <t>Please remain on site and oversee rooms 1001, 1005, 1006 ,2003, 2004 recordings</t>
+  </si>
+  <si>
+    <t>Return PC to SSB N103</t>
+  </si>
+  <si>
+    <t>INC000000741349</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>INC000000739329</t>
+  </si>
+  <si>
+    <t>Return to DB 0003 and plug in for updates !!</t>
   </si>
 </sst>
 </file>
@@ -1750,10 +1789,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F823"/>
+  <dimension ref="A1:F868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A806" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F823" sqref="F823"/>
+    <sheetView tabSelected="1" topLeftCell="A848" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B871" sqref="B871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13125,6 +13164,697 @@
       </c>
       <c r="F823" s="14" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B827" s="5">
+        <v>42674</v>
+      </c>
+      <c r="C827" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D827" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E827" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B828" s="5">
+        <v>42674</v>
+      </c>
+      <c r="C828" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E828" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F828" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B829" s="5">
+        <v>42674</v>
+      </c>
+      <c r="C829" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E829" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B830" s="5">
+        <v>42674</v>
+      </c>
+      <c r="C830" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D830" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E830" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F830" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B831" s="5">
+        <v>42674</v>
+      </c>
+      <c r="C831" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D831" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E831" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F831" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A835" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B835" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C835" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D835" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E835" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F835" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B836" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C836" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D836" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E836" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F836" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B837" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C837" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D837" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E837" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F837" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B838" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C838" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D838" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E838" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F838" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A839" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B839" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C839" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D839" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E839" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F839" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A840" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B840" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C840" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D840" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E840" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F840" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A841" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B841" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C841" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D841" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E841" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F841" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A842" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B842" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C842" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D842" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E842" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F842" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A843" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B843" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C843" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D843" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E843" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F843" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A844" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B844" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C844" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D844" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E844" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F844" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B845" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C845" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D845" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E845" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F845" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B846" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C846" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D846" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E846" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F846" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B847" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C847" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D847" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E847" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F847" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B848" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C848" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D848" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E848" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F848" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B849" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C849" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D849" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E849" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F849" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B850" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C850" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D850" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E850" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F850" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B851" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C851" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D851" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E851" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F851" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B852" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C852" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D852" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E852" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F852" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B853" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C853" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D853" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E853" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F853" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B854" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C854" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D854" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E854" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F854" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B855" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C855" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D855" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E855" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F855" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B856" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C856" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D856" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E856" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F856" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B857" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C857" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D857" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E857" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F857" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B858" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C858" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D858" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E858" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F858" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B859" s="5">
+        <v>42675</v>
+      </c>
+      <c r="C859" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D859" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E859" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F859" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B864" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C864" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D864" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E864" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F864" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B865" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C865" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D865" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E865" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F865" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B866" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C866" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D866" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E866" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F866" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B867" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C867" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D867" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E867" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F867" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B868" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C868" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D868" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E868" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="433">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1297,6 +1297,30 @@
   </si>
   <si>
     <t>Return to DB 0003 and plug in for updates !!</t>
+  </si>
+  <si>
+    <t>Client usin PC, podium mic and 2 neck mics (one built in, second in the back booth, plugged into mixing board)</t>
+  </si>
+  <si>
+    <t>Operate event / assist client between 5:15-5:45</t>
+  </si>
+  <si>
+    <t>Using neck mic</t>
+  </si>
+  <si>
+    <t>INC000000740762</t>
+  </si>
+  <si>
+    <t>Turn off mixer / leave in place everything for next day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280 N </t>
+  </si>
+  <si>
+    <t>Room in York Lanes - return 2 IR mics to KT 516 and place batteries in charger</t>
+  </si>
+  <si>
+    <t>Pick up one audience handheld mic  and stands and return to rear booth. Leave podium mic  and desk mics in place</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1813,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F868"/>
+  <dimension ref="A1:F895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A848" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B871" sqref="B871"/>
+    <sheetView tabSelected="1" topLeftCell="A881" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E900" sqref="E900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13855,6 +13879,320 @@
       </c>
       <c r="E868" s="6" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B869" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C869" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D869" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E869" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F869" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B870" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C870" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D870" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E870" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F870" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B871" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C871" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D871" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E871" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F871" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B872" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C872" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D872" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E872" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F872" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B877" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C877" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D877" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E877" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F877" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B878" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C878" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D878" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E878" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F878" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B879" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C879" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D879" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E879" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F879" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B880" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C880" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D880" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E880" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F880" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B881" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C881" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D881" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E881" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B882" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C882" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D882" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E882" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F882" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B883" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C883" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D883" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E883" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F883" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B884" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C884" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D884" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E884" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F884" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B888" s="5">
+        <v>42678</v>
+      </c>
+      <c r="C888" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D888" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E888" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F888" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B889" s="5">
+        <v>42678</v>
+      </c>
+      <c r="C889" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D889" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E889" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F889" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B890" s="5">
+        <v>42678</v>
+      </c>
+      <c r="C890" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E890" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F890" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B895" s="5">
+        <v>42681</v>
+      </c>
+      <c r="C895" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E895" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="434">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>Pick up one audience handheld mic  and stands and return to rear booth. Leave podium mic  and desk mics in place</t>
+  </si>
+  <si>
+    <t>INC000000739935</t>
   </si>
 </sst>
 </file>
@@ -1813,10 +1816,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F895"/>
+  <dimension ref="A1:F897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A881" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E900" sqref="E900"/>
+    <sheetView tabSelected="1" topLeftCell="A875" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F902" sqref="F902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14193,6 +14196,46 @@
       </c>
       <c r="E895" s="6" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B896" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C896" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D896" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E896" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F896" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B897" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C897" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D897" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E897" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F897" s="14" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="449">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1324,6 +1324,51 @@
   </si>
   <si>
     <t>INC000000739935</t>
+  </si>
+  <si>
+    <t>Return 2 mics with stands amdcables and mixer to ACW 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return Skype kit to HNES 003. Pick up USB extension cord. DO NOT BE LATE FOR THIS! WE DO NOT HAVE KEYS. </t>
+  </si>
+  <si>
+    <t>INC000000738781</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>INC000000743399</t>
+  </si>
+  <si>
+    <t>INC000000746478, Turn on projector with remote, leave them wireless keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000000746478, Pick up wireless keyboard and projector remote. </t>
+  </si>
+  <si>
+    <t>IR mics from KT 516</t>
+  </si>
+  <si>
+    <t>Return IR mics to KT 516</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>733582</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>745082</t>
+  </si>
+  <si>
+    <t>Return Small PA and cable to DB 0003</t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1861,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F897"/>
+  <dimension ref="A1:F926"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A875" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F902" sqref="F902"/>
+    <sheetView tabSelected="1" topLeftCell="B911" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F931" sqref="F931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14236,6 +14281,420 @@
       </c>
       <c r="F897" s="14" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B902" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C902" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E902" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A903" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B903" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C903" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D903" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E903" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F903" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B904" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C904" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D904" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E904" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F904" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B905" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C905" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D905" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E905" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F905" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B906" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C906" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D906" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E906" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F906" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B907" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C907" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E907" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F907" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B908" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C908" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D908" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E908" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F908" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A909" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B909" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C909" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D909" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E909" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F909" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A910" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B910" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C910" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E910" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F910" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B915" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C915" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D915" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E915" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F915" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B916" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C916" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E916" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F916" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B917" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C917" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D917" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E917" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F917" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B918" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C918" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D918" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E918" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F918" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B919" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C919" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D919" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E919" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B920" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C920" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E920" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F920" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B921" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C921" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D921" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E921" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F921" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B922" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C922" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D922" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E922" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F922" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B923" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C923" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D923" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E923" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F923" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B924" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C924" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D924" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E924" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F924" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B925" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C925" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D925" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E925" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F925" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B926" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C926" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D926" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E926" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F926" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logs!#REF!</definedName>
-    <definedName name="Building">database!$C$2:$C$39</definedName>
+    <definedName name="Building">database!$C$2:$C$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Logs!$1:$1</definedName>
     <definedName name="Staff_Name">database!$A$2:$A$38</definedName>
     <definedName name="Task_type">database!$B$2:$B$25</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="457">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1369,6 +1369,30 @@
   </si>
   <si>
     <t>Return Small PA and cable to DB 0003</t>
+  </si>
+  <si>
+    <t>ROOM IS  YKLN 280N - Return mics to KT 516</t>
+  </si>
+  <si>
+    <t>Setup 2 desk mics w mixer  (XLR input on rack front panel). Equipment from SSB N103</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics with stands, cables and mixer to SSB N103</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>745203</t>
+  </si>
+  <si>
+    <t>744951</t>
+  </si>
+  <si>
+    <t>Privadte D room</t>
+  </si>
+  <si>
+    <t>return 7 IR mics, 14 batteries and charger to SSB N103</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1525,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1553,6 +1577,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1861,10 +1904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F926"/>
+  <dimension ref="A1:F944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B911" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F931" sqref="F931"/>
+    <sheetView tabSelected="1" topLeftCell="A932" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F944" sqref="F944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14695,6 +14738,223 @@
       </c>
       <c r="F926" s="14" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B930" s="5">
+        <v>42684</v>
+      </c>
+      <c r="C930" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D930" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E930" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F930" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B931" s="5">
+        <v>42684</v>
+      </c>
+      <c r="C931" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D931" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E931" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F931" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B932" s="5">
+        <v>42684</v>
+      </c>
+      <c r="C932" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D932" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E932" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F932" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B933" s="5">
+        <v>42684</v>
+      </c>
+      <c r="C933" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D933" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E933" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A934" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B934" s="5">
+        <v>42684</v>
+      </c>
+      <c r="C934" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D934" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E934" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F934" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B935" s="24">
+        <v>42684</v>
+      </c>
+      <c r="C935" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D935" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E935" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F935" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B936" s="24">
+        <v>42684</v>
+      </c>
+      <c r="C936" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D936" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E936" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F936" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B937" s="24">
+        <v>42684</v>
+      </c>
+      <c r="C937" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D937" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E937" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F937" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B938" s="24">
+        <v>42684</v>
+      </c>
+      <c r="C938" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D938" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E938" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F938" s="27" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B939" s="24">
+        <v>42684</v>
+      </c>
+      <c r="C939" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D939" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E939" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F939" s="27" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B944" s="5">
+        <v>42685</v>
+      </c>
+      <c r="C944" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D944" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E944" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F944" s="14" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -14723,7 +14983,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14751,7 +15011,7 @@
       <c r="B2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14762,7 +15022,7 @@
       <c r="B3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -14773,7 +15033,7 @@
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -14784,7 +15044,7 @@
       <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -14795,7 +15055,7 @@
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -14806,7 +15066,7 @@
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -14817,7 +15077,7 @@
       <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -14828,7 +15088,7 @@
       <c r="B9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -14839,7 +15099,7 @@
       <c r="B10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -14850,7 +15110,7 @@
       <c r="B11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14861,7 +15121,7 @@
       <c r="B12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14872,7 +15132,7 @@
       <c r="B13" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14883,7 +15143,7 @@
       <c r="B14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -14894,7 +15154,7 @@
       <c r="B15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="21" t="s">
         <v>195</v>
       </c>
     </row>
@@ -14905,7 +15165,7 @@
       <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -14916,7 +15176,7 @@
       <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14927,7 +15187,7 @@
       <c r="B18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -14938,7 +15198,7 @@
       <c r="B19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14949,7 +15209,7 @@
       <c r="B20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -14960,7 +15220,7 @@
       <c r="B21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -14971,7 +15231,7 @@
       <c r="B22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14982,7 +15242,7 @@
       <c r="B23" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14993,7 +15253,7 @@
       <c r="B24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="21" t="s">
         <v>73</v>
       </c>
     </row>
@@ -15001,7 +15261,7 @@
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15009,7 +15269,7 @@
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -15017,7 +15277,7 @@
       <c r="A27" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15025,7 +15285,7 @@
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15033,15 +15293,15 @@
       <c r="A29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>75</v>
+      <c r="C29" s="21" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -15049,7 +15309,7 @@
       <c r="A31" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15057,7 +15317,7 @@
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15065,7 +15325,7 @@
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15073,7 +15333,7 @@
       <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -15081,7 +15341,7 @@
       <c r="A35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="21" t="s">
         <v>363</v>
       </c>
     </row>
@@ -15089,7 +15349,7 @@
       <c r="A36" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15097,7 +15357,7 @@
       <c r="A37" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15105,7 +15365,7 @@
       <c r="A38" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15113,7 +15373,7 @@
       <c r="A39" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -15121,7 +15381,7 @@
       <c r="A40" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -15129,7 +15389,7 @@
       <c r="A41" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="21" t="s">
         <v>68</v>
       </c>
     </row>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="459">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1393,6 +1393,12 @@
   </si>
   <si>
     <t>return 7 IR mics, 14 batteries and charger to SSB N103</t>
+  </si>
+  <si>
+    <t>746046</t>
+  </si>
+  <si>
+    <t>Meet client and demo equipment</t>
   </si>
 </sst>
 </file>
@@ -1904,10 +1910,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F944"/>
+  <dimension ref="A1:F950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A932" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F944" sqref="F944"/>
+    <sheetView tabSelected="1" topLeftCell="B932" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F951" sqref="F951"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14955,6 +14961,66 @@
       </c>
       <c r="F944" s="14" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B945" s="24">
+        <v>42685</v>
+      </c>
+      <c r="C945" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D945" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E945" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F945" s="27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B946" s="24">
+        <v>42685</v>
+      </c>
+      <c r="C946" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D946" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E946" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F946" s="27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B950" s="5">
+        <v>42688</v>
+      </c>
+      <c r="C950" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D950" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E950" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F950" s="14" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="489">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1399,6 +1399,96 @@
   </si>
   <si>
     <t>Meet client and demo equipment</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>746645</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>748146</t>
+  </si>
+  <si>
+    <t>Return  2 desk mics and podium mic with cables and stands to booth behind stage</t>
+  </si>
+  <si>
+    <t>7 floor lounge</t>
+  </si>
+  <si>
+    <t>Podium mic with small PA from KT 516</t>
+  </si>
+  <si>
+    <t>Return mic , cable and small PA to KT 516</t>
+  </si>
+  <si>
+    <t>Please remain on site and oversee rooms 1003, 1014H, 2008 ,2009, 2010 recordings</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>744657</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>744462</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>739935</t>
+  </si>
+  <si>
+    <t>Return audience mic , podium mic  and second neck mick  with stands and cables to booth behind stage</t>
+  </si>
+  <si>
+    <t>Return 3 desk mics with stands and cables, mixer and small PA to ACE015</t>
+  </si>
+  <si>
+    <t>Return Skype kit to ACE 015</t>
+  </si>
+  <si>
+    <t>IR mic from KT 516</t>
+  </si>
+  <si>
+    <t>Return IR mic to KT 516 and place battery into charger</t>
+  </si>
+  <si>
+    <t>Client  is Darren Thorne     darren.thorne@gmail.com</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>746539</t>
+  </si>
+  <si>
+    <t>Operate event from 5:30 - 9:00</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics, audience mic, stands , cables and mixer to SSB N103</t>
+  </si>
+  <si>
+    <t>Set up 2 desk mics, audience mic and mixer plugged into the rack XLR  - equipment  ready in SSB N103</t>
+  </si>
+  <si>
+    <t>INC000000747586</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>INC000000749227</t>
   </si>
 </sst>
 </file>
@@ -1910,10 +2000,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F950"/>
+  <dimension ref="A1:F1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B932" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F951" sqref="F951"/>
+    <sheetView tabSelected="1" topLeftCell="A997" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1020" sqref="F1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15023,6 +15113,1194 @@
         <v>458</v>
       </c>
     </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B951" s="24">
+        <v>42688</v>
+      </c>
+      <c r="C951" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D951" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E951" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F951" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B952" s="24">
+        <v>42688</v>
+      </c>
+      <c r="C952" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D952" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E952" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="F952" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B953" s="24">
+        <v>42688</v>
+      </c>
+      <c r="C953" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D953" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E953" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F953" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B954" s="24">
+        <v>42688</v>
+      </c>
+      <c r="C954" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D954" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E954" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F954" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B955" s="24"/>
+    </row>
+    <row r="958" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A958" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B958" s="5">
+        <v>42689</v>
+      </c>
+      <c r="C958" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D958" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E958" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F958" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B959" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C959" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D959" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E959" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F959" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B960" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C960" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D960" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E960" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F960" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A961" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B961" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C961" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D961" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E961" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F961" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A962" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B962" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C962" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D962" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E962" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F962" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A963" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B963" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C963" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D963" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E963" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F963" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A964" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B964" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C964" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D964" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E964" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F964" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A965" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B965" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C965" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D965" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E965" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F965" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A966" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B966" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C966" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D966" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E966" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F966" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B967" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C967" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D967" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E967" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F967" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B968" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C968" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D968" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E968" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F968" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B969" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C969" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D969" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E969" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F969" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B970" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C970" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D970" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E970" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F970" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B971" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C971" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D971" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E971" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F971" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B972" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C972" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D972" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E972" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F972" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A973" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B973" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C973" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D973" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E973" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F973" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B974" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C974" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D974" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E974" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F974" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B975" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C975" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D975" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E975" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F975" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B976" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C976" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D976" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E976" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F976" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B977" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C977" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D977" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E977" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="F977" s="27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B978" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C978" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D978" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E978" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="F978" s="27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B979" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C979" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D979" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E979" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F979" s="27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B980" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C980" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D980" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E980" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F980" s="27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B981" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C981" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D981" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E981" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F981" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B982" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C982" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D982" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E982" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F982" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B983" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C983" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D983" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E983" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F983" s="27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B984" s="24">
+        <v>42689</v>
+      </c>
+      <c r="C984" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D984" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E984" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F984" s="27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B989" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C989" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D989" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E989" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A990" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B990" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C990" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D990" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E990" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F990" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A991" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B991" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C991" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D991" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E991" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F991" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B992" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C992" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D992" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E992" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F992" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B993" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C993" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D993" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E993" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F993" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B994" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C994" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D994" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E994" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F994" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B995" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C995" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D995" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E995" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F995" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B996" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C996" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D996" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E996" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F996" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B997" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C997" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D997" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E997" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F997" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B998" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C998" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D998" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E998" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F998" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B999" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C999" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E999" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F999" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1000" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C1000" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1000" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1000" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1000" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1001" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C1001" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1001" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1001" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1001" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1002" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C1002" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1002" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1002" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1003" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C1003" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1003" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1003" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1004" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C1004" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1004" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1004" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1004" s="27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1005" s="24">
+        <v>42690</v>
+      </c>
+      <c r="C1005" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1005" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1005" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1005" s="27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1009" s="5">
+        <v>42691</v>
+      </c>
+      <c r="C1009" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1009" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1009" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1009" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1010" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1010" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1010" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1010" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1011" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1011" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1011" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1011" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1011" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1012" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1012" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1012" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1012" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1012" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1013" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1013" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1013" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1013" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1014" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1014" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1014" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1014" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1014" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1015" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1015" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1015" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1015" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1015" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1016" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1016" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1016" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1016" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1016" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1017" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1017" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1017" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1017" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1017" s="27" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1018" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1018" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1018" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1018" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1018" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1018" s="27" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1019" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1019" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1019" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1019" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1019" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1020" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1020" s="24">
+        <v>42691</v>
+      </c>
+      <c r="C1020" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1020" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1020" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1020" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A356:F370">
@@ -15032,7 +16310,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A638 A645:A676 A679:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="496">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1489,6 +1489,27 @@
   </si>
   <si>
     <t>INC000000749227</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>748736</t>
+  </si>
+  <si>
+    <t>Lectern mic (there) , audience mic -wireless, on stand (in rear booth- input 12 on mixer) and 4 neck mics (2 in rear booth - inputs 7 and 8;  one in front drawer and one from ACW 108 - plug into mixer, input 9)</t>
+  </si>
+  <si>
+    <t>Mics and PC</t>
+  </si>
+  <si>
+    <t>Operate event between 5:00-6:00</t>
+  </si>
+  <si>
+    <t>Return 3 neck mics and wireless handheld mic to rear booth; return main neck mic to front drawer</t>
+  </si>
+  <si>
+    <t>752236</t>
   </si>
 </sst>
 </file>
@@ -2000,10 +2021,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1020"/>
+  <dimension ref="A1:F1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A997" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1020" sqref="F1020"/>
+    <sheetView tabSelected="1" topLeftCell="A1012" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1037" sqref="F1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16299,6 +16320,183 @@
       </c>
       <c r="F1020" s="27" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1024" s="5">
+        <v>42695</v>
+      </c>
+      <c r="C1024" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1024" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1024" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1025" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1025" s="24">
+        <v>42695</v>
+      </c>
+      <c r="C1025" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1025" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1025" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1025" s="27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1026" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1026" s="24">
+        <v>42695</v>
+      </c>
+      <c r="C1026" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1026" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1026" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1026" s="27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1031" s="5">
+        <v>42696</v>
+      </c>
+      <c r="C1031" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1031" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1031" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1031" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1032" s="24">
+        <v>42696</v>
+      </c>
+      <c r="C1032" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1032" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1032" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1032" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1033" s="24">
+        <v>42696</v>
+      </c>
+      <c r="C1033" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1033" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1033" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1033" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1034" s="24">
+        <v>42696</v>
+      </c>
+      <c r="C1034" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1034" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1034" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1034" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1035" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1035" s="24">
+        <v>42696</v>
+      </c>
+      <c r="C1035" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1035" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1035" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1035" s="27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1036" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1036" s="24">
+        <v>42696</v>
+      </c>
+      <c r="C1036" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1036" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1036" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1036" s="27" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="504">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1510,6 +1510,30 @@
   </si>
   <si>
     <t>752236</t>
+  </si>
+  <si>
+    <t>1745</t>
+  </si>
+  <si>
+    <t>Return 4 IR mics with mixer and IR receivers to HNES 003</t>
+  </si>
+  <si>
+    <t>750624</t>
+  </si>
+  <si>
+    <t>4 desk mics from the rear booth - plug into floor box  / podium mic there -check</t>
+  </si>
+  <si>
+    <t>Operate event from 4:30 to 7:30</t>
+  </si>
+  <si>
+    <t>Return 4 desk mics with stands and cables to rear booth</t>
+  </si>
+  <si>
+    <t>749658</t>
+  </si>
+  <si>
+    <t>751159</t>
   </si>
 </sst>
 </file>
@@ -2021,10 +2045,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1036"/>
+  <dimension ref="A1:F1064"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1012" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1037" sqref="F1037"/>
+    <sheetView tabSelected="1" topLeftCell="A1039" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1068" sqref="F1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16497,6 +16521,394 @@
       </c>
       <c r="F1036" s="27" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1041" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1041" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1041" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1041" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1041" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1042" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1042" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1042" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1042" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1042" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1043" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1043" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1043" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1043" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1043" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1044" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1044" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1044" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1044" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1044" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1044" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1045" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1045" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1045" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1045" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1045" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1046" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1046" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1046" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1046" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1046" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1047" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1047" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1047" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1047" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1047" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1048" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1048" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1048" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1048" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1048" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1049" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1049" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1049" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1049" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1049" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1054" s="24">
+        <v>42698</v>
+      </c>
+      <c r="C1054" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1054" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1054" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1054" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1055" s="24">
+        <v>42698</v>
+      </c>
+      <c r="C1055" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1055" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1055" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1055" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1056" s="24">
+        <v>42698</v>
+      </c>
+      <c r="C1056" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1056" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1056" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1057" s="24">
+        <v>42698</v>
+      </c>
+      <c r="C1057" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1057" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1057" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1058" s="24">
+        <v>42698</v>
+      </c>
+      <c r="C1058" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1058" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1058" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1058" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1059" s="24">
+        <v>42698</v>
+      </c>
+      <c r="C1059" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1059" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1059" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1059" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1060" s="24">
+        <v>42698</v>
+      </c>
+      <c r="C1060" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1060" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1060" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1060" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1061" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1061" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1061" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1061" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1061" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1062" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1062" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1062" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1062" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1062" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1063" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1063" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1063" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1063" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1063" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1064" s="24">
+        <v>42697</v>
+      </c>
+      <c r="C1064" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1064" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1064" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1064" s="27" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Raul\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="504">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1539,7 +1544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1751,6 +1756,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1798,7 +1806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1831,9 +1839,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1866,6 +1891,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2045,10 +2087,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1064"/>
+  <dimension ref="A1:F1074"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1039" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1068" sqref="F1068"/>
+      <selection activeCell="B1067" sqref="B1067:B1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16909,6 +16951,182 @@
       </c>
       <c r="F1064" s="27" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1066" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1066" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1066" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1066" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1066" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1067" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1067" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1067" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1067" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1067" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1068" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1068" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1068" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1068" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1068" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1069" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1069" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1069" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1069" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1069" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1070" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1070" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1070" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1070" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1070" s="27"/>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1071" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1071" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1071" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1071" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1071" s="27"/>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1072" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1072" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1072" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1072" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1072" s="27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1073" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1073" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1073" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1073" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1073" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1074" s="24">
+        <v>42699</v>
+      </c>
+      <c r="C1074" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1074" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1074" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1074" s="27" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Raul\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="504">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1544,7 +1539,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1756,9 +1751,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1806,7 +1798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1839,26 +1831,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1891,23 +1866,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2087,10 +2045,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1074"/>
+  <dimension ref="A1:F1064"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1039" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1067" sqref="B1067:B1074"/>
+      <selection activeCell="F1068" sqref="F1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16951,182 +16909,6 @@
       </c>
       <c r="F1064" s="27" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1066" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1066" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1066" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1066" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1066" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1066" s="27" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1067" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1067" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1067" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1067" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1067" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1067" s="27" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1068" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1068" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1068" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1068" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1068" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="F1068" s="27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1069" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1069" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1069" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1069" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1069" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="F1069" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1070" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1070" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1070" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D1070" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1070" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1070" s="27"/>
-    </row>
-    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1071" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1071" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1071" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1071" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1071" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1071" s="27"/>
-    </row>
-    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1072" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1072" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1072" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1072" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1072" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1072" s="27" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1073" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1073" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1073" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1073" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1073" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1073" s="27" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1074" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1074" s="24">
-        <v>42699</v>
-      </c>
-      <c r="C1074" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1074" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1074" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1074" s="27" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="505">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1534,6 +1534,9 @@
   </si>
   <si>
     <t>751159</t>
+  </si>
+  <si>
+    <t>Return IR mic to KT 516 and place battery in charger. We have a key for this room in YJKLN 203C</t>
   </si>
 </sst>
 </file>
@@ -2045,10 +2048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1064"/>
+  <dimension ref="A1:F1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1039" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1068" sqref="F1068"/>
+    <sheetView tabSelected="1" topLeftCell="A1063" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1080" sqref="E1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16911,6 +16914,97 @@
         <v>503</v>
       </c>
     </row>
+    <row r="1068" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1068" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1068" s="5">
+        <v>42702</v>
+      </c>
+      <c r="C1068" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1068" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1068" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1068" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1069" s="24">
+        <v>42702</v>
+      </c>
+      <c r="C1069" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1069" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1069" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1070" s="24">
+        <v>42702</v>
+      </c>
+      <c r="C1070" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1070" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1070" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1071" s="5">
+        <v>42702</v>
+      </c>
+      <c r="C1071" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1071" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1071" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1072" s="24">
+        <v>42702</v>
+      </c>
+      <c r="C1072" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1072" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1072" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1073" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1073" s="24"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A356:F370">
@@ -16920,7 +17014,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A638 A645:A676 A679:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1072 D1074:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="520">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1537,6 +1537,51 @@
   </si>
   <si>
     <t>Return IR mic to KT 516 and place battery in charger. We have a key for this room in YJKLN 203C</t>
+  </si>
+  <si>
+    <t>280M</t>
+  </si>
+  <si>
+    <t>Return IR mic to KT 516 and place battery in charger. We have a key for this room in YKLN 203C</t>
+  </si>
+  <si>
+    <t>Return to HNES 003</t>
+  </si>
+  <si>
+    <t>Client  is Darren Thorne     darren.thorne@gmail.com    Equipment fro OSG 1014L</t>
+  </si>
+  <si>
+    <t>Pick up neck mic labeled "2" with receiver and cables and return to DB 0003</t>
+  </si>
+  <si>
+    <t>752375</t>
+  </si>
+  <si>
+    <t>INC000000754482</t>
+  </si>
+  <si>
+    <t>INC000000755138</t>
+  </si>
+  <si>
+    <t>752284</t>
+  </si>
+  <si>
+    <t>752376</t>
+  </si>
+  <si>
+    <t>Return 4 IR mics to KT 516 and place batteries in charger    We do have a key for the room in YKLN 203C</t>
+  </si>
+  <si>
+    <t>Podium mic - there/test; one wired audience mic - from rear booth</t>
+  </si>
+  <si>
+    <t>Neck mic and PC</t>
+  </si>
+  <si>
+    <t>Pick up oneaudience mic , stand and cable and return to rear booth</t>
+  </si>
+  <si>
+    <t>Return mic, stand and cable to KT 516 / we have a key for the room in KT 516</t>
   </si>
 </sst>
 </file>
@@ -2048,10 +2093,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1073"/>
+  <dimension ref="A1:F1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1063" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1080" sqref="E1080"/>
+    <sheetView tabSelected="1" topLeftCell="A1099" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1122" sqref="F1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17002,8 +17047,599 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1073" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1073" s="24"/>
+    </row>
+    <row r="1076" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1076" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1076" s="5">
+        <v>42704</v>
+      </c>
+      <c r="C1076" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1076" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1076" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F1076" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1077" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1077" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1077" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1077" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1077" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1078" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1078" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1078" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1078" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1078" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1079" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1079" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1079" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1079" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1079" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1079" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1080" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1080" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1080" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1080" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1080" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1081" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1081" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1081" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1081" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1081" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1082" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1082" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1082" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1082" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1082" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1082" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1083" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1083" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1083" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1083" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1084" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1084" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1084" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1084" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1084" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1084" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1085" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1085" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1085" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1085" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1085" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1085" s="27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1086" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1086" s="5">
+        <v>42704</v>
+      </c>
+      <c r="C1086" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1086" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1086" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1086" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1087" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1087" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1087" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1087" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1087" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1088" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1088" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1088" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1088" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1088" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1089" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1089" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1089" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1089" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1089" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1089" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1090" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1090" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1090" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1090" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1090" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1090" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1091" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1091" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1091" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1091" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1091" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1091" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1092" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1092" s="24">
+        <v>42704</v>
+      </c>
+      <c r="C1092" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1092" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1092" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1092" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1097" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1097" s="24">
+        <v>42705</v>
+      </c>
+      <c r="C1097" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1097" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1097" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1097" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1098" s="24">
+        <v>42705</v>
+      </c>
+      <c r="C1098" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1098" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1098" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1098" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1099" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1099" s="24">
+        <v>42705</v>
+      </c>
+      <c r="C1099" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1099" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1099" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1100" s="24">
+        <v>42705</v>
+      </c>
+      <c r="C1100" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1100" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1100" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1100" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1101" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1101" s="24">
+        <v>42705</v>
+      </c>
+      <c r="C1101" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1101" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1101" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1101" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1102" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1102" s="24">
+        <v>42705</v>
+      </c>
+      <c r="C1102" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1102" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1102" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1103" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1103" s="24">
+        <v>42705</v>
+      </c>
+      <c r="C1103" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1103" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1103" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1107" s="5">
+        <v>42706</v>
+      </c>
+      <c r="C1107" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1107" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1107" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1111" s="5">
+        <v>42709</v>
+      </c>
+      <c r="C1111" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1111" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1115" s="5">
+        <v>42710</v>
+      </c>
+      <c r="C1115" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1115" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1115" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1116" s="24">
+        <v>42710</v>
+      </c>
+      <c r="C1116" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1116" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1116" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1117" s="24">
+        <v>42710</v>
+      </c>
+      <c r="C1117" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1117" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1117" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1122" s="5">
+        <v>42711</v>
+      </c>
+      <c r="C1122" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1122" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1122" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1122" s="14" t="s">
+        <v>519</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="521">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>Return mic, stand and cable to KT 516 / we have a key for the room in KT 516</t>
+  </si>
+  <si>
+    <t>Return skype kit to OSG 1014L</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2096,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1122"/>
+  <dimension ref="A1:F1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1099" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1122" sqref="F1122"/>
+    <sheetView tabSelected="1" topLeftCell="A1111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1130" sqref="F1130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17639,6 +17642,43 @@
       </c>
       <c r="F1122" s="14" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1127" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1127" s="5">
+        <v>42712</v>
+      </c>
+      <c r="C1127" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1127" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1127" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1128" s="5">
+        <v>42712</v>
+      </c>
+      <c r="C1128" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1128" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="523">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1585,6 +1585,12 @@
   </si>
   <si>
     <t>Return skype kit to OSG 1014L</t>
+  </si>
+  <si>
+    <t>N940</t>
+  </si>
+  <si>
+    <t>Return mics (4)  and projector remote to top of rack in cabinet at back of room. We have a key for the room in Ross S120</t>
   </si>
 </sst>
 </file>
@@ -2096,10 +2102,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1128"/>
+  <dimension ref="A1:F1134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1130" sqref="F1130"/>
+    <sheetView tabSelected="1" topLeftCell="A1117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1138" sqref="C1138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17679,6 +17685,60 @@
       </c>
       <c r="E1128" s="6" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1132" s="5">
+        <v>42719</v>
+      </c>
+      <c r="C1132" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1132" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1133" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1133" s="24">
+        <v>42719</v>
+      </c>
+      <c r="C1133" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1133" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1134" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1134" s="24">
+        <v>42719</v>
+      </c>
+      <c r="C1134" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1134" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1134" s="14" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="527">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1591,6 +1591,18 @@
   </si>
   <si>
     <t>Return mics (4)  and projector remote to top of rack in cabinet at back of room. We have a key for the room in Ross S120</t>
+  </si>
+  <si>
+    <t>280 N</t>
+  </si>
+  <si>
+    <t>We have a key in YKLN 203 C</t>
+  </si>
+  <si>
+    <t>we have a key in YKLN 203 C  - return mic to KT 516  and place battery into charger</t>
+  </si>
+  <si>
+    <t>204</t>
   </si>
 </sst>
 </file>
@@ -2102,10 +2114,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1134"/>
+  <dimension ref="A1:F1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1138" sqref="C1138"/>
+    <sheetView tabSelected="1" topLeftCell="A1196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1213" sqref="F1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17740,6 +17752,1153 @@
       <c r="F1134" s="14" t="s">
         <v>522</v>
       </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1139" s="5">
+        <v>42738</v>
+      </c>
+      <c r="C1139" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1139" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1139" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1140" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1140" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1140" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1140" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1140" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1141" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1141" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1141" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1142" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1142" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1142" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1142" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1143" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1143" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1143" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1144" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1144" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1144" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1144" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1145" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1145" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1145" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1145" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1146" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1146" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1146" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1146" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1147" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1147" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1147" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1147" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1148" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1148" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1148" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1148" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1148" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1149" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1149" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1149" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1149" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1149" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1150" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1150" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1150" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1150" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1150" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1151" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1151" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1151" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1151" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1151" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1152" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1152" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1152" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1152" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1152" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1153" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1153" s="24">
+        <v>42738</v>
+      </c>
+      <c r="C1153" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1153" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1153" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1154" s="22"/>
+      <c r="B1154" s="24"/>
+      <c r="C1154" s="26"/>
+      <c r="D1154" s="23"/>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1157" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1157" s="5">
+        <v>42739</v>
+      </c>
+      <c r="C1157" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1157" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1158" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1158" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1158" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1158" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1158" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1159" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1159" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1159" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1159" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1159" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1159" s="27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1160" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1160" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1160" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1160" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1160" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1160" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1161" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1161" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1161" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1161" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1161" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1162" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1162" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1162" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1162" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1162" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1163" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1163" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1163" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1163" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1163" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1164" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1164" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1164" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1164" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1164" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1165" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1165" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1165" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1165" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1165" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1166" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1166" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1166" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1166" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1166" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1167" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1167" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1167" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1167" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1168" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1168" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1168" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1168" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1169" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1169" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1169" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1169" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1170" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1170" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1170" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1170" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1171" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1171" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1171" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1171" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1171" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1172" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1172" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1172" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1172" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1172" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1173" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1173" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1173" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1173" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1173" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1174" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1174" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1174" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1174" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1174" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1175" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1175" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1175" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1175" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1175" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1176" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1176" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1176" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1176" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1176" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1177" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1177" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1177" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1177" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1177" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1178" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1178" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1178" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1178" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1178" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1179" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1179" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1179" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1179" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1179" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1180" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1180" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1180" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1180" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1180" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1181" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1181" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1181" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1181" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1181" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1182" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1182" s="24">
+        <v>42739</v>
+      </c>
+      <c r="C1182" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1182" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1182" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1187" s="5">
+        <v>42740</v>
+      </c>
+      <c r="C1187" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1187" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1187" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1188" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1188" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1188" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1188" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1188" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1189" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1189" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1189" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1189" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1189" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1190" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1190" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1190" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1190" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1190" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1191" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1191" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1191" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1191" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1191" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1192" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1192" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1192" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1192" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1192" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1193" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1193" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1193" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1193" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1193" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1194" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1194" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1194" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1194" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1194" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1195" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1195" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1195" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1195" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1195" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1196" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1196" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1196" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1196" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1196" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1197" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1197" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1197" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1197" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1197" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1198" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1198" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1198" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1198" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1198" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1199" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1199" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1199" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1199" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1199" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1200" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1200" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1200" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1200" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1200" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1201" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1201" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1201" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1201" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1201" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1202" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1202" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1202" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1202" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1202" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1203" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1203" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1203" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1203" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1203" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1204" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1204" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1204" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1204" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1204" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1205" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1205" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1205" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1205" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1205" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1206" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1206" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1206" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1206" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1206" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1207" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1207" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1207" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1207" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1207" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1208" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1208" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1208" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1208" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1208" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1209" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1209" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1209" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1209" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1209" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1210" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1210" s="24">
+        <v>42740</v>
+      </c>
+      <c r="C1210" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1210" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1210" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1211" s="22"/>
+      <c r="B1211" s="24"/>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1212" s="22"/>
+      <c r="B1212" s="24"/>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1213" s="22"/>
+      <c r="B1213" s="24"/>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1214" s="22"/>
+      <c r="B1214" s="24"/>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1215" s="22"/>
+      <c r="B1215" s="24"/>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1216" s="22"/>
+      <c r="B1216" s="24"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="527">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:F1216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1213" sqref="F1213"/>
+      <selection activeCell="A1216" sqref="A1216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18706,7 +18706,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1201" s="2" t="s">
         <v>82</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1202" s="2" t="s">
         <v>82</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1203" s="2" t="s">
         <v>81</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1204" s="22" t="s">
         <v>81</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="1205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1205" s="22" t="s">
         <v>81</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1206" s="22" t="s">
         <v>81</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1207" s="22" t="s">
         <v>81</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1208" s="22" t="s">
         <v>81</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1209" s="22" t="s">
         <v>81</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1210" s="22" t="s">
         <v>81</v>
       </c>
@@ -18876,29 +18876,71 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1211" s="22"/>
       <c r="B1211" s="24"/>
     </row>
-    <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1212" s="22"/>
       <c r="B1212" s="24"/>
     </row>
-    <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1213" s="22"/>
       <c r="B1213" s="24"/>
     </row>
-    <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1214" s="22"/>
-      <c r="B1214" s="24"/>
-    </row>
-    <row r="1215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1215" s="22"/>
-      <c r="B1215" s="24"/>
-    </row>
-    <row r="1216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1216" s="22"/>
-      <c r="B1216" s="24"/>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1214" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1214" s="24">
+        <v>42741</v>
+      </c>
+      <c r="C1214" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1214" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1214" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1214" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1215" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1215" s="24">
+        <v>42741</v>
+      </c>
+      <c r="C1215" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1215" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1215" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1216" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1216" s="24">
+        <v>42741</v>
+      </c>
+      <c r="C1216" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1216" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1216" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="530">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1603,6 +1603,15 @@
   </si>
   <si>
     <t>204</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>PC, neck mic and podium mic,  audio cable for laptop!</t>
+  </si>
+  <si>
+    <t>Operate event from 17:00-18:00</t>
   </si>
 </sst>
 </file>
@@ -2114,10 +2123,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1216"/>
+  <dimension ref="A1:F1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1216" sqref="A1216"/>
+    <sheetView tabSelected="1" topLeftCell="A1221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1241" sqref="A1241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18940,6 +18949,300 @@
       </c>
       <c r="E1216" s="6" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1223" s="24"/>
+      <c r="C1223" s="26"/>
+      <c r="D1223" s="23"/>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1224" s="24"/>
+      <c r="C1224" s="26"/>
+      <c r="D1224" s="23"/>
+      <c r="F1224" s="27"/>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1225" s="24"/>
+      <c r="C1225" s="26"/>
+      <c r="D1225" s="23"/>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1226" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1226" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1226" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1226" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1227" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1227" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1227" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1227" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1228" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1228" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1228" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1228" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1229" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1229" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1229" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1229" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1230" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1230" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1230" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1230" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1230" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1231" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1231" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1231" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1231" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1231" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1232" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1232" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1232" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1232" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1232" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1233" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1233" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1233" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1233" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1233" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1234" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1234" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1234" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1234" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1234" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1235" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1235" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1235" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1235" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1235" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1236" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1236" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1236" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1236" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1236" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1237" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1237" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1237" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1237" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1237" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1238" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1238" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1238" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1238" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1238" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1239" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1239" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1239" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1239" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1239" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1240" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1240" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1240" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1240" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1240" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1241" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1241" s="24">
+        <v>42744</v>
+      </c>
+      <c r="C1241" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1241" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1241" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1241" s="14" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="542">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1612,6 +1612,42 @@
   </si>
   <si>
     <t>Operate event from 17:00-18:00</t>
+  </si>
+  <si>
+    <t>Return small PA and audio cable to HNES 003</t>
+  </si>
+  <si>
+    <t>Equipment from DB 0003</t>
+  </si>
+  <si>
+    <t>Return to DB 003</t>
+  </si>
+  <si>
+    <t>Return to DB 003 and plug in for updates</t>
+  </si>
+  <si>
+    <t>Return to DB 0003</t>
+  </si>
+  <si>
+    <t>return equipment to DB 0003 and plug in for updates</t>
+  </si>
+  <si>
+    <t>return equipment to ATK 003C</t>
+  </si>
+  <si>
+    <t>Return to ACW 108</t>
+  </si>
+  <si>
+    <t>Return tio HNES 003</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>768119</t>
+  </si>
+  <si>
+    <t>Return keyboard to OSG 1014L</t>
   </si>
 </sst>
 </file>
@@ -2123,10 +2159,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1241"/>
+  <dimension ref="A1:F1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1241" sqref="A1241"/>
+    <sheetView tabSelected="1" topLeftCell="A1289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1300" sqref="B1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19243,6 +19279,915 @@
       </c>
       <c r="F1241" s="14" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1246" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1246" s="5">
+        <v>42745</v>
+      </c>
+      <c r="C1246" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1246" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1246" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1246" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1247" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1247" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1247" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1247" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1248" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1248" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1248" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1248" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1248" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1248" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1249" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1249" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1249" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1249" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1249" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1249" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1250" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1250" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1250" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1250" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1250" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1250" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1251" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1251" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1251" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1251" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1251" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1251" s="27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1252" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1252" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1252" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1252" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1253" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1253" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1253" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1253" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1254" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1254" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1254" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1255" s="22"/>
+      <c r="B1255" s="24">
+        <v>42745</v>
+      </c>
+      <c r="C1255" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1255" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1255" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1256" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1256" s="5">
+        <v>42745</v>
+      </c>
+      <c r="C1256" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1256" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1256" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1256" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1261" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1261" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1261" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1261" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1261" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1261" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1262" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1262" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1262" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1262" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1262" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1262" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1263" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1263" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1263" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1263" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1264" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1264" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1264" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1264" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1264" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1264" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1265" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1265" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1265" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1265" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1265" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1265" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1266" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1266" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1266" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1266" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1266" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1266" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1267" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1267" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1267" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1267" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1267" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1267" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1268" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1268" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1268" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1268" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1269" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1269" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1269" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1269" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1270" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1270" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1270" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1270" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1271" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1271" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1271" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1271" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1272" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1272" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1272" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1272" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1273" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1273" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1273" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1273" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1273" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1273" s="27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1274" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1274" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1274" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1274" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1274" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1274" s="27" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1275" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1275" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1275" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1275" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1275" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1276" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1276" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1276" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1276" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1276" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1276" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1277" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1277" s="24">
+        <v>42746</v>
+      </c>
+      <c r="C1277" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1277" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1277" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1277" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1281" s="5">
+        <v>42747</v>
+      </c>
+      <c r="C1281" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1281" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1281" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1282" s="24">
+        <v>42747</v>
+      </c>
+      <c r="C1282" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1282" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1282" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1283" s="24">
+        <v>42747</v>
+      </c>
+      <c r="C1283" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1283" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1283" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1284" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1284" s="24">
+        <v>42747</v>
+      </c>
+      <c r="C1284" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1284" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1284" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1284" s="27" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1288" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1288" s="24">
+        <v>42748</v>
+      </c>
+      <c r="C1288" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1288" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1288" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1288" s="27" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1293" s="5">
+        <v>42751</v>
+      </c>
+      <c r="C1293" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1293" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1293" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1294" s="24">
+        <v>42751</v>
+      </c>
+      <c r="C1294" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1294" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1294" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1295" s="24">
+        <v>42751</v>
+      </c>
+      <c r="C1295" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1295" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1295" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1296" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1296" s="24">
+        <v>42751</v>
+      </c>
+      <c r="C1296" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1296" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1296" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1296" s="27" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1297" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1297" s="5">
+        <v>42751</v>
+      </c>
+      <c r="C1297" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1297" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1297" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1297" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1298" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1298" s="5">
+        <v>42751</v>
+      </c>
+      <c r="C1298" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1298" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1298" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1298" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1303" s="5">
+        <v>42752</v>
+      </c>
+      <c r="C1303" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1303" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1303" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1304" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1304" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1304" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1304" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1304" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1304" s="27" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1305" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1305" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1305" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1305" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1305" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1305" s="27" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1306" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1306" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1306" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1306" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1306" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1306" s="27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1307" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1307" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1307" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1307" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1307" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1307" s="27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1308" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1308" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1308" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1308" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1308" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1309" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1309" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1309" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1309" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1310" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1310" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1310" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1310" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1311" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1311" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1311" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1311" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1312" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1312" s="24">
+        <v>42752</v>
+      </c>
+      <c r="C1312" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1312" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1312" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1312" s="14" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="546">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1648,6 +1648,18 @@
   </si>
   <si>
     <t>Return keyboard to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Large screen TV with PC; return to HNES 003</t>
+  </si>
+  <si>
+    <t>3rd floor staff lounge</t>
+  </si>
+  <si>
+    <t>Return 3 mics, stands, cables , mixer , small PA and cart to DB 0003       WE HAVE A KEY IN DB0003 ON BROWN ATK FOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd floor staff lounge  - return to SSB N103, also pick up a rubber mat and an extension cord. </t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1792,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1851,6 +1863,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2159,10 +2174,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1312"/>
+  <dimension ref="A1:F1329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1289" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1300" sqref="B1300"/>
+    <sheetView tabSelected="1" topLeftCell="A1310" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1328" sqref="F1328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20188,6 +20203,203 @@
       </c>
       <c r="F1312" s="14" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1317" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1317" s="24">
+        <v>42753</v>
+      </c>
+      <c r="C1317" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1317" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1317" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1317" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1318" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1318" s="24">
+        <v>42753</v>
+      </c>
+      <c r="C1318" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1318" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1318" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1318" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1319" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1319" s="24">
+        <v>42753</v>
+      </c>
+      <c r="C1319" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1319" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1319" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1319" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1320" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1320" s="24">
+        <v>42753</v>
+      </c>
+      <c r="C1320" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1320" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1320" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1320" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1321" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1321" s="24">
+        <v>42753</v>
+      </c>
+      <c r="C1321" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1321" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1321" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1321" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1322" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1322" s="24">
+        <v>42753</v>
+      </c>
+      <c r="C1322" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1322" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1322" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1322" s="27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1326" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1326" s="5">
+        <v>42754</v>
+      </c>
+      <c r="C1326" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1326" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1326" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1326" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1327" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1327" s="24">
+        <v>42754</v>
+      </c>
+      <c r="C1327" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1327" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1327" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1328" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1328" s="24">
+        <v>42754</v>
+      </c>
+      <c r="C1328" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1328" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1328" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1328" s="28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1329" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1329" s="24">
+        <v>42754</v>
+      </c>
+      <c r="C1329" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1329" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1329" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1329" s="14" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="561">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1660,6 +1660,51 @@
   </si>
   <si>
     <t xml:space="preserve">3rd floor staff lounge  - return to SSB N103, also pick up a rubber mat and an extension cord. </t>
+  </si>
+  <si>
+    <t>Return small PA with neck mic on cart to SSB N103</t>
+  </si>
+  <si>
+    <t>Return speaker, tripod, mixer, 3 mics with stands, one neck mic to DB 0003</t>
+  </si>
+  <si>
+    <t>Returjn doc camera on cart to SSB N103</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Pick up 4 desk mics, stands and all mic cables and ac cords. Pick up mixer - return all equipment to YL 203C storeroom.</t>
+  </si>
+  <si>
+    <t>return projector to DB 0003 storeroom</t>
+  </si>
+  <si>
+    <t>152 - Assembly Hall</t>
+  </si>
+  <si>
+    <t>Student group here, please turn on PC, projector - provide wireless keyboard from FC 156A</t>
+  </si>
+  <si>
+    <t>Turn off projector and PC, return wireless keyboard and projector remote to FC 156A</t>
+  </si>
+  <si>
+    <t>4034</t>
+  </si>
+  <si>
+    <t>Return to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return Small PA and neck mic to SSB N103</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>demo neck mic</t>
+  </si>
+  <si>
+    <t>Skype kit from OSG 1014L</t>
   </si>
 </sst>
 </file>
@@ -2174,10 +2219,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1329"/>
+  <dimension ref="A1:F1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1328" sqref="F1328"/>
+    <sheetView tabSelected="1" topLeftCell="A1361" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1386" sqref="F1386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20402,6 +20447,505 @@
         <v>544</v>
       </c>
     </row>
+    <row r="1335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1335" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1335" s="5">
+        <v>42758</v>
+      </c>
+      <c r="C1335" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1335" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1335" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1335" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1339" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1339" s="5">
+        <v>42759</v>
+      </c>
+      <c r="C1339" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1339" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1339" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1339" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1340" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1340" s="24">
+        <v>42759</v>
+      </c>
+      <c r="C1340" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1340" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1340" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1340" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1341" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1341" s="24">
+        <v>42759</v>
+      </c>
+      <c r="C1341" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1341" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1341" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1342" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1342" s="24">
+        <v>42759</v>
+      </c>
+      <c r="C1342" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1342" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1342" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1343" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1343" s="24">
+        <v>42759</v>
+      </c>
+      <c r="C1343" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1343" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1343" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1347" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1347" s="24">
+        <v>42760</v>
+      </c>
+      <c r="C1347" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1347" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1347" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1347" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1348" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1348" s="24">
+        <v>42760</v>
+      </c>
+      <c r="C1348" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1348" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1348" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1348" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1349" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1349" s="24">
+        <v>42760</v>
+      </c>
+      <c r="C1349" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1349" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1349" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1349" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1350" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1350" s="24">
+        <v>42760</v>
+      </c>
+      <c r="C1350" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1350" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1350" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1350" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1351" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1351" s="24">
+        <v>42760</v>
+      </c>
+      <c r="C1351" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1351" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1351" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1351" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1352" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1352" s="24">
+        <v>42760</v>
+      </c>
+      <c r="C1352" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1352" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1352" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1352" s="27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1353" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1353" s="5">
+        <v>42760</v>
+      </c>
+      <c r="C1353" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1353" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1353" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1354" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1354" s="5">
+        <v>42760</v>
+      </c>
+      <c r="C1354" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1354" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1354" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1354" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1355" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1355" s="5">
+        <v>42760</v>
+      </c>
+      <c r="C1355" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1355" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1355" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1356" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1356" s="5">
+        <v>42760</v>
+      </c>
+      <c r="C1356" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1356" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1356" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1356" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1357" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1357" s="5">
+        <v>42760</v>
+      </c>
+      <c r="C1357" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1357" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1357" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1357" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1362" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1362" s="5">
+        <v>42761</v>
+      </c>
+      <c r="C1362" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1362" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1362" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1362" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1367" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1367" s="5">
+        <v>42765</v>
+      </c>
+      <c r="C1367" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1367" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1367" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1367" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1368" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1368" s="5">
+        <v>42765</v>
+      </c>
+      <c r="C1368" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1368" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1368" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1368" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1373" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1373" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1373" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1373" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1373" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1373" s="27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1374" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1374" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1374" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1374" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1374" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1375" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1375" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1375" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1375" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1375" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1376" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1376" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1376" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1376" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1376" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1376" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1377" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1377" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1377" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1377" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1377" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1377" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1378" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1378" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1378" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1378" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1378" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1378" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A356:F370">
@@ -20411,7 +20955,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A638 A645:A676 A679:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1072 D1074:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1072 D1074:D1332 D1334:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="640">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1705,6 +1705,243 @@
   </si>
   <si>
     <t>Skype kit from OSG 1014L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student event here, demo equipment, no codes. </t>
+  </si>
+  <si>
+    <t>Logout crestron/PC</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Replace three 9v batteries with fresh ones from OSG 1014L</t>
+  </si>
+  <si>
+    <t>Skype kit from OSG 1014 L</t>
+  </si>
+  <si>
+    <t>Return Skype kit to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>PC and podium mic (there)</t>
+  </si>
+  <si>
+    <t>Audience mic on stand - wireless hand held from rear booth</t>
+  </si>
+  <si>
+    <t>operate event 16:30-18:30</t>
+  </si>
+  <si>
+    <t>Return audience hand held mic and stand to SSB N103</t>
+  </si>
+  <si>
+    <t>Student group here. Please assist, no codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout student group. Secure AV equipment. </t>
+  </si>
+  <si>
+    <t>Replace all batteries with fresh ones, return used ones on charge</t>
+  </si>
+  <si>
+    <t>Stand mic, small PA and tripod from OSG 1014L . Also please deliver to client HDMI cable (with equipment)</t>
+  </si>
+  <si>
+    <t>Return stand mic, small PA, tripod and HDMI cable to OSG 1014L</t>
+  </si>
+  <si>
+    <t>S201</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>Return doc camera on cart to SSB N103</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Replace all batteries with fresh ones, return used ones to charger</t>
+  </si>
+  <si>
+    <t>Demo and help client with Techsmit (camtasia). Make sure this goes well!</t>
+  </si>
+  <si>
+    <t>return projector to ATK 003C storeroom - we have a key in DB 0003</t>
+  </si>
+  <si>
+    <t>return equipment to DB 0003 and plug in for updates - we have a key in DB 0003</t>
+  </si>
+  <si>
+    <t>Small PA , mic and large TV with computer there - check in with client</t>
+  </si>
+  <si>
+    <t>Return large TV with PC and keyboard to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return small PA , mic and stand to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Return 3 IR  mics to KT 516 and place batteries in the charger</t>
+  </si>
+  <si>
+    <t>Set up two wireless mics + one wired panel mic in the front</t>
+  </si>
+  <si>
+    <t>Help client set up presentation</t>
+  </si>
+  <si>
+    <t>Operate event from 1700-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return wireless mics + recievers to SSB N103 storerrom. Return the wired panel back to the back booth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please turn off PC, projector. Lock the back booth, return keys to the storeroom. </t>
+  </si>
+  <si>
+    <t>Student group here. Please assist, no codes.</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Return Small PA and neck mic to ACE 015</t>
+  </si>
+  <si>
+    <t>Return projector to ACE 015</t>
+  </si>
+  <si>
+    <t>Return Small PA , receiver and  neck mic to SSB N103</t>
+  </si>
+  <si>
+    <t>Return wireless keyboard to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Help with TechSmith recording - must go well!</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>Return Skype kit to  ACE 015</t>
+  </si>
+  <si>
+    <t>S203</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>Return mic and stand to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Leave all in place but turn off PC and projector and return wireless keyboard to OSG 1014L</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>Turn off all equipment but LEAVE in place for tomorrow; lock room. We have a key in CB 121A storeroom</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>return neck mic to drawer</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Pick up 2 wireless audience mics and stands, 1 desk and 1 lectern mic with stands and cabbles. Return cart with mics and mixer to Lassonde 1011 storerrom. Return neck mic to drawer</t>
+  </si>
+  <si>
+    <t>Steacie lib</t>
+  </si>
+  <si>
+    <t>Pick up 2 mic stands and small PA on cart with all cables, AC cords and matts. Return to Lassonde 1011. Location is at back of Steacie library</t>
+  </si>
+  <si>
+    <t>Return 4 desk mics and one podium mic with cables and stands to booth behind stage</t>
+  </si>
+  <si>
+    <t>Return3 desk mics and one podium mic with cables , stands and mixer toOSG 1014L. Please return wireless keyboard as well</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>Log off PC and turn off projector; equipment stays in room. Key available in FC 164 storeroom</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics and one podium mic with stands and cables and mixer to SSB N109</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>Return small PA on cart with neck mic to SSB N103</t>
+  </si>
+  <si>
+    <t>Return mic with stand and cable to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return podium mic and audience mic with stands and cables to booth behind stage</t>
+  </si>
+  <si>
+    <t>048B</t>
+  </si>
+  <si>
+    <t>return wireless keyboard to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>Pick up Small PA and audio cable, return to HNE 003</t>
+  </si>
+  <si>
+    <t>Bookstore</t>
+  </si>
+  <si>
+    <t>Return small pa, neck mic and portable screen (!) to ACE 015</t>
+  </si>
+  <si>
+    <t>S156</t>
+  </si>
+  <si>
+    <t>Skype kit from ACE 015</t>
+  </si>
+  <si>
+    <t>Return skype kit to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>Set up one podium mic and one audience mic (mics , stands and cables in booth behind stage). Make sure partition door is open. Demo use of PC</t>
+  </si>
+  <si>
+    <t>Return audience mic and podium mic with cables and stands to booth behind stage</t>
+  </si>
+  <si>
+    <t>Retutn mic and stand to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return wireless keyboard to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>Reyurn Skype kit to OSG 1014 L</t>
   </si>
 </sst>
 </file>
@@ -2219,10 +2456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1378"/>
+  <dimension ref="A1:F1709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1361" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1386" sqref="F1386"/>
+    <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1709" sqref="F1709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20946,16 +21183,4756 @@
         <v>406</v>
       </c>
     </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1379" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1379" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1379" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1379" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1379" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1379" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1380" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1380" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1380" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1380" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1380" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1380" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1381" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1381" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1381" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1381" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1381" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1381" s="27" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1382" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1382" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1382" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1382" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1382" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1382" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1383" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1383" s="5">
+        <v>42766</v>
+      </c>
+      <c r="C1383" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1383" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1383" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1383" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1384" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1384" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1384" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1384" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1384" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1384" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1385" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1385" s="24">
+        <v>42766</v>
+      </c>
+      <c r="C1385" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1385" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1385" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1385" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1386" s="22"/>
+      <c r="B1386" s="24"/>
+      <c r="C1386" s="26"/>
+      <c r="D1386" s="23"/>
+      <c r="E1386" s="25"/>
+      <c r="F1386" s="27"/>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1391" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1391" s="24">
+        <v>42767</v>
+      </c>
+      <c r="C1391" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1391" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1391" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1391" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1392" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1392" s="24">
+        <v>42767</v>
+      </c>
+      <c r="C1392" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1392" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1392" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1392" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1393" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1393" s="24">
+        <v>42767</v>
+      </c>
+      <c r="C1393" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1393" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1393" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1393" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1394" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1394" s="24">
+        <v>42767</v>
+      </c>
+      <c r="C1394" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1394" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1394" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1394" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1395" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1395" s="24">
+        <v>42767</v>
+      </c>
+      <c r="C1395" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1395" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1395" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1395" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1396" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1396" s="24">
+        <v>42767</v>
+      </c>
+      <c r="C1396" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1396" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1396" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1396" s="27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1401" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1401" s="5">
+        <v>42768</v>
+      </c>
+      <c r="C1401" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1401" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1401" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1401" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1402" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1402" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1402" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1402" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1402" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1402" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1403" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1403" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1403" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1403" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1403" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1403" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1404" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1404" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1404" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1404" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1404" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1404" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1405" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1405" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1405" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1405" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1405" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1405" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1406" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1406" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1406" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1406" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1406" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1406" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1407" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1407" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1407" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1407" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1407" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1408" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1408" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1408" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1408" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1408" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1409" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1409" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1409" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1409" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1409" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1410" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1410" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1410" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1410" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1410" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1411" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1411" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1411" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1411" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1411" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1412" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1412" s="5">
+        <v>42768</v>
+      </c>
+      <c r="C1412" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1412" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1412" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1412" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1413" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1413" s="5">
+        <v>42768</v>
+      </c>
+      <c r="C1413" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1413" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1413" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1413" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1414" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1414" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1414" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1414" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1414" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1414" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1415" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1415" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1415" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1415" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1415" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1415" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1416" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1416" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1416" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1416" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1416" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1416" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1417" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1417" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1417" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1417" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1417" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1417" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1418" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1418" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1418" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1418" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1418" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1418" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1419" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1419" s="24">
+        <v>42768</v>
+      </c>
+      <c r="C1419" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1419" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1419" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1419" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1424" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1424" s="5">
+        <v>42769</v>
+      </c>
+      <c r="C1424" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1424" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1424" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1424" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1425" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1425" s="5">
+        <v>42769</v>
+      </c>
+      <c r="C1425" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1425" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1425" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1425" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1430" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1430" s="5">
+        <v>42772</v>
+      </c>
+      <c r="C1430" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1430" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1430" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1430" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1431" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1431" s="24">
+        <v>42772</v>
+      </c>
+      <c r="C1431" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1431" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1431" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1431" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1432" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1432" s="24">
+        <v>42772</v>
+      </c>
+      <c r="C1432" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1432" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1432" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1432" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1433" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1433" s="24">
+        <v>42772</v>
+      </c>
+      <c r="C1433" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1433" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1433" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1433" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1434" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1434" s="24">
+        <v>42772</v>
+      </c>
+      <c r="C1434" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1434" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1434" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1434" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1435" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1435" s="24">
+        <v>42772</v>
+      </c>
+      <c r="C1435" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1435" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1435" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1435" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1436" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1436" s="24">
+        <v>42772</v>
+      </c>
+      <c r="C1436" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1436" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1436" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1436" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1442" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1442" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1442" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1442" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1442" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1442" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1443" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1443" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1443" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1443" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1443" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1443" s="27"/>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1444" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1444" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1444" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1444" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1444" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1444" s="27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1445" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1445" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1445" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1445" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1445" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1445" s="27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1446" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1446" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1446" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1446" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1446" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1447" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1447" s="5">
+        <v>42773</v>
+      </c>
+      <c r="C1447" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1447" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1447" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1447" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1448" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1448" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1448" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1448" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1448" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1448" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1449" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1449" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1449" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1449" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1449" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1449" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1450" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1450" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1450" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1450" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1450" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1450" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1451" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1451" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1451" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1451" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1451" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1451" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1452" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1452" s="24">
+        <v>42773</v>
+      </c>
+      <c r="C1452" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1452" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1452" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1452" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1457" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1457" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1457" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1457" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1457" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1457" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1458" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1458" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1458" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1458" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1458" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1458" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1459" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1459" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1459" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1459" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1459" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1459" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1460" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1460" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1460" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1460" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1460" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1460" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1461" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1461" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1461" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1461" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1461" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1461" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1462" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1462" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1462" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1462" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1462" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1462" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1463" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1463" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1463" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1463" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1463" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1463" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1464" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1464" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1464" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1464" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1464" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1464" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1465" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1465" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1465" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1465" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1465" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1465" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1466" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1466" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1466" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1466" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1466" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1466" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1467" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1467" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1467" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1467" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1467" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1467" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1468" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1468" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1468" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1468" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1468" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1468" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1469" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1469" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1469" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1469" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1469" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1469" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1470" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1470" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1470" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1470" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1470" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1470" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1471" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1471" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1471" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1471" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1471" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1471" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1472" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1472" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1472" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1472" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1472" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1472" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1473" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1473" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1473" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1473" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1473" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1473" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1474" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1474" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1474" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1474" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1474" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1474" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1475" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1475" s="24">
+        <v>42774</v>
+      </c>
+      <c r="C1475" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1475" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1475" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1475" s="27" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1480" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1480" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C1480" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1480" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1480" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1480" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1481" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1481" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1481" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1481" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1481" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1481" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1482" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1482" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1482" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1482" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1482" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1482" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1483" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1483" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1483" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1483" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1483" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1483" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1484" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1484" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1484" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1484" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1484" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1484" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1485" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1485" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1485" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1485" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1485" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1485" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1486" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1486" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1486" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1486" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1486" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1486" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1487" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1487" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1487" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1487" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1487" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1487" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1488" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1488" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1488" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1488" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1488" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1488" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1489" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1489" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1489" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1489" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1489" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1489" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1490" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1490" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1490" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1490" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1490" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1490" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1491" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1491" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1491" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1491" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1491" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1491" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1492" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1492" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1492" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1492" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1492" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1492" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1493" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1493" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1493" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1493" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1493" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1493" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1494" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1494" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1494" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1494" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1494" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1494" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1495" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1495" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1495" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1495" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1495" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1495" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1496" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1496" s="24">
+        <v>42775</v>
+      </c>
+      <c r="C1496" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1496" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1496" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1496" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1497" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1497" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C1497" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1497" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1497" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1497" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1498" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1498" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C1498" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1498" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1498" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1498" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1499" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1499" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C1499" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1499" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1499" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1499" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1500" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1500" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C1500" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1500" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1500" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1500" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1501" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1501" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C1501" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1501" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1501" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1501" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1507" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1507" s="5">
+        <v>42776</v>
+      </c>
+      <c r="C1507" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1507" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1507" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1507" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1508" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1508" s="5">
+        <v>42776</v>
+      </c>
+      <c r="C1508" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1508" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1508" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1508" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1514" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1514" s="5">
+        <v>42779</v>
+      </c>
+      <c r="C1514" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1514" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1514" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1514" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1515" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1515" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1515" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1515" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1515" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1515" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1516" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1516" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1516" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1516" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1516" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1516" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1517" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1517" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1517" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1517" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1517" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1517" s="27" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1518" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1518" s="5">
+        <v>42779</v>
+      </c>
+      <c r="C1518" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1518" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1518" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1518" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1519" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1519" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1519" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1519" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1519" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1519" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1520" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1520" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1520" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1520" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1520" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1520" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1521" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1521" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1521" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1521" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1521" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1521" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1522" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1522" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1522" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1522" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1522" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1522" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1523" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1523" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1523" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1523" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1523" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1523" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1524" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1524" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1524" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1524" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1524" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1524" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1525" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1525" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1525" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1525" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1525" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1525" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1526" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1526" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1526" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1526" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1526" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1526" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1527" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1527" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1527" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1527" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1527" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1527" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1528" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1528" s="24">
+        <v>42779</v>
+      </c>
+      <c r="C1528" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1528" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1528" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1528" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1533" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1533" s="5">
+        <v>42780</v>
+      </c>
+      <c r="C1533" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1533" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1533" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1534" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1534" s="24">
+        <v>42780</v>
+      </c>
+      <c r="C1534" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1534" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1534" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1535" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1535" s="24">
+        <v>42780</v>
+      </c>
+      <c r="C1535" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1535" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1535" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1536" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1536" s="24">
+        <v>42780</v>
+      </c>
+      <c r="C1536" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1536" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1536" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1536" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1537" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1537" s="24">
+        <v>42780</v>
+      </c>
+      <c r="C1537" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1537" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1537" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1537" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1538" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1538" s="24">
+        <v>42780</v>
+      </c>
+      <c r="C1538" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1538" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1538" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1538" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1539" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1539" s="24">
+        <v>42780</v>
+      </c>
+      <c r="C1539" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1539" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1539" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1539" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1540" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1540" s="24">
+        <v>42780</v>
+      </c>
+      <c r="C1540" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1540" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1540" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1540" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1546" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1546" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1546" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1546" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1546" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1546" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1547" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1547" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1547" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1547" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1547" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1547" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1548" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1548" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1548" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1548" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1548" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1548" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1549" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1549" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1549" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1549" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1549" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1549" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1550" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1550" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1550" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1550" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1550" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1550" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1551" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1551" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1551" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1551" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1551" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1551" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1552" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1552" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1552" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1552" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1552" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1552" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1553" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1553" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1553" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1553" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1553" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1553" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1554" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1554" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1554" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1554" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1554" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1554" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1555" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1555" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1555" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1555" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1555" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1555" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1556" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1556" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1556" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1556" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1556" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1556" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1557" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1557" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1557" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1557" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1557" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1557" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1558" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1558" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1558" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1558" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1558" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1558" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1559" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1559" s="24">
+        <v>42781</v>
+      </c>
+      <c r="C1559" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1559" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1559" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1559" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1565" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1565" s="5">
+        <v>42782</v>
+      </c>
+      <c r="C1565" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1565" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1565" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1565" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1566" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1566" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1566" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1566" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1566" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1566" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1567" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1567" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1567" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1567" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1567" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1567" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1568" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1568" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1568" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1568" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1568" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1568" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1569" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1569" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1569" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1569" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1569" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1569" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1570" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1570" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1570" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1570" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1570" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1570" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1571" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1571" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1571" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1571" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1571" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1571" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1572" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1572" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1572" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1572" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1572" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1572" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1573" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1573" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1573" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1573" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1573" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1573" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1574" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1574" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1574" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1574" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1574" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1574" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1575" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1575" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1575" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1575" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1575" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1575" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1576" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1576" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1576" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1576" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1576" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1576" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1577" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1577" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1577" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1577" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1577" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1577" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1578" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1578" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1578" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1578" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1578" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1578" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1579" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1579" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1579" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1579" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1579" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1579" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1580" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1580" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1580" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1580" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1580" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1580" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1581" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1581" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1581" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1581" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1581" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1581" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1582" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1582" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1582" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1582" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1582" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1582" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1583" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1583" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1583" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1583" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1583" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1583" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1584" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1584" s="24">
+        <v>42782</v>
+      </c>
+      <c r="C1584" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1584" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1584" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1584" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1589" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1589" s="24">
+        <v>42783</v>
+      </c>
+      <c r="C1589" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1589" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1589" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1589" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1590" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1590" s="24">
+        <v>42783</v>
+      </c>
+      <c r="C1590" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1590" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1590" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1590" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1591" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1591" s="24">
+        <v>42783</v>
+      </c>
+      <c r="C1591" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1591" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1591" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1591" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1592" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1592" s="24">
+        <v>42783</v>
+      </c>
+      <c r="C1592" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1592" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1592" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1592" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1598" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1598" s="5">
+        <v>42788</v>
+      </c>
+      <c r="C1598" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1598" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1598" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1598" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1603" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1603" s="5">
+        <v>42789</v>
+      </c>
+      <c r="C1603" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1603" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1603" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1603" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1604" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1604" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1604" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1604" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1604" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1604" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1605" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1605" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1605" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1605" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1605" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1605" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1606" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1606" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1606" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1606" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1606" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1606" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1607" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1607" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1607" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1607" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1607" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1607" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1608" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1608" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1608" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1608" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1608" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1608" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1609" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1609" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1609" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1609" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1609" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1609" s="27" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1610" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1610" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1610" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1610" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1610" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1611" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1611" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1611" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1611" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1611" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1612" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1612" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1612" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1612" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1612" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1613" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1613" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1613" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1613" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1613" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1613" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1614" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1614" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1614" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1614" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1614" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1614" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1615" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1615" s="24">
+        <v>42789</v>
+      </c>
+      <c r="C1615" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1615" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1615" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1615" s="27" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1619" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1619" s="5">
+        <v>42790</v>
+      </c>
+      <c r="C1619" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1619" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1619" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1619" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1620" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1620" s="24">
+        <v>42790</v>
+      </c>
+      <c r="C1620" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1620" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1620" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1620" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1621" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1621" s="24">
+        <v>42790</v>
+      </c>
+      <c r="C1621" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1621" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1621" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1622" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1622" s="24">
+        <v>42790</v>
+      </c>
+      <c r="C1622" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1622" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1622" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1623" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1623" s="24">
+        <v>42790</v>
+      </c>
+      <c r="C1623" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1623" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1623" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1624" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1624" s="24">
+        <v>42790</v>
+      </c>
+      <c r="C1624" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1624" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1624" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1629" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1629" s="5">
+        <v>42793</v>
+      </c>
+      <c r="C1629" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1629" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1629" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1629" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1630" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1630" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1630" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1630" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1630" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1630" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1631" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1631" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1631" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1631" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1631" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1631" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1632" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1632" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1632" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1632" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1632" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1632" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1633" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1633" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1633" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1633" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1633" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1633" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1634" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1634" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1634" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1634" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1634" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1634" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1635" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1635" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1635" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1635" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1635" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1635" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1636" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1636" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1636" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1636" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1636" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1636" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1637" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1637" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1637" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1637" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1637" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1637" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1638" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1638" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1638" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1638" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1638" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1638" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1639" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1639" s="24">
+        <v>42793</v>
+      </c>
+      <c r="C1639" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1639" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1639" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1639" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1644" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1644" s="5">
+        <v>42794</v>
+      </c>
+      <c r="C1644" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1644" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1644" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1644" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1645" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1645" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1645" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1645" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1645" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1645" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1646" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1646" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1646" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1646" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1646" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1646" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1647" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1647" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1647" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1647" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1647" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1648" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1648" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1648" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1648" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1648" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1648" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1649" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1649" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1649" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1649" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1649" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1649" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1650" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1650" s="5">
+        <v>42794</v>
+      </c>
+      <c r="C1650" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1650" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1650" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1650" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1651" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1651" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1651" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1651" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1651" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1651" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1652" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1652" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1652" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1652" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1652" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1652" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1653" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1653" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1653" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1653" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1653" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1653" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1654" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1654" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1654" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1654" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1654" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1654" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1655" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1655" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1655" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1655" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1655" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1655" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1656" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1656" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1656" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1656" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1656" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1656" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1657" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1657" s="24">
+        <v>42794</v>
+      </c>
+      <c r="C1657" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1657" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1657" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1657" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1662" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1662" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1662" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1662" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1662" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1662" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1663" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1663" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1663" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1663" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1663" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1663" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1664" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1664" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1664" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1664" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1664" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1664" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1665" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1665" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1665" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1665" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1665" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1665" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1666" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1666" s="5">
+        <v>42795</v>
+      </c>
+      <c r="C1666" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1666" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1666" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1666" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1667" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1667" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1667" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1667" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1667" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1667" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1668" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1668" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1668" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1668" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1668" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1668" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1669" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1669" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1669" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1669" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1669" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1669" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1670" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1670" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1670" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1670" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1670" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1670" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1671" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1671" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1671" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1671" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1671" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1671" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1672" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1672" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1672" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1672" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1672" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1672" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1673" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1673" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1673" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1673" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1673" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1673" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1674" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1674" s="24">
+        <v>42795</v>
+      </c>
+      <c r="C1674" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1674" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1674" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1674" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1679" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1679" s="5">
+        <v>42796</v>
+      </c>
+      <c r="C1679" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1679" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1679" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1680" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1680" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1680" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1680" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1680" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1680" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1681" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1681" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1681" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1681" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1681" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1681" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1682" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1682" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1682" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1682" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1682" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1682" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1683" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1683" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1683" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1683" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1683" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1683" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1684" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1684" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1684" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1684" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1684" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1684" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1685" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1685" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1685" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1685" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1685" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1685" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1686" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1686" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1686" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1686" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1686" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1686" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1687" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1687" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1687" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1687" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1687" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1687" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1688" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1688" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1688" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1688" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1688" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1688" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1689" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1689" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1689" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1689" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1689" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1689" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1690" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1690" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1690" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1690" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1690" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1690" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1691" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1691" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1691" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1691" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1691" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1691" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1692" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1692" s="24">
+        <v>42796</v>
+      </c>
+      <c r="C1692" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1692" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1692" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1692" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1693" s="22"/>
+      <c r="B1693" s="24"/>
+      <c r="C1693" s="26"/>
+      <c r="D1693" s="23"/>
+      <c r="E1693" s="25"/>
+      <c r="F1693" s="27"/>
+    </row>
+    <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1696" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1696" s="5">
+        <v>42797</v>
+      </c>
+      <c r="C1696" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1696" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1696" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1696" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1697" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1697" s="5">
+        <v>42797</v>
+      </c>
+      <c r="C1697" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1697" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1697" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1697" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1701" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1701" s="5">
+        <v>42800</v>
+      </c>
+      <c r="C1701" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1701" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1701" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1701" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1702" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1702" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1702" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1702" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1702" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1702" s="27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1703" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1703" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1703" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1703" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1703" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1703" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1704" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1704" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1704" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1704" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1704" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1704" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1705" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1705" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1705" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1705" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1705" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1705" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1706" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1706" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1706" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1706" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1706" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1706" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1707" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1707" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1707" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1707" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1707" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1707" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1708" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1708" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1708" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1708" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1708" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1708" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1709" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1709" s="24">
+        <v>42800</v>
+      </c>
+      <c r="C1709" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1709" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1709" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1709" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A356:F370">
     <sortCondition ref="A356:A370"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A638 A645:A676 A679:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A638 A645:A676 A679:A1455 A1457:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1072 D1074:D1332 D1334:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1072 D1074:D1332 D1334:D1455 D1457:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="641">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1942,6 +1942,9 @@
   </si>
   <si>
     <t>Reyurn Skype kit to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>Return small PA with audio cable and power cord to DB 0003 - we have a key for the room in DB 0003 key rack</t>
   </si>
 </sst>
 </file>
@@ -2456,10 +2459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1709"/>
+  <dimension ref="A1:F1718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1709" sqref="F1709"/>
+    <sheetView tabSelected="1" topLeftCell="B1703" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1725" sqref="F1724:F1725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25921,6 +25924,104 @@
       </c>
       <c r="F1709" s="27" t="s">
         <v>581</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1714" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1714" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1714" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1714" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1714" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1714" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1715" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1715" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1715" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1715" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1715" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1715" s="27"/>
+    </row>
+    <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1716" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1716" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1716" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1716" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1716" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1716" s="27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1717" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1717" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1717" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1717" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1717" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1717" s="27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1718" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1718" s="5">
+        <v>42801</v>
+      </c>
+      <c r="C1718" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1718" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1718" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1718" s="14" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6259" uniqueCount="662">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1945,6 +1945,69 @@
   </si>
   <si>
     <t>Return small PA with audio cable and power cord to DB 0003 - we have a key for the room in DB 0003 key rack</t>
+  </si>
+  <si>
+    <t>Set up 4 desk mics  (from rear booth) and 2 neck mics  - one in the drawer, second in the back booth</t>
+  </si>
+  <si>
+    <t>Return 4 desk mics with stands and cables to rear booth.  Also return one neck mic to drawer (SHURE) and the other  (TOA) to rear booth</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Return Large screen TV with PC and wireless keyboard to HNES 003</t>
+  </si>
+  <si>
+    <t>Logout student group. Secure AV equipment. Return keyboard and remote to fc 156A</t>
+  </si>
+  <si>
+    <t>Lounge</t>
+  </si>
+  <si>
+    <t>Lounge in front of HNES 141 - Return speaker and tripod to HNES 003</t>
+  </si>
+  <si>
+    <t>Lounge in front of HNES 141 - Return Mic with cable and stand to HNES 003</t>
+  </si>
+  <si>
+    <t>Lounge in front of HNES 141 - Return cart PC to HNES 003</t>
+  </si>
+  <si>
+    <t>Lounge in front of HNES 141 - Return large screen TV with PC and wireless keyboard to DB 0003 !!</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>Return small PA and neck mic to SSB  N103</t>
+  </si>
+  <si>
+    <t>Pick up wireless keboard and USB receiver and return to SSB N103</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Return equipment to DB 0003</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics with cables and stands to booth behind stage</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics, one audience mic , one neck mic with receiver, cables, stands and mixer to ACE 015 (leave neck mic from the room in drawer)</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics, cables, stands and mixer to KT 516</t>
+  </si>
+  <si>
+    <t>Return 2 IR mics to KT 516 and place batteries in charger</t>
+  </si>
+  <si>
+    <t>Return one audience, one desk and one podium mic with cables stands and mixer to OSG 1014 L</t>
   </si>
 </sst>
 </file>
@@ -2459,10 +2522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1718"/>
+  <dimension ref="A1:F1828"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1703" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1725" sqref="F1724:F1725"/>
+    <sheetView tabSelected="1" topLeftCell="B1811" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1822" sqref="F1822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26022,6 +26085,1632 @@
       </c>
       <c r="F1718" s="14" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1719" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1719" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1719" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1719" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1719" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1719" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1720" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1720" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1720" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1720" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1720" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1720" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1721" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1721" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1721" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1721" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1721" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1721" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1722" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1722" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1722" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1722" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1722" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1722" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1723" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1723" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1723" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1723" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1723" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1723" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1724" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1724" s="24">
+        <v>42801</v>
+      </c>
+      <c r="C1724" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1724" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1724" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1724" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1729" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1729" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1729" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1729" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1729" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1729" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1730" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1730" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1730" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1730" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1730" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1730" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1731" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1731" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1731" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1731" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1731" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1731" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1732" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1732" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1732" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1732" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1732" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1732" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1733" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1733" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1733" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1733" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1733" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1734" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1734" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1734" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1734" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1734" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1734" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1735" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1735" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1735" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1735" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1735" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1735" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1736" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1736" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1736" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1736" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1736" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1736" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1737" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1737" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1737" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1737" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1737" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1737" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1738" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1738" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1738" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1738" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1738" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1738" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1739" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1739" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1739" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1739" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1739" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1739" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1740" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1740" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1740" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1740" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1740" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1740" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1741" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1741" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1741" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1741" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1741" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1741" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1742" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1742" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1742" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1742" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1742" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1742" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1743" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1743" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1743" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1743" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1743" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1743" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1744" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1744" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1744" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1744" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1744" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1744" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1745" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1745" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1745" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1745" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1745" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1745" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1746" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1746" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1746" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1746" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1746" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1746" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1747" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1747" s="24">
+        <v>42802</v>
+      </c>
+      <c r="C1747" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1747" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1747" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1747" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1752" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1752" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1752" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1752" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1752" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1752" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1753" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1753" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1753" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1753" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1753" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1753" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1754" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1754" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1754" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1754" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1754" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1754" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1755" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1755" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1755" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1755" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1755" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1755" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1756" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1756" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1756" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1756" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1756" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1756" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1757" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1757" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1757" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1757" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1757" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1757" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1758" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1758" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1758" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1758" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1758" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="F1758" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1759" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1759" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1759" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1759" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1759" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="F1759" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1760" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1760" s="5">
+        <v>42803</v>
+      </c>
+      <c r="C1760" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1760" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1760" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1760" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1761" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1761" s="5">
+        <v>42803</v>
+      </c>
+      <c r="C1761" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1761" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1761" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1761" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1762" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1762" s="5">
+        <v>42803</v>
+      </c>
+      <c r="C1762" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1762" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1762" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1762" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1763" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1763" s="5">
+        <v>42803</v>
+      </c>
+      <c r="C1763" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1763" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1763" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1764" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1764" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1764" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1764" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1764" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1764" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1765" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1765" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1765" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1765" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1765" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1765" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1766" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1766" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1766" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1766" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1766" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1766" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1767" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1767" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1767" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1767" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1767" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1767" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1768" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1768" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1768" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1768" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1768" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1768" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1769" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1769" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1769" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1769" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1769" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1769" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1770" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1770" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1770" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1770" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1770" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1770" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1771" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1771" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1771" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1771" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1771" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1771" s="27" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1772" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1772" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1772" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1772" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1772" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1772" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1773" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1773" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1773" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1773" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1773" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1773" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1774" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1774" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1774" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1774" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1774" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1774" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1775" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1775" s="24">
+        <v>42803</v>
+      </c>
+      <c r="C1775" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1775" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1775" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1775" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1779" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1779" s="5">
+        <v>42804</v>
+      </c>
+      <c r="C1779" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1779" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1779" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1780" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1780" s="24">
+        <v>42804</v>
+      </c>
+      <c r="C1780" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1780" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1780" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1781" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1781" s="24">
+        <v>42804</v>
+      </c>
+      <c r="C1781" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1781" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1781" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1782" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1782" s="24">
+        <v>42804</v>
+      </c>
+      <c r="C1782" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1782" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1782" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1782" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1783" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1783" s="24">
+        <v>42804</v>
+      </c>
+      <c r="C1783" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1783" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1783" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1783" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1784" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1784" s="24">
+        <v>42804</v>
+      </c>
+      <c r="C1784" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1784" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1784" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1784" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1785" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1785" s="24">
+        <v>42804</v>
+      </c>
+      <c r="C1785" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1785" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1785" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1785" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1789" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1789" s="5">
+        <v>42807</v>
+      </c>
+      <c r="C1789" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1789" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1789" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1790" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1790" s="24">
+        <v>42807</v>
+      </c>
+      <c r="C1790" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1790" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1790" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1790" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1791" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1791" s="24">
+        <v>42807</v>
+      </c>
+      <c r="C1791" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1791" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1791" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1791" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1792" s="24"/>
+    </row>
+    <row r="1793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1793" s="24"/>
+    </row>
+    <row r="1794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1794" s="24"/>
+    </row>
+    <row r="1795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1795" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1795" s="24">
+        <v>42808</v>
+      </c>
+      <c r="C1795" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1795" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1795" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1795" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1796" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1796" s="24">
+        <v>42808</v>
+      </c>
+      <c r="C1796" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1796" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1796" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1796" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1797" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1797" s="24">
+        <v>42808</v>
+      </c>
+      <c r="C1797" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1797" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1797" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1797" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1798" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1798" s="24">
+        <v>42808</v>
+      </c>
+      <c r="C1798" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1798" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1798" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1798" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1799" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1799" s="24">
+        <v>42808</v>
+      </c>
+      <c r="C1799" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1799" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1799" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1799" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1800" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1800" s="24">
+        <v>42808</v>
+      </c>
+      <c r="C1800" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1800" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1800" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1800" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1801" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1801" s="24">
+        <v>42808</v>
+      </c>
+      <c r="C1801" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1801" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1801" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1801" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1802" s="24"/>
+    </row>
+    <row r="1803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1803" s="24"/>
+    </row>
+    <row r="1804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1804" s="24"/>
+    </row>
+    <row r="1805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1805" s="24"/>
+    </row>
+    <row r="1806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1806" s="24"/>
+    </row>
+    <row r="1807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1807" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1807" s="5">
+        <v>42809</v>
+      </c>
+      <c r="C1807" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1807" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1807" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1807" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1808" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1808" s="24">
+        <v>42809</v>
+      </c>
+      <c r="C1808" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1808" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1808" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1808" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1809" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1809" s="24">
+        <v>42809</v>
+      </c>
+      <c r="C1809" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1809" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1809" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1809" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1810" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1810" s="24">
+        <v>42809</v>
+      </c>
+      <c r="C1810" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1810" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1810" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1810" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1811" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1811" s="24">
+        <v>42809</v>
+      </c>
+      <c r="C1811" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1811" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1811" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1811" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1812" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1812" s="24">
+        <v>42809</v>
+      </c>
+      <c r="C1812" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1812" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1812" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1812" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1813" s="24"/>
+    </row>
+    <row r="1817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1817" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1817" s="5">
+        <v>42810</v>
+      </c>
+      <c r="C1817" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1817" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1817" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1817" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1818" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1818" s="5">
+        <v>42810</v>
+      </c>
+      <c r="C1818" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1818" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1818" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1819" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1819" s="24">
+        <v>42810</v>
+      </c>
+      <c r="C1819" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1819" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1819" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1819" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1820" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1820" s="24">
+        <v>42810</v>
+      </c>
+      <c r="C1820" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1820" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1820" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1820" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1821" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1821" s="24">
+        <v>42810</v>
+      </c>
+      <c r="C1821" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1821" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1821" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1821" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1822" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1822" s="24">
+        <v>42810</v>
+      </c>
+      <c r="C1822" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1822" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1822" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1822" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1823" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1823" s="24">
+        <v>42810</v>
+      </c>
+      <c r="C1823" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1823" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1823" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1823" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1827" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1827" s="5">
+        <v>42811</v>
+      </c>
+      <c r="C1827" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1827" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1827" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1827" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1828" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1828" s="5">
+        <v>42811</v>
+      </c>
+      <c r="C1828" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1828" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1828" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1828" s="14" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6259" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6905" uniqueCount="702">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2008,6 +2008,127 @@
   </si>
   <si>
     <t>Return one audience, one desk and one podium mic with cables stands and mixer to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>Discover York</t>
+  </si>
+  <si>
+    <t>Return large PA on cart with mic, cable , stand  and rubber mat to SSB N103</t>
+  </si>
+  <si>
+    <t>Turn off PC, log off touchscreen.</t>
+  </si>
+  <si>
+    <t>Turn off PC, log off touchscreen, keyboard to drawer.</t>
+  </si>
+  <si>
+    <t>Set up roll in PC and projector cart in DB 2008. Take PC and projector cart from Tel 0003 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC and Projector cart. Return equipment to Tel 0003 storeroom.</t>
+  </si>
+  <si>
+    <t>Log off PC, logoff touchscreen on wall and return wireless keyboard to OSG 1014L storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up lecturn mic, cable and stand and return to OSG 1014L storeroom.</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Return 3 desk mics, stands , cables and mixer to HNES 003</t>
+  </si>
+  <si>
+    <t>Near HNES 136 - return to HNES 003</t>
+  </si>
+  <si>
+    <t>Help prof set up</t>
+  </si>
+  <si>
+    <t>Demo PC and sound</t>
+  </si>
+  <si>
+    <t>PC and 2 neck mics  (second available in rear booth)</t>
+  </si>
+  <si>
+    <t>Return second neck mic to rear booth</t>
+  </si>
+  <si>
+    <t>Return small PA and afferent audio cable to OSG 1014L</t>
+  </si>
+  <si>
+    <t>1840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please assist instructor with Video Playback. She has had many issues in the past so please be as thorough as possible with your assistance. Jill Prindiville. </t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up 3 desk wired mics and one audience wireless mic  with mixer -  bring wireless mic kit from STEA 107, mixer desck mics and stands in SSB N103 </t>
+  </si>
+  <si>
+    <t>Return 3 desk mics  and mixer to SSB N103  .   Return wireless mic in plastic case to STEA 107</t>
+  </si>
+  <si>
+    <t>We have a key for the room in DB 0003 keyrack -  Return PC to DB0003 and plug in for updates</t>
+  </si>
+  <si>
+    <t>Return to YKLN 203C</t>
+  </si>
+  <si>
+    <t>Return mic with stand and cable to YKLN 203C</t>
+  </si>
+  <si>
+    <t>Return to OSG 1014 L</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return large TV to Vari Storeroom </t>
+  </si>
+  <si>
+    <t>Return wireless handheld with receiver to KT 516 and place into plastic case!</t>
+  </si>
+  <si>
+    <t>Return document camera on cart to SSB N103</t>
+  </si>
+  <si>
+    <t>Return cart PC with ALL extension power cords to SSB N103</t>
+  </si>
+  <si>
+    <t>PICK UP hdmi switcher - right hand side on the floor. 
+All the cables, power cords, all colors, all HDMI cables are ours and should be picked up.</t>
+  </si>
+  <si>
+    <t>Use IR mics from KT516</t>
+  </si>
+  <si>
+    <t>Return IR mics to KT 516 and place batteries into charger</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>Return to  ace 015</t>
+  </si>
+  <si>
+    <t>Return 3 large TV's to ACW 108  (we do NOT have a key for the room- be on time)</t>
+  </si>
+  <si>
+    <t>Return 5 IR mics to KT 516 and place batteries in the charger</t>
+  </si>
+  <si>
+    <t>Return 2 desk mics, podium mic with stands, cables and mixer to OSG 1014L</t>
+  </si>
+  <si>
+    <t>Return 4 desk mics, 2 audience mics, podium mic and second neck mic (with all stands and cables) to booth behind stage</t>
   </si>
 </sst>
 </file>
@@ -2522,10 +2643,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1828"/>
+  <dimension ref="A1:F2012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1811" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1822" sqref="F1822"/>
+    <sheetView tabSelected="1" topLeftCell="A1997" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2017" sqref="E2017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27209,26 +27330,6 @@
         <v>652</v>
       </c>
     </row>
-    <row r="1790" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1790" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1790" s="24">
-        <v>42807</v>
-      </c>
-      <c r="C1790" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1790" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1790" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1790" s="14" t="s">
-        <v>653</v>
-      </c>
-    </row>
     <row r="1791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1791" s="2" t="s">
         <v>19</v>
@@ -27711,6 +27812,2635 @@
       </c>
       <c r="F1828" s="14" t="s">
         <v>661</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1832" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1832" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1832" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1832" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1832" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1832" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1833" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1833" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1833" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1833" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1833" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1833" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1834" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1834" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1834" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1834" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1834" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1834" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1835" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1835" s="5">
+        <v>42814</v>
+      </c>
+      <c r="C1835" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="D1835" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1835" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1835" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1836" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1836" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1836" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1836" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1836" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1836" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1837" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1837" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1837" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1837" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1837" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1837" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1838" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1838" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1838" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1838" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1838" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1838" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1839" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1839" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1839" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1839" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1839" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1839" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1840" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1840" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1840" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1840" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1840" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1840" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1841" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1841" s="24">
+        <v>42814</v>
+      </c>
+      <c r="C1841" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1841" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1841" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1841" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1844" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1845" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1845" s="24">
+        <v>42815</v>
+      </c>
+      <c r="C1845" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1845" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1845" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1845" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1846" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1846" s="5">
+        <v>42815</v>
+      </c>
+      <c r="C1846" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1846" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1846" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1846" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1847" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1847" s="5">
+        <v>42815</v>
+      </c>
+      <c r="C1847" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1847" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1847" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1847" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1848" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1848" s="5">
+        <v>42815</v>
+      </c>
+      <c r="C1848" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1848" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1848" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1848" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1849" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1849" s="5">
+        <v>42815</v>
+      </c>
+      <c r="C1849" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1849" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1849" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1849" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1850" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1850" s="24">
+        <v>42815</v>
+      </c>
+      <c r="C1850" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1850" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1850" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1850" s="27" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1851" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1851" s="5">
+        <v>42815</v>
+      </c>
+      <c r="C1851" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1851" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1851" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1851" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1852" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1852" s="24">
+        <v>42815</v>
+      </c>
+      <c r="C1852" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1852" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1852" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1852" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1853" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1853" s="24">
+        <v>42815</v>
+      </c>
+      <c r="C1853" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1853" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1853" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1853" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1854" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1854" s="24">
+        <v>42815</v>
+      </c>
+      <c r="C1854" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1854" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1854" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1854" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1855" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1855" s="24">
+        <v>42815</v>
+      </c>
+      <c r="C1855" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1855" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1855" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1855" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1856" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1856" s="24">
+        <v>42815</v>
+      </c>
+      <c r="C1856" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1856" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1856" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1856" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1861" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1861" s="5">
+        <v>42816</v>
+      </c>
+      <c r="C1861" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1861" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1861" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F1861" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1862" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1862" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1862" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1862" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1862" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1862" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1863" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1863" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1863" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1863" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1863" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1863" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1864" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1864" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1864" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1864" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1864" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1864" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1865" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1865" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1865" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1865" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1865" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1865" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1866" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1866" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1866" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1866" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1866" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1866" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1867" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1867" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1867" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1867" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1867" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1867" s="14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1868" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1868" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1868" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1868" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1868" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1868" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1869" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1869" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1869" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1869" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1869" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1869" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1870" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1870" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1870" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1870" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1870" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1870" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1871" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1871" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1871" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1871" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1871" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1871" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1872" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1872" s="24">
+        <v>42816</v>
+      </c>
+      <c r="C1872" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1872" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1872" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1872" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1874" s="24"/>
+      <c r="C1874" s="26"/>
+      <c r="D1874" s="23"/>
+      <c r="E1874" s="25"/>
+      <c r="F1874" s="27"/>
+    </row>
+    <row r="1875" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1875" s="24"/>
+      <c r="C1875" s="26"/>
+      <c r="D1875" s="23"/>
+      <c r="E1875" s="25"/>
+      <c r="F1875" s="27"/>
+    </row>
+    <row r="1877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1877" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1877" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1877" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1877" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1877" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1877" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1878" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1878" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1878" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1878" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1878" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1878" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1879" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1879" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1879" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1879" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1879" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1879" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1880" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1880" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1880" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1880" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1880" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1880" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1881" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1881" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1881" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1881" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1881" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1881" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1882" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1882" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1882" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1882" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1882" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1882" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1883" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1883" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1883" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1883" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1883" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1883" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1884" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1884" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1884" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1884" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1884" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1884" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1885" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1885" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1885" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1885" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1885" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1885" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1886" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1886" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1886" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1886" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1886" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1886" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1887" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1887" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1887" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1887" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1887" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1887" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1888" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1888" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1888" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1888" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1888" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1888" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1889" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1889" s="24">
+        <v>42817</v>
+      </c>
+      <c r="C1889" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1889" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1889" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1889" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1893" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1893" s="5">
+        <v>42818</v>
+      </c>
+      <c r="C1893" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1893" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1893" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1893" s="14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1894" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1894" s="24">
+        <v>42818</v>
+      </c>
+      <c r="C1894" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1894" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1894" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1894" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1895" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1895" s="24">
+        <v>42818</v>
+      </c>
+      <c r="C1895" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1895" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1895" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1895" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1900" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1900" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1900" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1900" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1900" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1900" s="27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1901" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1901" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1901" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1901" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1901" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1901" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1902" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1902" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1902" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1902" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1902" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1902" s="14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1903" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1903" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1903" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1903" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1903" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1903" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1904" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1904" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1904" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1904" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1904" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1904" s="14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1905" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1905" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1905" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1905" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1905" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1905" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1906" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1906" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1906" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1906" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1906" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F1906" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1907" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1907" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1907" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1907" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1907" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F1907" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1908" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1908" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1908" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1908" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1908" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1908" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1909" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1909" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1909" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1909" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1909" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1909" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1910" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1910" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1910" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1910" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1910" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1910" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1911" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1911" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1911" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1911" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1911" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1911" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1912" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1912" s="24">
+        <v>42821</v>
+      </c>
+      <c r="C1912" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1912" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1912" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1912" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1916" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1916" s="24">
+        <v>42822</v>
+      </c>
+      <c r="C1916" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1916" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1916" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1916" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1917" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1917" s="24">
+        <v>42822</v>
+      </c>
+      <c r="C1917" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1917" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1917" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1917" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1918" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1918" s="24">
+        <v>42822</v>
+      </c>
+      <c r="C1918" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1918" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1918" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1918" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1919" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1919" s="24">
+        <v>42822</v>
+      </c>
+      <c r="C1919" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1919" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1919" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1919" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1925" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1925" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1925" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1925" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1925" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1925" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1926" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1926" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1926" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1926" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1926" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1926" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1927" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1927" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1927" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1927" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1927" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1927" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1928" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1928" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1928" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1928" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1928" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1928" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1929" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1929" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1929" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1929" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1929" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1929" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1930" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1930" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1930" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1930" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1930" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1930" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1931" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1931" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1931" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1931" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1931" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1931" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1932" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1932" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1932" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1932" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1932" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1932" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1933" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1933" s="24">
+        <v>42823</v>
+      </c>
+      <c r="C1933" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1933" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1933" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1933" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1937" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1937" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1937" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1937" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1937" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1937" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1938" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1938" s="5">
+        <v>42824</v>
+      </c>
+      <c r="C1938" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1938" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1938" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1938" s="14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1939" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1939" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1939" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1939" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1939" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1939" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1940" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1940" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1940" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1940" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1940" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1940" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1941" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1941" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1941" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1941" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1941" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1941" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1942" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1942" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1942" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1942" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1942" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1942" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1943" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1943" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1943" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1943" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1943" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1943" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1944" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1944" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1944" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1944" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1944" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1944" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1945" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1945" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1945" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1945" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1945" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1945" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1946" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1946" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1946" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1946" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1946" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1946" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1947" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1947" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1947" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1947" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1947" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1947" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1948" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1948" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1948" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1948" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1948" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1948" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1949" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1949" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1949" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1949" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1949" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1949" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1950" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1950" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1950" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1950" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1950" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1950" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1951" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1951" s="24">
+        <v>42824</v>
+      </c>
+      <c r="C1951" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1951" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1951" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1951" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1955" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1955" s="5">
+        <v>42825</v>
+      </c>
+      <c r="C1955" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1955" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1955" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1955" s="14" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1956" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1956" s="24">
+        <v>42825</v>
+      </c>
+      <c r="C1956" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1956" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1956" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1956" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1957" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1957" s="24">
+        <v>42825</v>
+      </c>
+      <c r="C1957" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1957" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1957" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1957" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1958" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1958" s="24">
+        <v>42825</v>
+      </c>
+      <c r="C1958" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1958" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1958" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1958" s="14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1959" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1959" s="24">
+        <v>42825</v>
+      </c>
+      <c r="C1959" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1959" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1959" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1959" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1963" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1963" s="5">
+        <v>42828</v>
+      </c>
+      <c r="C1963" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1963" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1963" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1963" s="14" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1964" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1964" s="24">
+        <v>42828</v>
+      </c>
+      <c r="C1964" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1964" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1964" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1964" s="27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1965" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1965" s="24">
+        <v>42828</v>
+      </c>
+      <c r="C1965" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1965" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1965" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1966" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1966" s="24">
+        <v>42828</v>
+      </c>
+      <c r="C1966" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1966" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1966" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1967" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1967" s="24">
+        <v>42828</v>
+      </c>
+      <c r="C1967" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1967" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1967" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1968" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1968" s="24">
+        <v>42828</v>
+      </c>
+      <c r="C1968" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1968" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1968" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1969" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1969" s="24">
+        <v>42828</v>
+      </c>
+      <c r="C1969" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1969" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1969" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1973" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1973" s="5">
+        <v>42829</v>
+      </c>
+      <c r="C1973" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1973" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1973" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F1973" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:6" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1974" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1974" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1974" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1974" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1974" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="F1974" s="27" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1975" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1975" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1975" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1975" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1975" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F1975" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1976" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1976" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1976" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1976" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1976" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F1976" s="14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1977" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1977" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1977" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1977" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1977" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1977" s="14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1978" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1978" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1978" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1978" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1978" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1979" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1979" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1979" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1979" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1979" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1979" s="14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1980" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1980" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1980" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1980" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1980" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1980" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1981" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1981" s="24">
+        <v>42829</v>
+      </c>
+      <c r="C1981" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1981" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1981" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1981" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1986" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1986" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1986" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1986" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1986" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1986" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1987" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1987" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1987" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1987" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1987" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1987" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1988" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1988" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1988" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1988" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1988" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1988" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1989" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1989" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1989" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1989" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1989" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1989" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1990" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1990" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1990" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1990" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1990" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1990" s="14" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1991" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1991" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1991" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1991" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1991" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1991" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1992" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1992" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1992" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1992" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1992" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1992" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1993" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1993" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1993" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1993" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1993" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1993" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1994" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1994" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1994" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1994" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1994" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1994" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1995" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1995" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1995" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1995" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1995" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1995" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1996" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1996" s="24">
+        <v>42830</v>
+      </c>
+      <c r="C1996" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1996" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1996" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1996" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2000" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2000" s="5">
+        <v>42831</v>
+      </c>
+      <c r="C2000" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="D2000" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2000" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2001" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2001" s="5">
+        <v>42831</v>
+      </c>
+      <c r="C2001" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2001" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2001" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2001" s="14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2006" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2006" s="5">
+        <v>42832</v>
+      </c>
+      <c r="C2006" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2006" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2006" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2006" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2007" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2007" s="24">
+        <v>42832</v>
+      </c>
+      <c r="C2007" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2007" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2007" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2008" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2008" s="24">
+        <v>42832</v>
+      </c>
+      <c r="C2008" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2008" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2008" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2009" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2009" s="24">
+        <v>42832</v>
+      </c>
+      <c r="C2009" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2009" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2009" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2010" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2010" s="24">
+        <v>42832</v>
+      </c>
+      <c r="C2010" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2010" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2010" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2010" s="14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2011" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2011" s="24">
+        <v>42832</v>
+      </c>
+      <c r="C2011" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2011" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2011" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2011" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2012" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2012" s="24">
+        <v>42832</v>
+      </c>
+      <c r="C2012" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2012" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2012" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2012" s="14" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -27719,10 +30449,10 @@
     <sortCondition ref="A356:A370"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A638 A645:A676 A679:A1455 A1457:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A638 A645:A676 A679:A1455 A1457:A1789 A1791:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1072 D1074:D1332 D1334:D1455 D1457:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D638 D645:D676 D679:D996 D998:D1072 D1074:D1332 D1334:D1455 D1457:D1789 D1791:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6905" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6915" uniqueCount="704">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2129,6 +2129,12 @@
   </si>
   <si>
     <t>Return 4 desk mics, 2 audience mics, podium mic and second neck mic (with all stands and cables) to booth behind stage</t>
+  </si>
+  <si>
+    <t>4022</t>
+  </si>
+  <si>
+    <t>Return projector to Bethune 201; leave portable screen in room ! Key for room available in CB 121A</t>
   </si>
 </sst>
 </file>
@@ -2643,10 +2649,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2012"/>
+  <dimension ref="A1:F2021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1997" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2017" sqref="E2017"/>
+    <sheetView tabSelected="1" topLeftCell="A2006" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2025" sqref="F2024:F2025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30441,6 +30447,46 @@
       </c>
       <c r="F2012" s="14" t="s">
         <v>701</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2017" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2017" s="5">
+        <v>42838</v>
+      </c>
+      <c r="C2017" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2017" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2017" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="F2017" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2021" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2021" s="5">
+        <v>42843</v>
+      </c>
+      <c r="C2021" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2021" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2021" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2021" s="14" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Raul/Raul's Log.xlsx
+++ b/CLASSOPS/Raul/Raul's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6915" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6925" uniqueCount="706">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2135,6 +2135,12 @@
   </si>
   <si>
     <t>Return projector to Bethune 201; leave portable screen in room ! Key for room available in CB 121A</t>
+  </si>
+  <si>
+    <t>Return 6 IR mics, mixer and IR receivers to HNES 003</t>
+  </si>
+  <si>
+    <t>Return Skype kit to HNES 003</t>
   </si>
 </sst>
 </file>
@@ -2649,10 +2655,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2021"/>
+  <dimension ref="A1:F2028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2006" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2025" sqref="F2024:F2025"/>
+    <sheetView tabSelected="1" topLeftCell="B2009" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2028" sqref="F2028"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30487,6 +30493,46 @@
       </c>
       <c r="F2021" s="14" t="s">
         <v>703</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2027" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2027" s="5">
+        <v>42849</v>
+      </c>
+      <c r="C2027" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2027" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2027" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2027" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2028" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2028" s="5">
+        <v>42849</v>
+      </c>
+      <c r="C2028" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2028" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2028" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2028" s="14" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
